--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1606,13 +1606,17 @@
         <v>69360</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>69800</v>
+      </c>
+      <c r="K35" t="n">
+        <v>69800</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1647,8 +1651,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1692,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1717,8 +1733,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1752,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +1815,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1822,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +1979,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2061,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2143,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2184,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2307,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2348,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2389,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2430,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2471,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2512,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2553,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2594,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2676,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2717,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2758,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2624,13 +2796,19 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>69800</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>1.005028653295129</v>
       </c>
     </row>
     <row r="65">
@@ -4339,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4374,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4409,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4444,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4479,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4514,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4549,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4584,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4619,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4654,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4686,20 +4864,14 @@
         <v>68040</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,20 +4899,14 @@
         <v>67810</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>67350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4768,20 +4934,14 @@
         <v>67480</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4809,20 +4969,14 @@
         <v>67360</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4850,20 +5004,14 @@
         <v>67200</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4891,20 +5039,14 @@
         <v>67190</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>67450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4935,17 +5077,15 @@
         <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>67150</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>67450</v>
+      </c>
+      <c r="K129" t="n">
+        <v>67450</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>73900</v>
+      </c>
+      <c r="C2" t="n">
         <v>74050</v>
       </c>
-      <c r="C2" t="n">
-        <v>74100</v>
-      </c>
       <c r="D2" t="n">
-        <v>74100</v>
+        <v>74050</v>
       </c>
       <c r="E2" t="n">
-        <v>74050</v>
+        <v>73900</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>6.5942</v>
       </c>
       <c r="G2" t="n">
-        <v>73680</v>
+        <v>70992.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74100</v>
+        <v>74050</v>
       </c>
       <c r="C3" t="n">
         <v>74100</v>
@@ -477,19 +477,19 @@
         <v>74100</v>
       </c>
       <c r="E3" t="n">
-        <v>74100</v>
+        <v>74050</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>73940</v>
+        <v>71076.66666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>73700</v>
+        <v>74100</v>
       </c>
       <c r="C4" t="n">
-        <v>73700</v>
+        <v>74100</v>
       </c>
       <c r="D4" t="n">
-        <v>73700</v>
+        <v>74100</v>
       </c>
       <c r="E4" t="n">
-        <v>73700</v>
+        <v>74100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2467</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>73940</v>
+        <v>71160</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72950</v>
+        <v>73700</v>
       </c>
       <c r="C5" t="n">
-        <v>72400</v>
+        <v>73700</v>
       </c>
       <c r="D5" t="n">
-        <v>72950</v>
+        <v>73700</v>
       </c>
       <c r="E5" t="n">
-        <v>72200</v>
+        <v>73700</v>
       </c>
       <c r="F5" t="n">
-        <v>31.0645</v>
+        <v>0.2467</v>
       </c>
       <c r="G5" t="n">
-        <v>73670</v>
+        <v>71246.66666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72200</v>
+        <v>72950</v>
       </c>
       <c r="C6" t="n">
-        <v>72200</v>
+        <v>72400</v>
       </c>
       <c r="D6" t="n">
-        <v>72200</v>
+        <v>72950</v>
       </c>
       <c r="E6" t="n">
         <v>72200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8</v>
+        <v>31.0645</v>
       </c>
       <c r="G6" t="n">
-        <v>73300</v>
+        <v>71313.33333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="C7" t="n">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="D7" t="n">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="E7" t="n">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="F7" t="n">
-        <v>6.785</v>
+        <v>0.8</v>
       </c>
       <c r="G7" t="n">
-        <v>72940</v>
+        <v>71375.83333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72350</v>
+        <v>72300</v>
       </c>
       <c r="C8" t="n">
-        <v>72350</v>
+        <v>72300</v>
       </c>
       <c r="D8" t="n">
-        <v>72350</v>
+        <v>72300</v>
       </c>
       <c r="E8" t="n">
-        <v>72350</v>
+        <v>72300</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1178</v>
+        <v>6.785</v>
       </c>
       <c r="G8" t="n">
-        <v>72590</v>
+        <v>71430.83333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72450</v>
+        <v>72350</v>
       </c>
       <c r="C9" t="n">
-        <v>72950</v>
+        <v>72350</v>
       </c>
       <c r="D9" t="n">
-        <v>72950</v>
+        <v>72350</v>
       </c>
       <c r="E9" t="n">
-        <v>72450</v>
+        <v>72350</v>
       </c>
       <c r="F9" t="n">
-        <v>6.1758</v>
+        <v>1.1178</v>
       </c>
       <c r="G9" t="n">
-        <v>72440</v>
+        <v>71486.66666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>72450</v>
+      </c>
+      <c r="C10" t="n">
         <v>72950</v>
       </c>
-      <c r="C10" t="n">
-        <v>73100</v>
-      </c>
       <c r="D10" t="n">
-        <v>73100</v>
+        <v>72950</v>
       </c>
       <c r="E10" t="n">
-        <v>72950</v>
+        <v>72450</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1836</v>
+        <v>6.1758</v>
       </c>
       <c r="G10" t="n">
-        <v>72580</v>
+        <v>71566.66666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73100</v>
+        <v>72950</v>
       </c>
       <c r="C11" t="n">
         <v>73100</v>
@@ -757,13 +757,13 @@
         <v>73100</v>
       </c>
       <c r="E11" t="n">
-        <v>73100</v>
+        <v>72950</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0563</v>
+        <v>0.1836</v>
       </c>
       <c r="G11" t="n">
-        <v>72760</v>
+        <v>71642.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>72900</v>
+        <v>73100</v>
       </c>
       <c r="C12" t="n">
-        <v>72900</v>
+        <v>73100</v>
       </c>
       <c r="D12" t="n">
-        <v>72900</v>
+        <v>73100</v>
       </c>
       <c r="E12" t="n">
-        <v>72900</v>
+        <v>73100</v>
       </c>
       <c r="F12" t="n">
-        <v>1.264</v>
+        <v>0.0563</v>
       </c>
       <c r="G12" t="n">
-        <v>72880</v>
+        <v>71715</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>72900</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0979</v>
+        <v>1.264</v>
       </c>
       <c r="G13" t="n">
-        <v>72990</v>
+        <v>71795.83333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>72900</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4.0979</v>
       </c>
       <c r="G14" t="n">
-        <v>72980</v>
+        <v>71875.83333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>72700</v>
+        <v>72900</v>
       </c>
       <c r="C15" t="n">
-        <v>72700</v>
+        <v>72900</v>
       </c>
       <c r="D15" t="n">
-        <v>72700</v>
+        <v>72900</v>
       </c>
       <c r="E15" t="n">
-        <v>72700</v>
+        <v>72900</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>72900</v>
+        <v>71955.83333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72250</v>
+        <v>72700</v>
       </c>
       <c r="C16" t="n">
-        <v>72200</v>
+        <v>72700</v>
       </c>
       <c r="D16" t="n">
-        <v>72800</v>
+        <v>72700</v>
       </c>
       <c r="E16" t="n">
-        <v>72200</v>
+        <v>72700</v>
       </c>
       <c r="F16" t="n">
-        <v>5.705021978021</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>72720</v>
+        <v>72032.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>72000</v>
+        <v>72250</v>
       </c>
       <c r="C17" t="n">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="D17" t="n">
-        <v>72000</v>
+        <v>72800</v>
       </c>
       <c r="E17" t="n">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>5.705021978021</v>
       </c>
       <c r="G17" t="n">
-        <v>72540</v>
+        <v>72082.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="C18" t="n">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="D18" t="n">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="E18" t="n">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2539</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>72300</v>
+        <v>72125</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>71700</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0461</v>
+        <v>0.2539</v>
       </c>
       <c r="G19" t="n">
-        <v>72060</v>
+        <v>72157.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>70950</v>
+        <v>71700</v>
       </c>
       <c r="C20" t="n">
-        <v>69450</v>
+        <v>71700</v>
       </c>
       <c r="D20" t="n">
-        <v>70950</v>
+        <v>71700</v>
       </c>
       <c r="E20" t="n">
-        <v>69450</v>
+        <v>71700</v>
       </c>
       <c r="F20" t="n">
-        <v>7.6275</v>
+        <v>0.0461</v>
       </c>
       <c r="G20" t="n">
-        <v>71410</v>
+        <v>72187.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69900</v>
+        <v>70950</v>
       </c>
       <c r="C21" t="n">
-        <v>68800</v>
+        <v>69450</v>
       </c>
       <c r="D21" t="n">
-        <v>69900</v>
+        <v>70950</v>
       </c>
       <c r="E21" t="n">
-        <v>68800</v>
+        <v>69450</v>
       </c>
       <c r="F21" t="n">
-        <v>141</v>
+        <v>7.6275</v>
       </c>
       <c r="G21" t="n">
-        <v>70730</v>
+        <v>72178.33333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>70950</v>
+        <v>69900</v>
       </c>
       <c r="C22" t="n">
-        <v>71050</v>
+        <v>68800</v>
       </c>
       <c r="D22" t="n">
-        <v>71050</v>
+        <v>69900</v>
       </c>
       <c r="E22" t="n">
-        <v>70950</v>
+        <v>68800</v>
       </c>
       <c r="F22" t="n">
-        <v>72.983601337086</v>
+        <v>141</v>
       </c>
       <c r="G22" t="n">
-        <v>70540</v>
+        <v>72170.83333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>70900</v>
+        <v>70950</v>
       </c>
       <c r="C23" t="n">
-        <v>70900</v>
+        <v>71050</v>
       </c>
       <c r="D23" t="n">
-        <v>70900</v>
+        <v>71050</v>
       </c>
       <c r="E23" t="n">
-        <v>70900</v>
+        <v>70950</v>
       </c>
       <c r="F23" t="n">
-        <v>5.5856</v>
+        <v>72.983601337086</v>
       </c>
       <c r="G23" t="n">
-        <v>70380</v>
+        <v>72186.66666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>70700</v>
+        <v>70900</v>
       </c>
       <c r="C24" t="n">
-        <v>70700</v>
+        <v>70900</v>
       </c>
       <c r="D24" t="n">
-        <v>70700</v>
+        <v>70900</v>
       </c>
       <c r="E24" t="n">
-        <v>70700</v>
+        <v>70900</v>
       </c>
       <c r="F24" t="n">
-        <v>0.68</v>
+        <v>5.5856</v>
       </c>
       <c r="G24" t="n">
-        <v>70180</v>
+        <v>72194.16666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>70500</v>
+        <v>70700</v>
       </c>
       <c r="C25" t="n">
-        <v>70500</v>
+        <v>70700</v>
       </c>
       <c r="D25" t="n">
-        <v>70500</v>
+        <v>70700</v>
       </c>
       <c r="E25" t="n">
-        <v>70500</v>
+        <v>70700</v>
       </c>
       <c r="F25" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="G25" t="n">
-        <v>70390</v>
+        <v>72182.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="C26" t="n">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="D26" t="n">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="E26" t="n">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="F26" t="n">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="G26" t="n">
-        <v>70650</v>
+        <v>72175</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>70050</v>
+        <v>70100</v>
       </c>
       <c r="C27" t="n">
-        <v>70050</v>
+        <v>70100</v>
       </c>
       <c r="D27" t="n">
-        <v>70050</v>
+        <v>70100</v>
       </c>
       <c r="E27" t="n">
-        <v>70050</v>
+        <v>70100</v>
       </c>
       <c r="F27" t="n">
-        <v>5.4353</v>
+        <v>1.06</v>
       </c>
       <c r="G27" t="n">
-        <v>70450</v>
+        <v>72160.83333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>70000</v>
+        <v>70050</v>
       </c>
       <c r="C28" t="n">
-        <v>70000</v>
+        <v>70050</v>
       </c>
       <c r="D28" t="n">
-        <v>70000</v>
+        <v>70050</v>
       </c>
       <c r="E28" t="n">
-        <v>70000</v>
+        <v>70050</v>
       </c>
       <c r="F28" t="n">
-        <v>13.3665</v>
+        <v>5.4353</v>
       </c>
       <c r="G28" t="n">
-        <v>70270</v>
+        <v>72150.83333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>70300</v>
+        <v>70000</v>
       </c>
       <c r="C29" t="n">
-        <v>69700</v>
+        <v>70000</v>
       </c>
       <c r="D29" t="n">
-        <v>70300</v>
+        <v>70000</v>
       </c>
       <c r="E29" t="n">
-        <v>69700</v>
+        <v>70000</v>
       </c>
       <c r="F29" t="n">
-        <v>8.1456</v>
+        <v>13.3665</v>
       </c>
       <c r="G29" t="n">
-        <v>70070</v>
+        <v>72140</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>69650</v>
+        <v>70300</v>
       </c>
       <c r="C30" t="n">
-        <v>68750</v>
+        <v>69700</v>
       </c>
       <c r="D30" t="n">
-        <v>69650</v>
+        <v>70300</v>
       </c>
       <c r="E30" t="n">
-        <v>68750</v>
+        <v>69700</v>
       </c>
       <c r="F30" t="n">
-        <v>2.408</v>
+        <v>8.1456</v>
       </c>
       <c r="G30" t="n">
-        <v>69720</v>
+        <v>72135</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69000</v>
+        <v>69650</v>
       </c>
       <c r="C31" t="n">
-        <v>69000</v>
+        <v>68750</v>
       </c>
       <c r="D31" t="n">
-        <v>69000</v>
+        <v>69650</v>
       </c>
       <c r="E31" t="n">
-        <v>69000</v>
+        <v>68750</v>
       </c>
       <c r="F31" t="n">
-        <v>72.80119999999999</v>
+        <v>2.408</v>
       </c>
       <c r="G31" t="n">
-        <v>69500</v>
+        <v>72107.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69600</v>
+        <v>69000</v>
       </c>
       <c r="C32" t="n">
-        <v>69550</v>
+        <v>69000</v>
       </c>
       <c r="D32" t="n">
-        <v>69600</v>
+        <v>69000</v>
       </c>
       <c r="E32" t="n">
-        <v>69550</v>
+        <v>69000</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>72.80119999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>69400</v>
+        <v>72082.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="C33" t="n">
         <v>69550</v>
       </c>
       <c r="D33" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="E33" t="n">
         <v>69550</v>
       </c>
       <c r="F33" t="n">
-        <v>5.7749</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>69310</v>
+        <v>72068.33333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="C34" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="D34" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="E34" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05</v>
+        <v>5.7749</v>
       </c>
       <c r="G34" t="n">
-        <v>69330</v>
+        <v>72045.83333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,35 +1588,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68900</v>
+        <v>69800</v>
       </c>
       <c r="C35" t="n">
-        <v>68900</v>
+        <v>69800</v>
       </c>
       <c r="D35" t="n">
-        <v>68900</v>
+        <v>69800</v>
       </c>
       <c r="E35" t="n">
-        <v>68900</v>
+        <v>69800</v>
       </c>
       <c r="F35" t="n">
-        <v>0.866</v>
+        <v>0.05</v>
       </c>
       <c r="G35" t="n">
-        <v>69360</v>
+        <v>72027.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>69800</v>
-      </c>
-      <c r="K35" t="n">
-        <v>69800</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1627,243 +1623,225 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C36" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D36" t="n">
+        <v>68900</v>
+      </c>
+      <c r="E36" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="G36" t="n">
+        <v>72001.66666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>69400</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>69400</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>69400</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E37" t="n">
         <v>69400</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F37" t="n">
         <v>1.66</v>
       </c>
-      <c r="G36" t="n">
-        <v>69440</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G37" t="n">
+        <v>71980.83333333333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>69100</v>
+      </c>
+      <c r="C38" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D38" t="n">
+        <v>69100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10.305890014471</v>
+      </c>
+      <c r="G38" t="n">
+        <v>71940</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>68350</v>
+      </c>
+      <c r="C39" t="n">
+        <v>68350</v>
+      </c>
+      <c r="D39" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E39" t="n">
+        <v>68350</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>71885.83333333333</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>68500</v>
+      </c>
+      <c r="K39" t="n">
+        <v>68500</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C40" t="n">
+        <v>68400</v>
+      </c>
+      <c r="D40" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E40" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.827</v>
+      </c>
+      <c r="G40" t="n">
+        <v>71831.66666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>68500</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>69100</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>68850</v>
+      </c>
+      <c r="C41" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D41" t="n">
+        <v>68850</v>
+      </c>
+      <c r="E41" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.5657</v>
+      </c>
+      <c r="G41" t="n">
+        <v>71786.66666666667</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>68400</v>
+      </c>
+      <c r="K41" t="n">
         <v>68500</v>
       </c>
-      <c r="D37" t="n">
-        <v>69100</v>
-      </c>
-      <c r="E37" t="n">
-        <v>68500</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10.305890014471</v>
-      </c>
-      <c r="G37" t="n">
-        <v>69230</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>68350</v>
-      </c>
-      <c r="C38" t="n">
-        <v>68350</v>
-      </c>
-      <c r="D38" t="n">
-        <v>68350</v>
-      </c>
-      <c r="E38" t="n">
-        <v>68350</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>68990</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C39" t="n">
-        <v>68400</v>
-      </c>
-      <c r="D39" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E39" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.827</v>
-      </c>
-      <c r="G39" t="n">
-        <v>68710</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>68850</v>
-      </c>
-      <c r="C40" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D40" t="n">
-        <v>68850</v>
-      </c>
-      <c r="E40" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.5657</v>
-      </c>
-      <c r="G40" t="n">
-        <v>68570</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>68750</v>
-      </c>
-      <c r="C41" t="n">
-        <v>68750</v>
-      </c>
-      <c r="D41" t="n">
-        <v>68750</v>
-      </c>
-      <c r="E41" t="n">
-        <v>68750</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3.507</v>
-      </c>
-      <c r="G41" t="n">
-        <v>68440</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1873,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68950</v>
+        <v>68750</v>
       </c>
       <c r="C42" t="n">
-        <v>68950</v>
+        <v>68750</v>
       </c>
       <c r="D42" t="n">
-        <v>68950</v>
+        <v>68750</v>
       </c>
       <c r="E42" t="n">
-        <v>68950</v>
+        <v>68750</v>
       </c>
       <c r="F42" t="n">
-        <v>2.2466</v>
+        <v>3.507</v>
       </c>
       <c r="G42" t="n">
-        <v>68530</v>
+        <v>71739.16666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1898,7 +1876,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1914,22 +1892,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>69000</v>
+        <v>68950</v>
       </c>
       <c r="C43" t="n">
-        <v>69000</v>
+        <v>68950</v>
       </c>
       <c r="D43" t="n">
-        <v>69000</v>
+        <v>68950</v>
       </c>
       <c r="E43" t="n">
-        <v>69000</v>
+        <v>68950</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0219</v>
+        <v>2.2466</v>
       </c>
       <c r="G43" t="n">
-        <v>68660</v>
+        <v>71695</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +1917,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -1955,22 +1933,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>69400</v>
+        <v>69000</v>
       </c>
       <c r="C44" t="n">
-        <v>69400</v>
+        <v>69000</v>
       </c>
       <c r="D44" t="n">
-        <v>69400</v>
+        <v>69000</v>
       </c>
       <c r="E44" t="n">
-        <v>69350</v>
+        <v>69000</v>
       </c>
       <c r="F44" t="n">
-        <v>33.3322</v>
+        <v>0.0219</v>
       </c>
       <c r="G44" t="n">
-        <v>68860</v>
+        <v>71650</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1980,7 +1958,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -1996,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69350</v>
+        <v>69400</v>
       </c>
       <c r="C45" t="n">
         <v>69400</v>
@@ -2008,10 +1986,10 @@
         <v>69350</v>
       </c>
       <c r="F45" t="n">
-        <v>48.3437</v>
+        <v>33.3322</v>
       </c>
       <c r="G45" t="n">
-        <v>69100</v>
+        <v>71603.33333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2021,7 +1999,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2037,22 +2015,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69500</v>
+        <v>69350</v>
       </c>
       <c r="C46" t="n">
         <v>69400</v>
       </c>
       <c r="D46" t="n">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="E46" t="n">
-        <v>69400</v>
+        <v>69350</v>
       </c>
       <c r="F46" t="n">
-        <v>0.63</v>
+        <v>48.3437</v>
       </c>
       <c r="G46" t="n">
-        <v>69230</v>
+        <v>71553.33333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2062,7 +2040,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2078,22 +2056,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69450</v>
+        <v>69500</v>
       </c>
       <c r="C47" t="n">
-        <v>69450</v>
+        <v>69400</v>
       </c>
       <c r="D47" t="n">
         <v>69500</v>
       </c>
       <c r="E47" t="n">
-        <v>69450</v>
+        <v>69400</v>
       </c>
       <c r="F47" t="n">
-        <v>1.3169</v>
+        <v>0.63</v>
       </c>
       <c r="G47" t="n">
-        <v>69330</v>
+        <v>71494.16666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2103,7 +2081,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2119,22 +2097,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>69600</v>
+        <v>69450</v>
       </c>
       <c r="C48" t="n">
-        <v>70000</v>
+        <v>69450</v>
       </c>
       <c r="D48" t="n">
-        <v>70000</v>
+        <v>69500</v>
       </c>
       <c r="E48" t="n">
-        <v>69600</v>
+        <v>69450</v>
       </c>
       <c r="F48" t="n">
-        <v>0.45</v>
+        <v>1.3169</v>
       </c>
       <c r="G48" t="n">
-        <v>69530</v>
+        <v>71464.16666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2144,7 +2122,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2160,7 +2138,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>70000</v>
+        <v>69600</v>
       </c>
       <c r="C49" t="n">
         <v>70000</v>
@@ -2169,13 +2147,13 @@
         <v>70000</v>
       </c>
       <c r="E49" t="n">
-        <v>70000</v>
+        <v>69600</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0837</v>
+        <v>0.45</v>
       </c>
       <c r="G49" t="n">
-        <v>69650</v>
+        <v>71412.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2185,7 +2163,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2201,22 +2179,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>70100</v>
+        <v>70000</v>
       </c>
       <c r="C50" t="n">
-        <v>70100</v>
+        <v>70000</v>
       </c>
       <c r="D50" t="n">
-        <v>70100</v>
+        <v>70000</v>
       </c>
       <c r="E50" t="n">
-        <v>70100</v>
+        <v>70000</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8514</v>
+        <v>3.0837</v>
       </c>
       <c r="G50" t="n">
-        <v>69790</v>
+        <v>71355</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2226,7 +2204,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2242,22 +2220,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>70300</v>
+        <v>70100</v>
       </c>
       <c r="C51" t="n">
-        <v>70300</v>
+        <v>70100</v>
       </c>
       <c r="D51" t="n">
-        <v>70300</v>
+        <v>70100</v>
       </c>
       <c r="E51" t="n">
-        <v>70300</v>
+        <v>70100</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0468</v>
+        <v>0.8514</v>
       </c>
       <c r="G51" t="n">
-        <v>69970</v>
+        <v>71269.16666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2267,7 +2245,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2295,10 +2273,10 @@
         <v>70300</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4372</v>
+        <v>0.0468</v>
       </c>
       <c r="G52" t="n">
-        <v>70140</v>
+        <v>71186.66666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2308,7 +2286,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2336,10 +2314,10 @@
         <v>70300</v>
       </c>
       <c r="F53" t="n">
-        <v>16.8926</v>
+        <v>0.4372</v>
       </c>
       <c r="G53" t="n">
-        <v>70200</v>
+        <v>71123.33333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2349,7 +2327,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2377,10 +2355,10 @@
         <v>70300</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>16.8926</v>
       </c>
       <c r="G54" t="n">
-        <v>70260</v>
+        <v>71063.33333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2390,7 +2368,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2406,22 +2384,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>70750</v>
+        <v>70300</v>
       </c>
       <c r="C55" t="n">
-        <v>70800</v>
+        <v>70300</v>
       </c>
       <c r="D55" t="n">
-        <v>70800</v>
+        <v>70300</v>
       </c>
       <c r="E55" t="n">
-        <v>70750</v>
+        <v>70300</v>
       </c>
       <c r="F55" t="n">
-        <v>152.2271</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>70400</v>
+        <v>71018.33333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2431,7 +2409,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2447,22 +2425,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>70950</v>
+        <v>70750</v>
       </c>
       <c r="C56" t="n">
-        <v>70950</v>
+        <v>70800</v>
       </c>
       <c r="D56" t="n">
-        <v>70950</v>
+        <v>70800</v>
       </c>
       <c r="E56" t="n">
-        <v>70950</v>
+        <v>70750</v>
       </c>
       <c r="F56" t="n">
-        <v>7.327</v>
+        <v>152.2271</v>
       </c>
       <c r="G56" t="n">
-        <v>70530</v>
+        <v>70969.16666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2472,7 +2450,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2500,10 +2478,10 @@
         <v>70950</v>
       </c>
       <c r="F57" t="n">
-        <v>4.4394</v>
+        <v>7.327</v>
       </c>
       <c r="G57" t="n">
-        <v>70660</v>
+        <v>70901.66666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2513,7 +2491,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2529,22 +2507,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>71000</v>
+        <v>70950</v>
       </c>
       <c r="C58" t="n">
-        <v>71000</v>
+        <v>70950</v>
       </c>
       <c r="D58" t="n">
-        <v>71000</v>
+        <v>70950</v>
       </c>
       <c r="E58" t="n">
-        <v>71000</v>
+        <v>70950</v>
       </c>
       <c r="F58" t="n">
-        <v>2.1127</v>
+        <v>4.4394</v>
       </c>
       <c r="G58" t="n">
-        <v>70800</v>
+        <v>70860</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2554,7 +2532,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2570,40 +2548,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>70550</v>
+        <v>71000</v>
       </c>
       <c r="C59" t="n">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="D59" t="n">
-        <v>70550</v>
+        <v>71000</v>
       </c>
       <c r="E59" t="n">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="F59" t="n">
-        <v>5.6458</v>
+        <v>2.1127</v>
       </c>
       <c r="G59" t="n">
-        <v>70840</v>
+        <v>70830</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>1.031496350364964</v>
       </c>
     </row>
     <row r="60">
@@ -2611,38 +2589,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70300</v>
+        <v>70550</v>
       </c>
       <c r="C60" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="D60" t="n">
-        <v>70300</v>
+        <v>70550</v>
       </c>
       <c r="E60" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1</v>
+        <v>5.6458</v>
       </c>
       <c r="G60" t="n">
-        <v>70740</v>
+        <v>70776.66666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2652,38 +2624,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70450</v>
+        <v>70300</v>
       </c>
       <c r="C61" t="n">
-        <v>70850</v>
+        <v>70300</v>
       </c>
       <c r="D61" t="n">
-        <v>70850</v>
+        <v>70300</v>
       </c>
       <c r="E61" t="n">
-        <v>70450</v>
+        <v>70300</v>
       </c>
       <c r="F61" t="n">
-        <v>5.312</v>
+        <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>70720</v>
+        <v>70719.16666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2693,7 +2659,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>70850</v>
+        <v>70450</v>
       </c>
       <c r="C62" t="n">
         <v>70850</v>
@@ -2702,13 +2668,13 @@
         <v>70850</v>
       </c>
       <c r="E62" t="n">
-        <v>70850</v>
+        <v>70450</v>
       </c>
       <c r="F62" t="n">
-        <v>1.4814</v>
+        <v>5.312</v>
       </c>
       <c r="G62" t="n">
-        <v>70700</v>
+        <v>70665.83333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2717,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2746,10 +2706,10 @@
         <v>70850</v>
       </c>
       <c r="F63" t="n">
-        <v>1.9647</v>
+        <v>1.4814</v>
       </c>
       <c r="G63" t="n">
-        <v>70670</v>
+        <v>70611.66666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2758,14 +2718,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2775,40 +2729,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>70500</v>
+        <v>70850</v>
       </c>
       <c r="C64" t="n">
-        <v>70500</v>
+        <v>70850</v>
       </c>
       <c r="D64" t="n">
-        <v>70500</v>
+        <v>70850</v>
       </c>
       <c r="E64" t="n">
-        <v>70500</v>
+        <v>70850</v>
       </c>
       <c r="F64" t="n">
-        <v>1.929</v>
+        <v>1.9647</v>
       </c>
       <c r="G64" t="n">
-        <v>70670</v>
+        <v>70557.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>69800</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>1.005028653295129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2816,22 +2764,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="C65" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="D65" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="E65" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="F65" t="n">
-        <v>1.9852</v>
+        <v>1.929</v>
       </c>
       <c r="G65" t="n">
-        <v>70670</v>
+        <v>70504.16666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2851,22 +2799,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>70150</v>
+        <v>70300</v>
       </c>
       <c r="C66" t="n">
-        <v>70150</v>
+        <v>70300</v>
       </c>
       <c r="D66" t="n">
-        <v>70150</v>
+        <v>70300</v>
       </c>
       <c r="E66" t="n">
-        <v>70150</v>
+        <v>70300</v>
       </c>
       <c r="F66" t="n">
-        <v>3.6374</v>
+        <v>1.9852</v>
       </c>
       <c r="G66" t="n">
-        <v>70530</v>
+        <v>70469.16666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2886,22 +2834,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>69950</v>
+        <v>70150</v>
       </c>
       <c r="C67" t="n">
-        <v>69600</v>
+        <v>70150</v>
       </c>
       <c r="D67" t="n">
-        <v>69950</v>
+        <v>70150</v>
       </c>
       <c r="E67" t="n">
-        <v>69600</v>
+        <v>70150</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7138</v>
+        <v>3.6374</v>
       </c>
       <c r="G67" t="n">
-        <v>70280</v>
+        <v>70435</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2921,22 +2869,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>69850</v>
+        <v>69950</v>
       </c>
       <c r="C68" t="n">
         <v>69600</v>
       </c>
       <c r="D68" t="n">
-        <v>69850</v>
+        <v>69950</v>
       </c>
       <c r="E68" t="n">
         <v>69600</v>
       </c>
       <c r="F68" t="n">
-        <v>1.1402</v>
+        <v>0.7138</v>
       </c>
       <c r="G68" t="n">
-        <v>70030</v>
+        <v>70390</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2956,22 +2904,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>69600</v>
+        <v>69850</v>
       </c>
       <c r="C69" t="n">
         <v>69600</v>
       </c>
       <c r="D69" t="n">
-        <v>69600</v>
+        <v>69850</v>
       </c>
       <c r="E69" t="n">
         <v>69600</v>
       </c>
       <c r="F69" t="n">
-        <v>1.06</v>
+        <v>1.1402</v>
       </c>
       <c r="G69" t="n">
-        <v>69850</v>
+        <v>70344.16666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2991,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>69450</v>
+        <v>69600</v>
       </c>
       <c r="C70" t="n">
-        <v>69450</v>
+        <v>69600</v>
       </c>
       <c r="D70" t="n">
-        <v>69450</v>
+        <v>69600</v>
       </c>
       <c r="E70" t="n">
-        <v>69450</v>
+        <v>69600</v>
       </c>
       <c r="F70" t="n">
-        <v>2.807</v>
+        <v>1.06</v>
       </c>
       <c r="G70" t="n">
-        <v>69680</v>
+        <v>70288.33333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3026,22 +2974,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>69400</v>
+        <v>69450</v>
       </c>
       <c r="C71" t="n">
-        <v>69400</v>
+        <v>69450</v>
       </c>
       <c r="D71" t="n">
-        <v>69400</v>
+        <v>69450</v>
       </c>
       <c r="E71" t="n">
-        <v>69400</v>
+        <v>69450</v>
       </c>
       <c r="F71" t="n">
-        <v>4.846</v>
+        <v>2.807</v>
       </c>
       <c r="G71" t="n">
-        <v>69530</v>
+        <v>70227.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3061,22 +3009,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="C72" t="n">
-        <v>69300</v>
+        <v>69400</v>
       </c>
       <c r="D72" t="n">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="E72" t="n">
-        <v>69300</v>
+        <v>69400</v>
       </c>
       <c r="F72" t="n">
-        <v>4.1635</v>
+        <v>4.846</v>
       </c>
       <c r="G72" t="n">
-        <v>69470</v>
+        <v>70165.83333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3096,22 +3044,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>69250</v>
+        <v>69500</v>
       </c>
       <c r="C73" t="n">
-        <v>69250</v>
+        <v>69300</v>
       </c>
       <c r="D73" t="n">
-        <v>69250</v>
+        <v>69500</v>
       </c>
       <c r="E73" t="n">
-        <v>69250</v>
+        <v>69300</v>
       </c>
       <c r="F73" t="n">
-        <v>1.66</v>
+        <v>4.1635</v>
       </c>
       <c r="G73" t="n">
-        <v>69400</v>
+        <v>70105.83333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3131,22 +3079,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>69050</v>
+        <v>69250</v>
       </c>
       <c r="C74" t="n">
-        <v>69000</v>
+        <v>69250</v>
       </c>
       <c r="D74" t="n">
-        <v>69050</v>
+        <v>69250</v>
       </c>
       <c r="E74" t="n">
-        <v>69000</v>
+        <v>69250</v>
       </c>
       <c r="F74" t="n">
-        <v>2.144</v>
+        <v>1.66</v>
       </c>
       <c r="G74" t="n">
-        <v>69280</v>
+        <v>70045</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3166,22 +3114,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>69000</v>
+        <v>69050</v>
       </c>
       <c r="C75" t="n">
         <v>69000</v>
       </c>
       <c r="D75" t="n">
-        <v>69000</v>
+        <v>69050</v>
       </c>
       <c r="E75" t="n">
         <v>69000</v>
       </c>
       <c r="F75" t="n">
-        <v>0.961</v>
+        <v>2.144</v>
       </c>
       <c r="G75" t="n">
-        <v>69190</v>
+        <v>69980</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3213,10 +3161,10 @@
         <v>69000</v>
       </c>
       <c r="F76" t="n">
-        <v>4.3877</v>
+        <v>0.961</v>
       </c>
       <c r="G76" t="n">
-        <v>69110</v>
+        <v>69918.33333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3236,22 +3184,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>69200</v>
+        <v>69000</v>
       </c>
       <c r="C77" t="n">
-        <v>69200</v>
+        <v>69000</v>
       </c>
       <c r="D77" t="n">
-        <v>69200</v>
+        <v>69000</v>
       </c>
       <c r="E77" t="n">
-        <v>69200</v>
+        <v>69000</v>
       </c>
       <c r="F77" t="n">
-        <v>11.4</v>
+        <v>4.3877</v>
       </c>
       <c r="G77" t="n">
-        <v>69090</v>
+        <v>69865</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3271,22 +3219,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>69000</v>
+        <v>69200</v>
       </c>
       <c r="C78" t="n">
-        <v>69000</v>
+        <v>69200</v>
       </c>
       <c r="D78" t="n">
-        <v>69000</v>
+        <v>69200</v>
       </c>
       <c r="E78" t="n">
-        <v>69000</v>
+        <v>69200</v>
       </c>
       <c r="F78" t="n">
-        <v>2.07</v>
+        <v>11.4</v>
       </c>
       <c r="G78" t="n">
-        <v>69040</v>
+        <v>69818.33333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3306,22 +3254,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="C79" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="D79" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="E79" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="F79" t="n">
-        <v>0.35</v>
+        <v>2.07</v>
       </c>
       <c r="G79" t="n">
-        <v>69020</v>
+        <v>69773.33333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3341,22 +3289,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68550</v>
+        <v>68900</v>
       </c>
       <c r="C80" t="n">
-        <v>68650</v>
+        <v>68900</v>
       </c>
       <c r="D80" t="n">
-        <v>68650</v>
+        <v>68900</v>
       </c>
       <c r="E80" t="n">
-        <v>68550</v>
+        <v>68900</v>
       </c>
       <c r="F80" t="n">
-        <v>2.49</v>
+        <v>0.35</v>
       </c>
       <c r="G80" t="n">
-        <v>68950</v>
+        <v>69726.66666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3376,22 +3324,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68300</v>
+        <v>68550</v>
       </c>
       <c r="C81" t="n">
-        <v>68300</v>
+        <v>68650</v>
       </c>
       <c r="D81" t="n">
-        <v>68300</v>
+        <v>68650</v>
       </c>
       <c r="E81" t="n">
-        <v>68300</v>
+        <v>68550</v>
       </c>
       <c r="F81" t="n">
-        <v>5.1336</v>
+        <v>2.49</v>
       </c>
       <c r="G81" t="n">
-        <v>68810</v>
+        <v>69713.33333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3411,22 +3359,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="C82" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="D82" t="n">
-        <v>68350</v>
+        <v>68300</v>
       </c>
       <c r="E82" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="F82" t="n">
-        <v>3.358</v>
+        <v>5.1336</v>
       </c>
       <c r="G82" t="n">
-        <v>68610</v>
+        <v>69705</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3446,22 +3394,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68150</v>
+        <v>68200</v>
       </c>
       <c r="C83" t="n">
-        <v>67550</v>
+        <v>68200</v>
       </c>
       <c r="D83" t="n">
-        <v>68150</v>
+        <v>68350</v>
       </c>
       <c r="E83" t="n">
-        <v>67550</v>
+        <v>68200</v>
       </c>
       <c r="F83" t="n">
-        <v>4.2827</v>
+        <v>3.358</v>
       </c>
       <c r="G83" t="n">
-        <v>68320</v>
+        <v>69657.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3481,22 +3429,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68050</v>
+        <v>68150</v>
       </c>
       <c r="C84" t="n">
-        <v>68900</v>
+        <v>67550</v>
       </c>
       <c r="D84" t="n">
-        <v>68900</v>
+        <v>68150</v>
       </c>
       <c r="E84" t="n">
-        <v>68050</v>
+        <v>67550</v>
       </c>
       <c r="F84" t="n">
-        <v>6.3283</v>
+        <v>4.2827</v>
       </c>
       <c r="G84" t="n">
-        <v>68320</v>
+        <v>69601.66666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3516,22 +3464,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>69150</v>
+        <v>68050</v>
       </c>
       <c r="C85" t="n">
-        <v>69150</v>
+        <v>68900</v>
       </c>
       <c r="D85" t="n">
-        <v>69150</v>
+        <v>68900</v>
       </c>
       <c r="E85" t="n">
-        <v>69150</v>
+        <v>68050</v>
       </c>
       <c r="F85" t="n">
-        <v>2.7861</v>
+        <v>6.3283</v>
       </c>
       <c r="G85" t="n">
-        <v>68420</v>
+        <v>69571.66666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3551,22 +3499,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>68300</v>
+        <v>69150</v>
       </c>
       <c r="C86" t="n">
-        <v>68300</v>
+        <v>69150</v>
       </c>
       <c r="D86" t="n">
-        <v>68300</v>
+        <v>69150</v>
       </c>
       <c r="E86" t="n">
-        <v>68300</v>
+        <v>69150</v>
       </c>
       <c r="F86" t="n">
-        <v>1.271</v>
+        <v>2.7861</v>
       </c>
       <c r="G86" t="n">
-        <v>68420</v>
+        <v>69549.16666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3586,22 +3534,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68700</v>
+        <v>68300</v>
       </c>
       <c r="C87" t="n">
-        <v>68700</v>
+        <v>68300</v>
       </c>
       <c r="D87" t="n">
-        <v>68700</v>
+        <v>68300</v>
       </c>
       <c r="E87" t="n">
-        <v>68700</v>
+        <v>68300</v>
       </c>
       <c r="F87" t="n">
-        <v>1.343493449781</v>
+        <v>1.271</v>
       </c>
       <c r="G87" t="n">
-        <v>68520</v>
+        <v>69519.16666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3621,22 +3569,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="C88" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="D88" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="E88" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3062</v>
+        <v>1.343493449781</v>
       </c>
       <c r="G88" t="n">
-        <v>68720</v>
+        <v>69496.66666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3656,22 +3604,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="C89" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="D89" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="E89" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="F89" t="n">
-        <v>2.7136</v>
+        <v>0.3062</v>
       </c>
       <c r="G89" t="n">
-        <v>68750</v>
+        <v>69472.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3691,22 +3639,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>69500</v>
+        <v>69050</v>
       </c>
       <c r="C90" t="n">
-        <v>69500</v>
+        <v>69050</v>
       </c>
       <c r="D90" t="n">
-        <v>69500</v>
+        <v>69050</v>
       </c>
       <c r="E90" t="n">
-        <v>69500</v>
+        <v>69050</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2.7136</v>
       </c>
       <c r="G90" t="n">
-        <v>68820</v>
+        <v>69461.66666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3726,22 +3674,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="C91" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="D91" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="E91" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="F91" t="n">
-        <v>0.324</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>69080</v>
+        <v>69474.16666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3773,10 +3721,10 @@
         <v>69600</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3944</v>
+        <v>0.324</v>
       </c>
       <c r="G92" t="n">
-        <v>69260</v>
+        <v>69484.16666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3796,22 +3744,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="C93" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="D93" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="E93" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="F93" t="n">
-        <v>1.994</v>
+        <v>0.3944</v>
       </c>
       <c r="G93" t="n">
-        <v>69460</v>
+        <v>69485</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3843,10 +3791,10 @@
         <v>69550</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001</v>
+        <v>1.994</v>
       </c>
       <c r="G94" t="n">
-        <v>69560</v>
+        <v>69485</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3866,22 +3814,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>70100</v>
+        <v>69550</v>
       </c>
       <c r="C95" t="n">
-        <v>70100</v>
+        <v>69550</v>
       </c>
       <c r="D95" t="n">
-        <v>70100</v>
+        <v>69550</v>
       </c>
       <c r="E95" t="n">
-        <v>70100</v>
+        <v>69550</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1414</v>
+        <v>0.001</v>
       </c>
       <c r="G95" t="n">
-        <v>69680</v>
+        <v>69480.83333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3901,22 +3849,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>69050</v>
+        <v>70100</v>
       </c>
       <c r="C96" t="n">
-        <v>69050</v>
+        <v>70100</v>
       </c>
       <c r="D96" t="n">
-        <v>69050</v>
+        <v>70100</v>
       </c>
       <c r="E96" t="n">
-        <v>69050</v>
+        <v>70100</v>
       </c>
       <c r="F96" t="n">
-        <v>2.5737</v>
+        <v>0.1414</v>
       </c>
       <c r="G96" t="n">
-        <v>69570</v>
+        <v>69500.83333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3936,22 +3884,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>68900</v>
+        <v>69050</v>
       </c>
       <c r="C97" t="n">
-        <v>69150</v>
+        <v>69050</v>
       </c>
       <c r="D97" t="n">
-        <v>69150</v>
+        <v>69050</v>
       </c>
       <c r="E97" t="n">
-        <v>68900</v>
+        <v>69050</v>
       </c>
       <c r="F97" t="n">
-        <v>2.8737</v>
+        <v>2.5737</v>
       </c>
       <c r="G97" t="n">
-        <v>69480</v>
+        <v>69495</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3971,22 +3919,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>69250</v>
+        <v>68900</v>
       </c>
       <c r="C98" t="n">
-        <v>69250</v>
+        <v>69150</v>
       </c>
       <c r="D98" t="n">
-        <v>69250</v>
+        <v>69150</v>
       </c>
       <c r="E98" t="n">
-        <v>69250</v>
+        <v>68900</v>
       </c>
       <c r="F98" t="n">
-        <v>1.287</v>
+        <v>2.8737</v>
       </c>
       <c r="G98" t="n">
-        <v>69420</v>
+        <v>69505.83333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4006,22 +3954,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>68950</v>
+        <v>69250</v>
       </c>
       <c r="C99" t="n">
-        <v>68650</v>
+        <v>69250</v>
       </c>
       <c r="D99" t="n">
-        <v>68950</v>
+        <v>69250</v>
       </c>
       <c r="E99" t="n">
-        <v>68650</v>
+        <v>69250</v>
       </c>
       <c r="F99" t="n">
-        <v>4.5279</v>
+        <v>1.287</v>
       </c>
       <c r="G99" t="n">
-        <v>69240</v>
+        <v>69520.83333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4041,22 +3989,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68750</v>
+        <v>68950</v>
       </c>
       <c r="C100" t="n">
-        <v>69000</v>
+        <v>68650</v>
       </c>
       <c r="D100" t="n">
-        <v>69000</v>
+        <v>68950</v>
       </c>
       <c r="E100" t="n">
-        <v>68700</v>
+        <v>68650</v>
       </c>
       <c r="F100" t="n">
-        <v>31.013753623188</v>
+        <v>4.5279</v>
       </c>
       <c r="G100" t="n">
-        <v>69020</v>
+        <v>69525</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4076,22 +4024,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>68650</v>
+        <v>68750</v>
       </c>
       <c r="C101" t="n">
-        <v>68600</v>
+        <v>69000</v>
       </c>
       <c r="D101" t="n">
-        <v>68650</v>
+        <v>69000</v>
       </c>
       <c r="E101" t="n">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="F101" t="n">
-        <v>1.4298</v>
+        <v>31.013753623188</v>
       </c>
       <c r="G101" t="n">
-        <v>68930</v>
+        <v>69538.33333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4111,22 +4059,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68200</v>
+        <v>68650</v>
       </c>
       <c r="C102" t="n">
-        <v>68000</v>
+        <v>68600</v>
       </c>
       <c r="D102" t="n">
-        <v>68200</v>
+        <v>68650</v>
       </c>
       <c r="E102" t="n">
-        <v>68000</v>
+        <v>68600</v>
       </c>
       <c r="F102" t="n">
-        <v>2.59</v>
+        <v>1.4298</v>
       </c>
       <c r="G102" t="n">
-        <v>68700</v>
+        <v>69535.83333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4146,22 +4094,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68550</v>
+        <v>68200</v>
       </c>
       <c r="C103" t="n">
-        <v>68550</v>
+        <v>68000</v>
       </c>
       <c r="D103" t="n">
-        <v>68550</v>
+        <v>68200</v>
       </c>
       <c r="E103" t="n">
-        <v>68550</v>
+        <v>68000</v>
       </c>
       <c r="F103" t="n">
-        <v>2.266</v>
+        <v>2.59</v>
       </c>
       <c r="G103" t="n">
-        <v>68560</v>
+        <v>69520</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4193,10 +4141,10 @@
         <v>68550</v>
       </c>
       <c r="F104" t="n">
-        <v>2.4009</v>
+        <v>2.266</v>
       </c>
       <c r="G104" t="n">
-        <v>68540</v>
+        <v>69512.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4219,19 +4167,19 @@
         <v>68550</v>
       </c>
       <c r="C105" t="n">
-        <v>68500</v>
+        <v>68550</v>
       </c>
       <c r="D105" t="n">
         <v>68550</v>
       </c>
       <c r="E105" t="n">
-        <v>68250</v>
+        <v>68550</v>
       </c>
       <c r="F105" t="n">
-        <v>17.6083</v>
+        <v>2.4009</v>
       </c>
       <c r="G105" t="n">
-        <v>68440</v>
+        <v>69498.33333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4251,22 +4199,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68700</v>
+        <v>68550</v>
       </c>
       <c r="C106" t="n">
-        <v>68700</v>
+        <v>68500</v>
       </c>
       <c r="D106" t="n">
-        <v>68700</v>
+        <v>68550</v>
       </c>
       <c r="E106" t="n">
-        <v>68700</v>
+        <v>68250</v>
       </c>
       <c r="F106" t="n">
-        <v>3.439</v>
+        <v>17.6083</v>
       </c>
       <c r="G106" t="n">
-        <v>68460</v>
+        <v>69483.33333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4286,22 +4234,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>68900</v>
+        <v>68700</v>
       </c>
       <c r="C107" t="n">
-        <v>68900</v>
+        <v>68700</v>
       </c>
       <c r="D107" t="n">
-        <v>68900</v>
+        <v>68700</v>
       </c>
       <c r="E107" t="n">
-        <v>68900</v>
+        <v>68700</v>
       </c>
       <c r="F107" t="n">
-        <v>0.296995645863</v>
+        <v>3.439</v>
       </c>
       <c r="G107" t="n">
-        <v>68640</v>
+        <v>69471.66666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4324,19 +4272,19 @@
         <v>68900</v>
       </c>
       <c r="C108" t="n">
-        <v>69150</v>
+        <v>68900</v>
       </c>
       <c r="D108" t="n">
-        <v>69150</v>
+        <v>68900</v>
       </c>
       <c r="E108" t="n">
         <v>68900</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15</v>
+        <v>0.296995645863</v>
       </c>
       <c r="G108" t="n">
-        <v>68760</v>
+        <v>69462.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4356,22 +4304,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>68750</v>
+        <v>68900</v>
       </c>
       <c r="C109" t="n">
-        <v>69250</v>
+        <v>69150</v>
       </c>
       <c r="D109" t="n">
-        <v>69250</v>
+        <v>69150</v>
       </c>
       <c r="E109" t="n">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="F109" t="n">
-        <v>14.1975</v>
+        <v>0.15</v>
       </c>
       <c r="G109" t="n">
-        <v>68900</v>
+        <v>69448.33333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4391,22 +4339,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68550</v>
+        <v>68750</v>
       </c>
       <c r="C110" t="n">
-        <v>68550</v>
+        <v>69250</v>
       </c>
       <c r="D110" t="n">
-        <v>68550</v>
+        <v>69250</v>
       </c>
       <c r="E110" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2963</v>
+        <v>14.1975</v>
       </c>
       <c r="G110" t="n">
-        <v>68910</v>
+        <v>69435.83333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4426,22 +4374,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="C111" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="D111" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="E111" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="F111" t="n">
-        <v>5.7929</v>
+        <v>0.2963</v>
       </c>
       <c r="G111" t="n">
-        <v>68980</v>
+        <v>69410</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4461,22 +4409,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>68250</v>
+        <v>69050</v>
       </c>
       <c r="C112" t="n">
-        <v>68200</v>
+        <v>69050</v>
       </c>
       <c r="D112" t="n">
-        <v>68250</v>
+        <v>69050</v>
       </c>
       <c r="E112" t="n">
-        <v>68200</v>
+        <v>69050</v>
       </c>
       <c r="F112" t="n">
-        <v>3.606</v>
+        <v>5.7929</v>
       </c>
       <c r="G112" t="n">
-        <v>68840</v>
+        <v>69389.16666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4496,22 +4444,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68200</v>
+        <v>68250</v>
       </c>
       <c r="C113" t="n">
         <v>68200</v>
       </c>
       <c r="D113" t="n">
-        <v>68200</v>
+        <v>68250</v>
       </c>
       <c r="E113" t="n">
         <v>68200</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1</v>
+        <v>3.606</v>
       </c>
       <c r="G113" t="n">
-        <v>68650</v>
+        <v>69354.16666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4531,22 +4479,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="C114" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="D114" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="E114" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="F114" t="n">
-        <v>1.5758</v>
+        <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>68490</v>
+        <v>69319.16666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4566,22 +4514,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68550</v>
+        <v>68450</v>
       </c>
       <c r="C115" t="n">
-        <v>68550</v>
+        <v>68450</v>
       </c>
       <c r="D115" t="n">
-        <v>68550</v>
+        <v>68450</v>
       </c>
       <c r="E115" t="n">
-        <v>68550</v>
+        <v>68450</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9407</v>
+        <v>1.5758</v>
       </c>
       <c r="G115" t="n">
-        <v>68490</v>
+        <v>69288.33333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4613,10 +4561,10 @@
         <v>68550</v>
       </c>
       <c r="F116" t="n">
-        <v>0.15</v>
+        <v>0.9407</v>
       </c>
       <c r="G116" t="n">
-        <v>68390</v>
+        <v>69250.83333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4636,22 +4584,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>68200</v>
+        <v>68550</v>
       </c>
       <c r="C117" t="n">
-        <v>68150</v>
+        <v>68550</v>
       </c>
       <c r="D117" t="n">
-        <v>68200</v>
+        <v>68550</v>
       </c>
       <c r="E117" t="n">
-        <v>68150</v>
+        <v>68550</v>
       </c>
       <c r="F117" t="n">
-        <v>5.7784</v>
+        <v>0.15</v>
       </c>
       <c r="G117" t="n">
-        <v>68380</v>
+        <v>69210.83333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4671,22 +4619,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="C118" t="n">
-        <v>68450</v>
+        <v>68150</v>
       </c>
       <c r="D118" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="E118" t="n">
-        <v>68450</v>
+        <v>68150</v>
       </c>
       <c r="F118" t="n">
-        <v>1.5195</v>
+        <v>5.7784</v>
       </c>
       <c r="G118" t="n">
-        <v>68430</v>
+        <v>69164.16666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4709,19 +4657,19 @@
         <v>68450</v>
       </c>
       <c r="C119" t="n">
-        <v>68500</v>
+        <v>68450</v>
       </c>
       <c r="D119" t="n">
-        <v>68500</v>
+        <v>68450</v>
       </c>
       <c r="E119" t="n">
         <v>68450</v>
       </c>
       <c r="F119" t="n">
-        <v>5.6297</v>
+        <v>1.5195</v>
       </c>
       <c r="G119" t="n">
-        <v>68440</v>
+        <v>69121.66666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4741,7 +4689,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68500</v>
+        <v>68450</v>
       </c>
       <c r="C120" t="n">
         <v>68500</v>
@@ -4750,13 +4698,13 @@
         <v>68500</v>
       </c>
       <c r="E120" t="n">
-        <v>68500</v>
+        <v>68450</v>
       </c>
       <c r="F120" t="n">
-        <v>2.3262</v>
+        <v>5.6297</v>
       </c>
       <c r="G120" t="n">
-        <v>68430</v>
+        <v>69088.33333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4776,22 +4724,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67750</v>
+        <v>68500</v>
       </c>
       <c r="C121" t="n">
-        <v>67900</v>
+        <v>68500</v>
       </c>
       <c r="D121" t="n">
-        <v>67900</v>
+        <v>68500</v>
       </c>
       <c r="E121" t="n">
-        <v>67750</v>
+        <v>68500</v>
       </c>
       <c r="F121" t="n">
-        <v>4.11</v>
+        <v>2.3262</v>
       </c>
       <c r="G121" t="n">
-        <v>68300</v>
+        <v>69058.33333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4811,22 +4759,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67800</v>
+        <v>67750</v>
       </c>
       <c r="C122" t="n">
-        <v>67800</v>
+        <v>67900</v>
       </c>
       <c r="D122" t="n">
-        <v>67800</v>
+        <v>67900</v>
       </c>
       <c r="E122" t="n">
-        <v>67800</v>
+        <v>67750</v>
       </c>
       <c r="F122" t="n">
-        <v>2.7173</v>
+        <v>4.11</v>
       </c>
       <c r="G122" t="n">
-        <v>68230</v>
+        <v>69009.16666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4846,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67650</v>
+        <v>67800</v>
       </c>
       <c r="C123" t="n">
-        <v>67500</v>
+        <v>67800</v>
       </c>
       <c r="D123" t="n">
-        <v>67650</v>
+        <v>67800</v>
       </c>
       <c r="E123" t="n">
-        <v>67500</v>
+        <v>67800</v>
       </c>
       <c r="F123" t="n">
-        <v>7.0913</v>
+        <v>2.7173</v>
       </c>
       <c r="G123" t="n">
-        <v>68040</v>
+        <v>68958.33333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4881,22 +4829,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67350</v>
+        <v>67650</v>
       </c>
       <c r="C124" t="n">
-        <v>67350</v>
+        <v>67500</v>
       </c>
       <c r="D124" t="n">
-        <v>67350</v>
+        <v>67650</v>
       </c>
       <c r="E124" t="n">
-        <v>67350</v>
+        <v>67500</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2</v>
+        <v>7.0913</v>
       </c>
       <c r="G124" t="n">
-        <v>67810</v>
+        <v>68902.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4916,22 +4864,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67000</v>
+        <v>67350</v>
       </c>
       <c r="C125" t="n">
-        <v>66850</v>
+        <v>67350</v>
       </c>
       <c r="D125" t="n">
-        <v>67000</v>
+        <v>67350</v>
       </c>
       <c r="E125" t="n">
-        <v>66800</v>
+        <v>67350</v>
       </c>
       <c r="F125" t="n">
-        <v>13.7392</v>
+        <v>0.2</v>
       </c>
       <c r="G125" t="n">
-        <v>67480</v>
+        <v>68850</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4951,22 +4899,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67300</v>
+        <v>67000</v>
       </c>
       <c r="C126" t="n">
-        <v>67300</v>
+        <v>66850</v>
       </c>
       <c r="D126" t="n">
-        <v>67300</v>
+        <v>67000</v>
       </c>
       <c r="E126" t="n">
-        <v>67300</v>
+        <v>66800</v>
       </c>
       <c r="F126" t="n">
-        <v>12.4</v>
+        <v>13.7392</v>
       </c>
       <c r="G126" t="n">
-        <v>67360</v>
+        <v>68792.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4986,22 +4934,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="C127" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="D127" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="E127" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4654</v>
+        <v>12.4</v>
       </c>
       <c r="G127" t="n">
-        <v>67200</v>
+        <v>68745</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5021,22 +4969,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67450</v>
+        <v>67000</v>
       </c>
       <c r="C128" t="n">
-        <v>67450</v>
+        <v>67000</v>
       </c>
       <c r="D128" t="n">
-        <v>67450</v>
+        <v>67000</v>
       </c>
       <c r="E128" t="n">
-        <v>67450</v>
+        <v>67000</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1991</v>
+        <v>0.4654</v>
       </c>
       <c r="G128" t="n">
-        <v>67190</v>
+        <v>68701.66666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5056,37 +5004,68 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67150</v>
+        <v>67450</v>
       </c>
       <c r="C129" t="n">
-        <v>67150</v>
+        <v>67450</v>
       </c>
       <c r="D129" t="n">
-        <v>67150</v>
+        <v>67450</v>
       </c>
       <c r="E129" t="n">
-        <v>67150</v>
+        <v>67450</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6596</v>
+        <v>0.1991</v>
       </c>
       <c r="G129" t="n">
-        <v>67150</v>
+        <v>68665.83333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K129" t="n">
-        <v>67450</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C130" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D130" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E130" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.6596</v>
+      </c>
+      <c r="G130" t="n">
+        <v>68625</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="C2" t="n">
-        <v>74050</v>
+        <v>70400</v>
       </c>
       <c r="D2" t="n">
-        <v>74050</v>
+        <v>70400</v>
       </c>
       <c r="E2" t="n">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="F2" t="n">
-        <v>6.5942</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>73720</v>
+        <v>18.88182289742799</v>
       </c>
       <c r="H2" t="n">
-        <v>70992.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74050</v>
+        <v>70900</v>
       </c>
       <c r="C3" t="n">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="D3" t="n">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="E3" t="n">
-        <v>74050</v>
+        <v>70900</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>73910</v>
+        <v>18.98182289742799</v>
       </c>
       <c r="H3" t="n">
-        <v>71076.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="C4" t="n">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="D4" t="n">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="E4" t="n">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.1265</v>
       </c>
       <c r="G4" t="n">
-        <v>73976.66666666667</v>
+        <v>18.98182289742799</v>
       </c>
       <c r="H4" t="n">
-        <v>71160</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73700</v>
+        <v>70450</v>
       </c>
       <c r="C5" t="n">
-        <v>73700</v>
+        <v>70450</v>
       </c>
       <c r="D5" t="n">
-        <v>73700</v>
+        <v>70450</v>
       </c>
       <c r="E5" t="n">
-        <v>73700</v>
+        <v>70450</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2467</v>
+        <v>0.2497</v>
       </c>
       <c r="G5" t="n">
-        <v>73993.33333333333</v>
+        <v>18.73212289742799</v>
       </c>
       <c r="H5" t="n">
-        <v>71246.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72950</v>
+        <v>70650</v>
       </c>
       <c r="C6" t="n">
-        <v>72400</v>
+        <v>70650</v>
       </c>
       <c r="D6" t="n">
-        <v>72950</v>
+        <v>70650</v>
       </c>
       <c r="E6" t="n">
-        <v>72200</v>
+        <v>70650</v>
       </c>
       <c r="F6" t="n">
-        <v>31.0645</v>
+        <v>3.069</v>
       </c>
       <c r="G6" t="n">
-        <v>73803.33333333333</v>
+        <v>21.80112289742799</v>
       </c>
       <c r="H6" t="n">
-        <v>71313.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72200</v>
+        <v>70650</v>
       </c>
       <c r="C7" t="n">
-        <v>72200</v>
+        <v>70950</v>
       </c>
       <c r="D7" t="n">
-        <v>72200</v>
+        <v>70950</v>
       </c>
       <c r="E7" t="n">
-        <v>72200</v>
+        <v>70600</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>9.073600000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>73600</v>
+        <v>30.87472289742799</v>
       </c>
       <c r="H7" t="n">
-        <v>71375.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72300</v>
+        <v>71000</v>
       </c>
       <c r="C8" t="n">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="D8" t="n">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="E8" t="n">
-        <v>72300</v>
+        <v>71000</v>
       </c>
       <c r="F8" t="n">
-        <v>6.785</v>
+        <v>0.4949</v>
       </c>
       <c r="G8" t="n">
-        <v>73480</v>
+        <v>31.36962289742799</v>
       </c>
       <c r="H8" t="n">
-        <v>71430.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72350</v>
+        <v>71700</v>
       </c>
       <c r="C9" t="n">
-        <v>72350</v>
+        <v>71650</v>
       </c>
       <c r="D9" t="n">
-        <v>72350</v>
+        <v>71700</v>
       </c>
       <c r="E9" t="n">
-        <v>72350</v>
+        <v>71650</v>
       </c>
       <c r="F9" t="n">
-        <v>1.1178</v>
+        <v>2.6973</v>
       </c>
       <c r="G9" t="n">
-        <v>73376.66666666667</v>
+        <v>34.06692289742799</v>
       </c>
       <c r="H9" t="n">
-        <v>71486.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72450</v>
+        <v>71650</v>
       </c>
       <c r="C10" t="n">
-        <v>72950</v>
+        <v>70900</v>
       </c>
       <c r="D10" t="n">
-        <v>72950</v>
+        <v>71650</v>
       </c>
       <c r="E10" t="n">
-        <v>72450</v>
+        <v>70900</v>
       </c>
       <c r="F10" t="n">
-        <v>6.1758</v>
+        <v>11.6233</v>
       </c>
       <c r="G10" t="n">
-        <v>73373.33333333333</v>
+        <v>22.44362289742799</v>
       </c>
       <c r="H10" t="n">
-        <v>71566.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>72950</v>
+        <v>70900</v>
       </c>
       <c r="C11" t="n">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="D11" t="n">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="E11" t="n">
-        <v>72950</v>
+        <v>70900</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1836</v>
+        <v>5.7901</v>
       </c>
       <c r="G11" t="n">
-        <v>73330</v>
+        <v>28.23372289742799</v>
       </c>
       <c r="H11" t="n">
-        <v>71642.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="C12" t="n">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="D12" t="n">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="E12" t="n">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0563</v>
+        <v>0.8</v>
       </c>
       <c r="G12" t="n">
-        <v>73203.33333333333</v>
+        <v>28.23372289742799</v>
       </c>
       <c r="H12" t="n">
-        <v>71715</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="C13" t="n">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="D13" t="n">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="E13" t="n">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="F13" t="n">
-        <v>1.264</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>73166.66666666667</v>
+        <v>28.32022289742799</v>
       </c>
       <c r="H13" t="n">
-        <v>71795.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="C14" t="n">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="D14" t="n">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="E14" t="n">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="F14" t="n">
-        <v>4.0979</v>
+        <v>0.615312465373</v>
       </c>
       <c r="G14" t="n">
-        <v>73173.33333333333</v>
+        <v>28.93553536280099</v>
       </c>
       <c r="H14" t="n">
-        <v>71875.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="C15" t="n">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="D15" t="n">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="E15" t="n">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>1.0223</v>
       </c>
       <c r="G15" t="n">
-        <v>73120</v>
+        <v>29.95783536280099</v>
       </c>
       <c r="H15" t="n">
-        <v>71955.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72700</v>
+        <v>72400</v>
       </c>
       <c r="C16" t="n">
-        <v>72700</v>
+        <v>72950</v>
       </c>
       <c r="D16" t="n">
-        <v>72700</v>
+        <v>72950</v>
       </c>
       <c r="E16" t="n">
-        <v>72700</v>
+        <v>72400</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.3736</v>
       </c>
       <c r="G16" t="n">
-        <v>73050</v>
+        <v>30.33143536280099</v>
       </c>
       <c r="H16" t="n">
-        <v>72032.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>72250</v>
+        <v>71550</v>
       </c>
       <c r="C17" t="n">
-        <v>72200</v>
+        <v>71250</v>
       </c>
       <c r="D17" t="n">
-        <v>72800</v>
+        <v>71550</v>
       </c>
       <c r="E17" t="n">
-        <v>72200</v>
+        <v>71250</v>
       </c>
       <c r="F17" t="n">
-        <v>5.705021978021</v>
+        <v>164.4333</v>
       </c>
       <c r="G17" t="n">
-        <v>72926.66666666667</v>
+        <v>-134.101864637199</v>
       </c>
       <c r="H17" t="n">
-        <v>72082.5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72000</v>
+        <v>72850</v>
       </c>
       <c r="C18" t="n">
-        <v>72000</v>
+        <v>73100</v>
       </c>
       <c r="D18" t="n">
-        <v>72000</v>
+        <v>73100</v>
       </c>
       <c r="E18" t="n">
-        <v>72000</v>
+        <v>72850</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.4077</v>
       </c>
       <c r="G18" t="n">
-        <v>72786.66666666667</v>
+        <v>-133.694164637199</v>
       </c>
       <c r="H18" t="n">
-        <v>72125</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>71700</v>
+        <v>73100</v>
       </c>
       <c r="C19" t="n">
-        <v>71700</v>
+        <v>73450</v>
       </c>
       <c r="D19" t="n">
-        <v>71700</v>
+        <v>73450</v>
       </c>
       <c r="E19" t="n">
-        <v>71700</v>
+        <v>73100</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2539</v>
+        <v>3.347887534627</v>
       </c>
       <c r="G19" t="n">
-        <v>72626.66666666667</v>
+        <v>-130.346277102572</v>
       </c>
       <c r="H19" t="n">
-        <v>72157.5</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>71700</v>
+        <v>73650</v>
       </c>
       <c r="C20" t="n">
-        <v>71700</v>
+        <v>75250</v>
       </c>
       <c r="D20" t="n">
-        <v>71700</v>
+        <v>75250</v>
       </c>
       <c r="E20" t="n">
-        <v>71700</v>
+        <v>73650</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0461</v>
+        <v>169.0345</v>
       </c>
       <c r="G20" t="n">
-        <v>72493.33333333333</v>
+        <v>38.68822289742801</v>
       </c>
       <c r="H20" t="n">
-        <v>72187.5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>70950</v>
+        <v>75250</v>
       </c>
       <c r="C21" t="n">
-        <v>69450</v>
+        <v>75250</v>
       </c>
       <c r="D21" t="n">
-        <v>70950</v>
+        <v>75250</v>
       </c>
       <c r="E21" t="n">
-        <v>69450</v>
+        <v>75250</v>
       </c>
       <c r="F21" t="n">
-        <v>7.6275</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>72296.66666666667</v>
+        <v>38.68822289742801</v>
       </c>
       <c r="H21" t="n">
-        <v>72178.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69900</v>
+        <v>74950</v>
       </c>
       <c r="C22" t="n">
-        <v>68800</v>
+        <v>74100</v>
       </c>
       <c r="D22" t="n">
-        <v>69900</v>
+        <v>75000</v>
       </c>
       <c r="E22" t="n">
-        <v>68800</v>
+        <v>74000</v>
       </c>
       <c r="F22" t="n">
-        <v>141</v>
+        <v>14.0037</v>
       </c>
       <c r="G22" t="n">
-        <v>72070</v>
+        <v>24.684522897428</v>
       </c>
       <c r="H22" t="n">
-        <v>72170.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>70950</v>
+        <v>74100</v>
       </c>
       <c r="C23" t="n">
-        <v>71050</v>
+        <v>73900</v>
       </c>
       <c r="D23" t="n">
-        <v>71050</v>
+        <v>74100</v>
       </c>
       <c r="E23" t="n">
-        <v>70950</v>
+        <v>73850</v>
       </c>
       <c r="F23" t="n">
-        <v>72.983601337086</v>
+        <v>7.6317</v>
       </c>
       <c r="G23" t="n">
-        <v>71986.66666666667</v>
+        <v>17.052822897428</v>
       </c>
       <c r="H23" t="n">
-        <v>72186.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="C24" t="n">
-        <v>70900</v>
+        <v>73000</v>
       </c>
       <c r="D24" t="n">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="E24" t="n">
-        <v>70900</v>
+        <v>73000</v>
       </c>
       <c r="F24" t="n">
-        <v>5.5856</v>
+        <v>13.5414</v>
       </c>
       <c r="G24" t="n">
-        <v>71890</v>
+        <v>3.511422897428002</v>
       </c>
       <c r="H24" t="n">
-        <v>72194.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>70700</v>
+        <v>73700</v>
       </c>
       <c r="C25" t="n">
-        <v>70700</v>
+        <v>73750</v>
       </c>
       <c r="D25" t="n">
-        <v>70700</v>
+        <v>73750</v>
       </c>
       <c r="E25" t="n">
-        <v>70700</v>
+        <v>73700</v>
       </c>
       <c r="F25" t="n">
-        <v>0.68</v>
+        <v>8.536099999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>71740</v>
+        <v>12.047522897428</v>
       </c>
       <c r="H25" t="n">
-        <v>72182.5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>70500</v>
+        <v>73750</v>
       </c>
       <c r="C26" t="n">
-        <v>70500</v>
+        <v>75000</v>
       </c>
       <c r="D26" t="n">
-        <v>70500</v>
+        <v>75000</v>
       </c>
       <c r="E26" t="n">
-        <v>70500</v>
+        <v>73750</v>
       </c>
       <c r="F26" t="n">
-        <v>0.85</v>
+        <v>6.2467</v>
       </c>
       <c r="G26" t="n">
-        <v>71566.66666666667</v>
+        <v>18.294222897428</v>
       </c>
       <c r="H26" t="n">
-        <v>72175</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>70100</v>
+        <v>73500</v>
       </c>
       <c r="C27" t="n">
-        <v>70100</v>
+        <v>73450</v>
       </c>
       <c r="D27" t="n">
-        <v>70100</v>
+        <v>74950</v>
       </c>
       <c r="E27" t="n">
-        <v>70100</v>
+        <v>73450</v>
       </c>
       <c r="F27" t="n">
-        <v>1.06</v>
+        <v>11.690211674449</v>
       </c>
       <c r="G27" t="n">
-        <v>71366.66666666667</v>
+        <v>6.604011222979</v>
       </c>
       <c r="H27" t="n">
-        <v>72160.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>70050</v>
+        <v>73450</v>
       </c>
       <c r="C28" t="n">
-        <v>70050</v>
+        <v>72800</v>
       </c>
       <c r="D28" t="n">
-        <v>70050</v>
+        <v>73450</v>
       </c>
       <c r="E28" t="n">
-        <v>70050</v>
+        <v>72800</v>
       </c>
       <c r="F28" t="n">
-        <v>5.4353</v>
+        <v>2.5396</v>
       </c>
       <c r="G28" t="n">
-        <v>71176.66666666667</v>
+        <v>4.064411222979</v>
       </c>
       <c r="H28" t="n">
-        <v>72150.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>70000</v>
+        <v>73800</v>
       </c>
       <c r="C29" t="n">
-        <v>70000</v>
+        <v>73700</v>
       </c>
       <c r="D29" t="n">
-        <v>70000</v>
+        <v>73800</v>
       </c>
       <c r="E29" t="n">
-        <v>70000</v>
+        <v>73700</v>
       </c>
       <c r="F29" t="n">
-        <v>13.3665</v>
+        <v>6.704</v>
       </c>
       <c r="G29" t="n">
-        <v>70983.33333333333</v>
+        <v>10.768411222979</v>
       </c>
       <c r="H29" t="n">
-        <v>72140</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>70300</v>
+        <v>73750</v>
       </c>
       <c r="C30" t="n">
-        <v>69700</v>
+        <v>73750</v>
       </c>
       <c r="D30" t="n">
-        <v>70300</v>
+        <v>73750</v>
       </c>
       <c r="E30" t="n">
-        <v>69700</v>
+        <v>73750</v>
       </c>
       <c r="F30" t="n">
-        <v>8.1456</v>
+        <v>2.5396</v>
       </c>
       <c r="G30" t="n">
-        <v>70770</v>
+        <v>13.308011222979</v>
       </c>
       <c r="H30" t="n">
-        <v>72135</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69650</v>
+        <v>73900</v>
       </c>
       <c r="C31" t="n">
-        <v>68750</v>
+        <v>74050</v>
       </c>
       <c r="D31" t="n">
-        <v>69650</v>
+        <v>74050</v>
       </c>
       <c r="E31" t="n">
-        <v>68750</v>
+        <v>73900</v>
       </c>
       <c r="F31" t="n">
-        <v>2.408</v>
+        <v>6.5942</v>
       </c>
       <c r="G31" t="n">
-        <v>70506.66666666667</v>
+        <v>19.902211222979</v>
       </c>
       <c r="H31" t="n">
-        <v>72107.5</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69000</v>
+        <v>74050</v>
       </c>
       <c r="C32" t="n">
-        <v>69000</v>
+        <v>74100</v>
       </c>
       <c r="D32" t="n">
-        <v>69000</v>
+        <v>74100</v>
       </c>
       <c r="E32" t="n">
-        <v>69000</v>
+        <v>74050</v>
       </c>
       <c r="F32" t="n">
-        <v>72.80119999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G32" t="n">
-        <v>70293.33333333333</v>
+        <v>20.102211222979</v>
       </c>
       <c r="H32" t="n">
-        <v>72082.5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69600</v>
+        <v>74100</v>
       </c>
       <c r="C33" t="n">
-        <v>69550</v>
+        <v>74100</v>
       </c>
       <c r="D33" t="n">
-        <v>69600</v>
+        <v>74100</v>
       </c>
       <c r="E33" t="n">
-        <v>69550</v>
+        <v>74100</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>70130</v>
+        <v>20.102211222979</v>
       </c>
       <c r="H33" t="n">
-        <v>72068.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69550</v>
+        <v>73700</v>
       </c>
       <c r="C34" t="n">
-        <v>69550</v>
+        <v>73700</v>
       </c>
       <c r="D34" t="n">
-        <v>69550</v>
+        <v>73700</v>
       </c>
       <c r="E34" t="n">
-        <v>69550</v>
+        <v>73700</v>
       </c>
       <c r="F34" t="n">
-        <v>5.7749</v>
+        <v>0.2467</v>
       </c>
       <c r="G34" t="n">
-        <v>69986.66666666667</v>
+        <v>19.855511222979</v>
       </c>
       <c r="H34" t="n">
-        <v>72045.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69800</v>
+        <v>72950</v>
       </c>
       <c r="C35" t="n">
-        <v>69800</v>
+        <v>72400</v>
       </c>
       <c r="D35" t="n">
-        <v>69800</v>
+        <v>72950</v>
       </c>
       <c r="E35" t="n">
-        <v>69800</v>
+        <v>72200</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05</v>
+        <v>31.0645</v>
       </c>
       <c r="G35" t="n">
-        <v>69860</v>
+        <v>-11.208988777021</v>
       </c>
       <c r="H35" t="n">
-        <v>72027.5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68900</v>
+        <v>72200</v>
       </c>
       <c r="C36" t="n">
-        <v>68900</v>
+        <v>72200</v>
       </c>
       <c r="D36" t="n">
-        <v>68900</v>
+        <v>72200</v>
       </c>
       <c r="E36" t="n">
-        <v>68900</v>
+        <v>72200</v>
       </c>
       <c r="F36" t="n">
-        <v>0.866</v>
+        <v>0.8</v>
       </c>
       <c r="G36" t="n">
-        <v>69823.33333333333</v>
+        <v>-12.008988777021</v>
       </c>
       <c r="H36" t="n">
-        <v>72001.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="C37" t="n">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="D37" t="n">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="E37" t="n">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="F37" t="n">
-        <v>1.66</v>
+        <v>6.785</v>
       </c>
       <c r="G37" t="n">
-        <v>69863.33333333333</v>
+        <v>-5.223988777020999</v>
       </c>
       <c r="H37" t="n">
-        <v>71980.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69100</v>
+        <v>72350</v>
       </c>
       <c r="C38" t="n">
-        <v>68500</v>
+        <v>72350</v>
       </c>
       <c r="D38" t="n">
-        <v>69100</v>
+        <v>72350</v>
       </c>
       <c r="E38" t="n">
-        <v>68500</v>
+        <v>72350</v>
       </c>
       <c r="F38" t="n">
-        <v>10.305890014471</v>
+        <v>1.1178</v>
       </c>
       <c r="G38" t="n">
-        <v>69693.33333333333</v>
+        <v>-4.106188777020999</v>
       </c>
       <c r="H38" t="n">
-        <v>71940</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68350</v>
+        <v>72450</v>
       </c>
       <c r="C39" t="n">
-        <v>68350</v>
+        <v>72950</v>
       </c>
       <c r="D39" t="n">
-        <v>68350</v>
+        <v>72950</v>
       </c>
       <c r="E39" t="n">
-        <v>68350</v>
+        <v>72450</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6.1758</v>
       </c>
       <c r="G39" t="n">
-        <v>69523.33333333333</v>
+        <v>2.069611222979001</v>
       </c>
       <c r="H39" t="n">
-        <v>71885.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68400</v>
+        <v>72950</v>
       </c>
       <c r="C40" t="n">
-        <v>68400</v>
+        <v>73100</v>
       </c>
       <c r="D40" t="n">
-        <v>68400</v>
+        <v>73100</v>
       </c>
       <c r="E40" t="n">
-        <v>68400</v>
+        <v>72950</v>
       </c>
       <c r="F40" t="n">
-        <v>2.827</v>
+        <v>0.1836</v>
       </c>
       <c r="G40" t="n">
-        <v>69370</v>
+        <v>2.253211222979001</v>
       </c>
       <c r="H40" t="n">
-        <v>71831.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68850</v>
+        <v>73100</v>
       </c>
       <c r="C41" t="n">
-        <v>68200</v>
+        <v>73100</v>
       </c>
       <c r="D41" t="n">
-        <v>68850</v>
+        <v>73100</v>
       </c>
       <c r="E41" t="n">
-        <v>68200</v>
+        <v>73100</v>
       </c>
       <c r="F41" t="n">
-        <v>2.5657</v>
+        <v>0.0563</v>
       </c>
       <c r="G41" t="n">
-        <v>69216.66666666667</v>
+        <v>2.253211222979001</v>
       </c>
       <c r="H41" t="n">
-        <v>71786.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68750</v>
+        <v>72900</v>
       </c>
       <c r="C42" t="n">
-        <v>68750</v>
+        <v>72900</v>
       </c>
       <c r="D42" t="n">
-        <v>68750</v>
+        <v>72900</v>
       </c>
       <c r="E42" t="n">
-        <v>68750</v>
+        <v>72900</v>
       </c>
       <c r="F42" t="n">
-        <v>3.507</v>
+        <v>1.264</v>
       </c>
       <c r="G42" t="n">
-        <v>69126.66666666667</v>
+        <v>0.9892112229790009</v>
       </c>
       <c r="H42" t="n">
-        <v>71739.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68950</v>
+        <v>72900</v>
       </c>
       <c r="C43" t="n">
-        <v>68950</v>
+        <v>72900</v>
       </c>
       <c r="D43" t="n">
-        <v>68950</v>
+        <v>72900</v>
       </c>
       <c r="E43" t="n">
-        <v>68950</v>
+        <v>72900</v>
       </c>
       <c r="F43" t="n">
-        <v>2.2466</v>
+        <v>4.0979</v>
       </c>
       <c r="G43" t="n">
-        <v>69053.33333333333</v>
+        <v>0.9892112229790009</v>
       </c>
       <c r="H43" t="n">
-        <v>71695</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>69000</v>
+        <v>72900</v>
       </c>
       <c r="C44" t="n">
-        <v>69000</v>
+        <v>72900</v>
       </c>
       <c r="D44" t="n">
-        <v>69000</v>
+        <v>72900</v>
       </c>
       <c r="E44" t="n">
-        <v>69000</v>
+        <v>72900</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0219</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>68986.66666666667</v>
+        <v>0.9892112229790009</v>
       </c>
       <c r="H44" t="n">
-        <v>71650</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="C45" t="n">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="D45" t="n">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="E45" t="n">
-        <v>69350</v>
+        <v>72700</v>
       </c>
       <c r="F45" t="n">
-        <v>33.3322</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>68966.66666666667</v>
+        <v>-0.01078877702099912</v>
       </c>
       <c r="H45" t="n">
-        <v>71603.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69350</v>
+        <v>72250</v>
       </c>
       <c r="C46" t="n">
-        <v>69400</v>
+        <v>72200</v>
       </c>
       <c r="D46" t="n">
-        <v>69400</v>
+        <v>72800</v>
       </c>
       <c r="E46" t="n">
-        <v>69350</v>
+        <v>72200</v>
       </c>
       <c r="F46" t="n">
-        <v>48.3437</v>
+        <v>5.705021978021</v>
       </c>
       <c r="G46" t="n">
-        <v>69010</v>
+        <v>-5.715810755041999</v>
       </c>
       <c r="H46" t="n">
-        <v>71553.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69500</v>
+        <v>72000</v>
       </c>
       <c r="C47" t="n">
-        <v>69400</v>
+        <v>72000</v>
       </c>
       <c r="D47" t="n">
-        <v>69500</v>
+        <v>72000</v>
       </c>
       <c r="E47" t="n">
-        <v>69400</v>
+        <v>72000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>69036.66666666667</v>
+        <v>-6.715810755041999</v>
       </c>
       <c r="H47" t="n">
-        <v>71494.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>69450</v>
+        <v>71700</v>
       </c>
       <c r="C48" t="n">
-        <v>69450</v>
+        <v>71700</v>
       </c>
       <c r="D48" t="n">
-        <v>69500</v>
+        <v>71700</v>
       </c>
       <c r="E48" t="n">
-        <v>69450</v>
+        <v>71700</v>
       </c>
       <c r="F48" t="n">
-        <v>1.3169</v>
+        <v>0.2539</v>
       </c>
       <c r="G48" t="n">
-        <v>69030</v>
+        <v>-6.969710755041999</v>
       </c>
       <c r="H48" t="n">
-        <v>71464.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69600</v>
+        <v>71700</v>
       </c>
       <c r="C49" t="n">
-        <v>70000</v>
+        <v>71700</v>
       </c>
       <c r="D49" t="n">
-        <v>70000</v>
+        <v>71700</v>
       </c>
       <c r="E49" t="n">
-        <v>69600</v>
+        <v>71700</v>
       </c>
       <c r="F49" t="n">
-        <v>0.45</v>
+        <v>0.0461</v>
       </c>
       <c r="G49" t="n">
-        <v>69060</v>
+        <v>-6.969710755041999</v>
       </c>
       <c r="H49" t="n">
-        <v>71412.5</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>70000</v>
+        <v>70950</v>
       </c>
       <c r="C50" t="n">
-        <v>70000</v>
+        <v>69450</v>
       </c>
       <c r="D50" t="n">
-        <v>70000</v>
+        <v>70950</v>
       </c>
       <c r="E50" t="n">
-        <v>70000</v>
+        <v>69450</v>
       </c>
       <c r="F50" t="n">
-        <v>3.0837</v>
+        <v>7.6275</v>
       </c>
       <c r="G50" t="n">
-        <v>69073.33333333333</v>
+        <v>-14.597210755042</v>
       </c>
       <c r="H50" t="n">
-        <v>71355</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>70100</v>
+        <v>69900</v>
       </c>
       <c r="C51" t="n">
-        <v>70100</v>
+        <v>68800</v>
       </c>
       <c r="D51" t="n">
-        <v>70100</v>
+        <v>69900</v>
       </c>
       <c r="E51" t="n">
-        <v>70100</v>
+        <v>68800</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8514</v>
+        <v>141</v>
       </c>
       <c r="G51" t="n">
-        <v>69153.33333333333</v>
+        <v>-155.597210755042</v>
       </c>
       <c r="H51" t="n">
-        <v>71269.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>70300</v>
+        <v>70950</v>
       </c>
       <c r="C52" t="n">
-        <v>70300</v>
+        <v>71050</v>
       </c>
       <c r="D52" t="n">
-        <v>70300</v>
+        <v>71050</v>
       </c>
       <c r="E52" t="n">
-        <v>70300</v>
+        <v>70950</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0468</v>
+        <v>72.983601337086</v>
       </c>
       <c r="G52" t="n">
-        <v>69213.33333333333</v>
+        <v>-82.613609417956</v>
       </c>
       <c r="H52" t="n">
-        <v>71186.66666666667</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>68800</v>
+      </c>
+      <c r="K52" t="n">
+        <v>68800</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2222,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="C53" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="D53" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="E53" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4372</v>
+        <v>5.5856</v>
       </c>
       <c r="G53" t="n">
-        <v>69333.33333333333</v>
+        <v>-88.199209417956</v>
       </c>
       <c r="H53" t="n">
-        <v>71123.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2263,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>70300</v>
+        <v>70700</v>
       </c>
       <c r="C54" t="n">
-        <v>70300</v>
+        <v>70700</v>
       </c>
       <c r="D54" t="n">
-        <v>70300</v>
+        <v>70700</v>
       </c>
       <c r="E54" t="n">
-        <v>70300</v>
+        <v>70700</v>
       </c>
       <c r="F54" t="n">
-        <v>16.8926</v>
+        <v>0.68</v>
       </c>
       <c r="G54" t="n">
-        <v>69463.33333333333</v>
+        <v>-88.87920941795601</v>
       </c>
       <c r="H54" t="n">
-        <v>71063.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2304,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="C55" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="D55" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="E55" t="n">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="G55" t="n">
-        <v>69590</v>
+        <v>-89.729209417956</v>
       </c>
       <c r="H55" t="n">
-        <v>71018.33333333333</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>70700</v>
+      </c>
+      <c r="K55" t="n">
+        <v>70700</v>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2343,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>70750</v>
+        <v>70100</v>
       </c>
       <c r="C56" t="n">
-        <v>70800</v>
+        <v>70100</v>
       </c>
       <c r="D56" t="n">
-        <v>70800</v>
+        <v>70100</v>
       </c>
       <c r="E56" t="n">
-        <v>70750</v>
+        <v>70100</v>
       </c>
       <c r="F56" t="n">
-        <v>152.2271</v>
+        <v>1.06</v>
       </c>
       <c r="G56" t="n">
-        <v>69763.33333333333</v>
+        <v>-90.789209417956</v>
       </c>
       <c r="H56" t="n">
-        <v>70969.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>70700</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2384,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>70950</v>
+        <v>70050</v>
       </c>
       <c r="C57" t="n">
-        <v>70950</v>
+        <v>70050</v>
       </c>
       <c r="D57" t="n">
-        <v>70950</v>
+        <v>70050</v>
       </c>
       <c r="E57" t="n">
-        <v>70950</v>
+        <v>70050</v>
       </c>
       <c r="F57" t="n">
-        <v>7.327</v>
+        <v>5.4353</v>
       </c>
       <c r="G57" t="n">
-        <v>69910</v>
+        <v>-96.224509417956</v>
       </c>
       <c r="H57" t="n">
-        <v>70901.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>70700</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2425,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>70950</v>
+        <v>70000</v>
       </c>
       <c r="C58" t="n">
-        <v>70950</v>
+        <v>70000</v>
       </c>
       <c r="D58" t="n">
-        <v>70950</v>
+        <v>70000</v>
       </c>
       <c r="E58" t="n">
-        <v>70950</v>
+        <v>70000</v>
       </c>
       <c r="F58" t="n">
-        <v>4.4394</v>
+        <v>13.3665</v>
       </c>
       <c r="G58" t="n">
-        <v>70043.33333333333</v>
+        <v>-109.591009417956</v>
       </c>
       <c r="H58" t="n">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2460,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="C59" t="n">
-        <v>71000</v>
+        <v>69700</v>
       </c>
       <c r="D59" t="n">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="E59" t="n">
-        <v>71000</v>
+        <v>69700</v>
       </c>
       <c r="F59" t="n">
-        <v>2.1127</v>
+        <v>8.1456</v>
       </c>
       <c r="G59" t="n">
-        <v>70176.66666666667</v>
+        <v>-117.736609417956</v>
       </c>
       <c r="H59" t="n">
-        <v>70830</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2501,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70550</v>
+        <v>69650</v>
       </c>
       <c r="C60" t="n">
-        <v>70500</v>
+        <v>68750</v>
       </c>
       <c r="D60" t="n">
-        <v>70550</v>
+        <v>69650</v>
       </c>
       <c r="E60" t="n">
-        <v>70500</v>
+        <v>68750</v>
       </c>
       <c r="F60" t="n">
-        <v>5.6458</v>
+        <v>2.408</v>
       </c>
       <c r="G60" t="n">
-        <v>70250</v>
+        <v>-120.144609417956</v>
       </c>
       <c r="H60" t="n">
-        <v>70776.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2540,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70300</v>
+        <v>69000</v>
       </c>
       <c r="C61" t="n">
-        <v>70300</v>
+        <v>69000</v>
       </c>
       <c r="D61" t="n">
-        <v>70300</v>
+        <v>69000</v>
       </c>
       <c r="E61" t="n">
-        <v>70300</v>
+        <v>69000</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>72.80119999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>70310</v>
+        <v>-47.34340941795601</v>
       </c>
       <c r="H61" t="n">
-        <v>70719.16666666667</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>68750</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2581,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>70450</v>
+        <v>69600</v>
       </c>
       <c r="C62" t="n">
-        <v>70850</v>
+        <v>69550</v>
       </c>
       <c r="D62" t="n">
-        <v>70850</v>
+        <v>69600</v>
       </c>
       <c r="E62" t="n">
-        <v>70450</v>
+        <v>69550</v>
       </c>
       <c r="F62" t="n">
-        <v>5.312</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>70406.66666666667</v>
+        <v>-45.34340941795601</v>
       </c>
       <c r="H62" t="n">
-        <v>70665.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2620,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>70850</v>
+        <v>69550</v>
       </c>
       <c r="C63" t="n">
-        <v>70850</v>
+        <v>69550</v>
       </c>
       <c r="D63" t="n">
-        <v>70850</v>
+        <v>69550</v>
       </c>
       <c r="E63" t="n">
-        <v>70850</v>
+        <v>69550</v>
       </c>
       <c r="F63" t="n">
-        <v>1.4814</v>
+        <v>5.7749</v>
       </c>
       <c r="G63" t="n">
-        <v>70500</v>
+        <v>-45.34340941795601</v>
       </c>
       <c r="H63" t="n">
-        <v>70611.66666666667</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>69550</v>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2661,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>70850</v>
+        <v>69800</v>
       </c>
       <c r="C64" t="n">
-        <v>70850</v>
+        <v>69800</v>
       </c>
       <c r="D64" t="n">
-        <v>70850</v>
+        <v>69800</v>
       </c>
       <c r="E64" t="n">
-        <v>70850</v>
+        <v>69800</v>
       </c>
       <c r="F64" t="n">
-        <v>1.9647</v>
+        <v>0.05</v>
       </c>
       <c r="G64" t="n">
-        <v>70556.66666666667</v>
+        <v>-45.29340941795601</v>
       </c>
       <c r="H64" t="n">
-        <v>70557.5</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>69550</v>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2702,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>70500</v>
+        <v>68900</v>
       </c>
       <c r="C65" t="n">
-        <v>70500</v>
+        <v>68900</v>
       </c>
       <c r="D65" t="n">
-        <v>70500</v>
+        <v>68900</v>
       </c>
       <c r="E65" t="n">
-        <v>70500</v>
+        <v>68900</v>
       </c>
       <c r="F65" t="n">
-        <v>1.929</v>
+        <v>0.866</v>
       </c>
       <c r="G65" t="n">
-        <v>70590</v>
+        <v>-46.15940941795601</v>
       </c>
       <c r="H65" t="n">
-        <v>70504.16666666667</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>69800</v>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2743,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>70300</v>
+        <v>69400</v>
       </c>
       <c r="C66" t="n">
-        <v>70300</v>
+        <v>69400</v>
       </c>
       <c r="D66" t="n">
-        <v>70300</v>
+        <v>69400</v>
       </c>
       <c r="E66" t="n">
-        <v>70300</v>
+        <v>69400</v>
       </c>
       <c r="F66" t="n">
-        <v>1.9852</v>
+        <v>1.66</v>
       </c>
       <c r="G66" t="n">
-        <v>70603.33333333333</v>
+        <v>-44.49940941795602</v>
       </c>
       <c r="H66" t="n">
-        <v>70469.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2782,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>70150</v>
+        <v>69100</v>
       </c>
       <c r="C67" t="n">
-        <v>70150</v>
+        <v>68500</v>
       </c>
       <c r="D67" t="n">
-        <v>70150</v>
+        <v>69100</v>
       </c>
       <c r="E67" t="n">
-        <v>70150</v>
+        <v>68500</v>
       </c>
       <c r="F67" t="n">
-        <v>3.6374</v>
+        <v>10.305890014471</v>
       </c>
       <c r="G67" t="n">
-        <v>70593.33333333333</v>
+        <v>-54.80529943242702</v>
       </c>
       <c r="H67" t="n">
-        <v>70435</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2823,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>69950</v>
+        <v>68350</v>
       </c>
       <c r="C68" t="n">
-        <v>69600</v>
+        <v>68350</v>
       </c>
       <c r="D68" t="n">
-        <v>69950</v>
+        <v>68350</v>
       </c>
       <c r="E68" t="n">
-        <v>69600</v>
+        <v>68350</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7138</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>70546.66666666667</v>
+        <v>-55.80529943242702</v>
       </c>
       <c r="H68" t="n">
-        <v>70390</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2862,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>69850</v>
+        <v>68400</v>
       </c>
       <c r="C69" t="n">
-        <v>69600</v>
+        <v>68400</v>
       </c>
       <c r="D69" t="n">
-        <v>69850</v>
+        <v>68400</v>
       </c>
       <c r="E69" t="n">
-        <v>69600</v>
+        <v>68400</v>
       </c>
       <c r="F69" t="n">
-        <v>1.1402</v>
+        <v>2.827</v>
       </c>
       <c r="G69" t="n">
-        <v>70500</v>
+        <v>-52.97829943242702</v>
       </c>
       <c r="H69" t="n">
-        <v>70344.16666666667</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>68350</v>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2903,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>69600</v>
+        <v>68850</v>
       </c>
       <c r="C70" t="n">
-        <v>69600</v>
+        <v>68200</v>
       </c>
       <c r="D70" t="n">
-        <v>69600</v>
+        <v>68850</v>
       </c>
       <c r="E70" t="n">
-        <v>69600</v>
+        <v>68200</v>
       </c>
       <c r="F70" t="n">
-        <v>1.06</v>
+        <v>2.5657</v>
       </c>
       <c r="G70" t="n">
-        <v>70453.33333333333</v>
+        <v>-55.54399943242702</v>
       </c>
       <c r="H70" t="n">
-        <v>70288.33333333333</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>68400</v>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2944,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>69450</v>
+        <v>68750</v>
       </c>
       <c r="C71" t="n">
-        <v>69450</v>
+        <v>68750</v>
       </c>
       <c r="D71" t="n">
-        <v>69450</v>
+        <v>68750</v>
       </c>
       <c r="E71" t="n">
-        <v>69450</v>
+        <v>68750</v>
       </c>
       <c r="F71" t="n">
-        <v>2.807</v>
+        <v>3.507</v>
       </c>
       <c r="G71" t="n">
-        <v>70363.33333333333</v>
+        <v>-52.03699943242702</v>
       </c>
       <c r="H71" t="n">
-        <v>70227.5</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2985,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>69400</v>
+        <v>68950</v>
       </c>
       <c r="C72" t="n">
-        <v>69400</v>
+        <v>68950</v>
       </c>
       <c r="D72" t="n">
-        <v>69400</v>
+        <v>68950</v>
       </c>
       <c r="E72" t="n">
-        <v>69400</v>
+        <v>68950</v>
       </c>
       <c r="F72" t="n">
-        <v>4.846</v>
+        <v>2.2466</v>
       </c>
       <c r="G72" t="n">
-        <v>70260</v>
+        <v>-49.79039943242702</v>
       </c>
       <c r="H72" t="n">
-        <v>70165.83333333333</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>68750</v>
       </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3026,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>69500</v>
+        <v>69000</v>
       </c>
       <c r="C73" t="n">
-        <v>69300</v>
+        <v>69000</v>
       </c>
       <c r="D73" t="n">
-        <v>69500</v>
+        <v>69000</v>
       </c>
       <c r="E73" t="n">
-        <v>69300</v>
+        <v>69000</v>
       </c>
       <c r="F73" t="n">
-        <v>4.1635</v>
+        <v>0.0219</v>
       </c>
       <c r="G73" t="n">
-        <v>70150</v>
+        <v>-49.76849943242702</v>
       </c>
       <c r="H73" t="n">
-        <v>70105.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3065,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>69250</v>
+        <v>69400</v>
       </c>
       <c r="C74" t="n">
-        <v>69250</v>
+        <v>69400</v>
       </c>
       <c r="D74" t="n">
-        <v>69250</v>
+        <v>69400</v>
       </c>
       <c r="E74" t="n">
-        <v>69250</v>
+        <v>69350</v>
       </c>
       <c r="F74" t="n">
-        <v>1.66</v>
+        <v>33.3322</v>
       </c>
       <c r="G74" t="n">
-        <v>70033.33333333333</v>
+        <v>-16.43629943242702</v>
       </c>
       <c r="H74" t="n">
-        <v>70045</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3104,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>69050</v>
+        <v>69350</v>
       </c>
       <c r="C75" t="n">
-        <v>69000</v>
+        <v>69400</v>
       </c>
       <c r="D75" t="n">
-        <v>69050</v>
+        <v>69400</v>
       </c>
       <c r="E75" t="n">
-        <v>69000</v>
+        <v>69350</v>
       </c>
       <c r="F75" t="n">
-        <v>2.144</v>
+        <v>48.3437</v>
       </c>
       <c r="G75" t="n">
-        <v>69933.33333333333</v>
+        <v>-16.43629943242702</v>
       </c>
       <c r="H75" t="n">
-        <v>69980</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3143,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="C76" t="n">
-        <v>69000</v>
+        <v>69400</v>
       </c>
       <c r="D76" t="n">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="E76" t="n">
-        <v>69000</v>
+        <v>69400</v>
       </c>
       <c r="F76" t="n">
-        <v>0.961</v>
+        <v>0.63</v>
       </c>
       <c r="G76" t="n">
-        <v>69846.66666666667</v>
+        <v>-16.43629943242702</v>
       </c>
       <c r="H76" t="n">
-        <v>69918.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3182,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>69000</v>
+        <v>69450</v>
       </c>
       <c r="C77" t="n">
-        <v>69000</v>
+        <v>69450</v>
       </c>
       <c r="D77" t="n">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="E77" t="n">
-        <v>69000</v>
+        <v>69450</v>
       </c>
       <c r="F77" t="n">
-        <v>4.3877</v>
+        <v>1.3169</v>
       </c>
       <c r="G77" t="n">
-        <v>69723.33333333333</v>
+        <v>-15.11939943242702</v>
       </c>
       <c r="H77" t="n">
-        <v>69865</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3223,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>69200</v>
+        <v>69600</v>
       </c>
       <c r="C78" t="n">
-        <v>69200</v>
+        <v>70000</v>
       </c>
       <c r="D78" t="n">
-        <v>69200</v>
+        <v>70000</v>
       </c>
       <c r="E78" t="n">
-        <v>69200</v>
+        <v>69600</v>
       </c>
       <c r="F78" t="n">
-        <v>11.4</v>
+        <v>0.45</v>
       </c>
       <c r="G78" t="n">
-        <v>69613.33333333333</v>
+        <v>-14.66939943242702</v>
       </c>
       <c r="H78" t="n">
-        <v>69818.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3262,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69000</v>
+        <v>70000</v>
       </c>
       <c r="C79" t="n">
-        <v>69000</v>
+        <v>70000</v>
       </c>
       <c r="D79" t="n">
-        <v>69000</v>
+        <v>70000</v>
       </c>
       <c r="E79" t="n">
-        <v>69000</v>
+        <v>70000</v>
       </c>
       <c r="F79" t="n">
-        <v>2.07</v>
+        <v>3.0837</v>
       </c>
       <c r="G79" t="n">
-        <v>69490</v>
+        <v>-14.66939943242702</v>
       </c>
       <c r="H79" t="n">
-        <v>69773.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3301,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="C80" t="n">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="D80" t="n">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="E80" t="n">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="F80" t="n">
-        <v>0.35</v>
+        <v>0.8514</v>
       </c>
       <c r="G80" t="n">
-        <v>69383.33333333333</v>
+        <v>-13.81799943242702</v>
       </c>
       <c r="H80" t="n">
-        <v>69726.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3340,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68550</v>
+        <v>70300</v>
       </c>
       <c r="C81" t="n">
-        <v>68650</v>
+        <v>70300</v>
       </c>
       <c r="D81" t="n">
-        <v>68650</v>
+        <v>70300</v>
       </c>
       <c r="E81" t="n">
-        <v>68550</v>
+        <v>70300</v>
       </c>
       <c r="F81" t="n">
-        <v>2.49</v>
+        <v>0.0468</v>
       </c>
       <c r="G81" t="n">
-        <v>69273.33333333333</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H81" t="n">
-        <v>69713.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3379,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68300</v>
+        <v>70300</v>
       </c>
       <c r="C82" t="n">
-        <v>68300</v>
+        <v>70300</v>
       </c>
       <c r="D82" t="n">
-        <v>68300</v>
+        <v>70300</v>
       </c>
       <c r="E82" t="n">
-        <v>68300</v>
+        <v>70300</v>
       </c>
       <c r="F82" t="n">
-        <v>5.1336</v>
+        <v>0.4372</v>
       </c>
       <c r="G82" t="n">
-        <v>69150</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H82" t="n">
-        <v>69705</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3418,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="C83" t="n">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="D83" t="n">
-        <v>68350</v>
+        <v>70300</v>
       </c>
       <c r="E83" t="n">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="F83" t="n">
-        <v>3.358</v>
+        <v>16.8926</v>
       </c>
       <c r="G83" t="n">
-        <v>69056.66666666667</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H83" t="n">
-        <v>69657.5</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3457,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68150</v>
+        <v>70300</v>
       </c>
       <c r="C84" t="n">
-        <v>67550</v>
+        <v>70300</v>
       </c>
       <c r="D84" t="n">
-        <v>68150</v>
+        <v>70300</v>
       </c>
       <c r="E84" t="n">
-        <v>67550</v>
+        <v>70300</v>
       </c>
       <c r="F84" t="n">
-        <v>4.2827</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>68920</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H84" t="n">
-        <v>69601.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3496,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68050</v>
+        <v>70750</v>
       </c>
       <c r="C85" t="n">
-        <v>68900</v>
+        <v>70800</v>
       </c>
       <c r="D85" t="n">
-        <v>68900</v>
+        <v>70800</v>
       </c>
       <c r="E85" t="n">
-        <v>68050</v>
+        <v>70750</v>
       </c>
       <c r="F85" t="n">
-        <v>6.3283</v>
+        <v>152.2271</v>
       </c>
       <c r="G85" t="n">
-        <v>68873.33333333333</v>
+        <v>138.455900567573</v>
       </c>
       <c r="H85" t="n">
-        <v>69571.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3535,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>69150</v>
+        <v>70950</v>
       </c>
       <c r="C86" t="n">
-        <v>69150</v>
+        <v>70950</v>
       </c>
       <c r="D86" t="n">
-        <v>69150</v>
+        <v>70950</v>
       </c>
       <c r="E86" t="n">
-        <v>69150</v>
+        <v>70950</v>
       </c>
       <c r="F86" t="n">
-        <v>2.7861</v>
+        <v>7.327</v>
       </c>
       <c r="G86" t="n">
-        <v>68853.33333333333</v>
+        <v>145.782900567573</v>
       </c>
       <c r="H86" t="n">
-        <v>69549.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3574,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68300</v>
+        <v>70950</v>
       </c>
       <c r="C87" t="n">
-        <v>68300</v>
+        <v>70950</v>
       </c>
       <c r="D87" t="n">
-        <v>68300</v>
+        <v>70950</v>
       </c>
       <c r="E87" t="n">
-        <v>68300</v>
+        <v>70950</v>
       </c>
       <c r="F87" t="n">
-        <v>1.271</v>
+        <v>4.4394</v>
       </c>
       <c r="G87" t="n">
-        <v>68780</v>
+        <v>145.782900567573</v>
       </c>
       <c r="H87" t="n">
-        <v>69519.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3613,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68700</v>
+        <v>71000</v>
       </c>
       <c r="C88" t="n">
-        <v>68700</v>
+        <v>71000</v>
       </c>
       <c r="D88" t="n">
-        <v>68700</v>
+        <v>71000</v>
       </c>
       <c r="E88" t="n">
-        <v>68700</v>
+        <v>71000</v>
       </c>
       <c r="F88" t="n">
-        <v>1.343493449781</v>
+        <v>2.1127</v>
       </c>
       <c r="G88" t="n">
-        <v>68740</v>
+        <v>147.895600567573</v>
       </c>
       <c r="H88" t="n">
-        <v>69496.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3652,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>68550</v>
+        <v>70550</v>
       </c>
       <c r="C89" t="n">
-        <v>68550</v>
+        <v>70500</v>
       </c>
       <c r="D89" t="n">
-        <v>68550</v>
+        <v>70550</v>
       </c>
       <c r="E89" t="n">
-        <v>68550</v>
+        <v>70500</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3062</v>
+        <v>5.6458</v>
       </c>
       <c r="G89" t="n">
-        <v>68693.33333333333</v>
+        <v>142.249800567573</v>
       </c>
       <c r="H89" t="n">
-        <v>69472.5</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3691,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>69050</v>
+        <v>70300</v>
       </c>
       <c r="C90" t="n">
-        <v>69050</v>
+        <v>70300</v>
       </c>
       <c r="D90" t="n">
-        <v>69050</v>
+        <v>70300</v>
       </c>
       <c r="E90" t="n">
-        <v>69050</v>
+        <v>70300</v>
       </c>
       <c r="F90" t="n">
-        <v>2.7136</v>
+        <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>68696.66666666667</v>
+        <v>142.149800567573</v>
       </c>
       <c r="H90" t="n">
-        <v>69461.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3730,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>69500</v>
+        <v>70450</v>
       </c>
       <c r="C91" t="n">
-        <v>69500</v>
+        <v>70850</v>
       </c>
       <c r="D91" t="n">
-        <v>69500</v>
+        <v>70850</v>
       </c>
       <c r="E91" t="n">
-        <v>69500</v>
+        <v>70450</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>5.312</v>
       </c>
       <c r="G91" t="n">
-        <v>68730</v>
+        <v>147.461800567573</v>
       </c>
       <c r="H91" t="n">
-        <v>69474.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3769,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="C92" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="D92" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="E92" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="F92" t="n">
-        <v>0.324</v>
+        <v>1.4814</v>
       </c>
       <c r="G92" t="n">
-        <v>68770</v>
+        <v>147.461800567573</v>
       </c>
       <c r="H92" t="n">
-        <v>69484.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3808,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="C93" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="D93" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="E93" t="n">
-        <v>69600</v>
+        <v>70850</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3944</v>
+        <v>1.9647</v>
       </c>
       <c r="G93" t="n">
-        <v>68796.66666666667</v>
+        <v>147.461800567573</v>
       </c>
       <c r="H93" t="n">
-        <v>69485</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3847,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>69550</v>
+        <v>70500</v>
       </c>
       <c r="C94" t="n">
-        <v>69550</v>
+        <v>70500</v>
       </c>
       <c r="D94" t="n">
-        <v>69550</v>
+        <v>70500</v>
       </c>
       <c r="E94" t="n">
-        <v>69550</v>
+        <v>70500</v>
       </c>
       <c r="F94" t="n">
-        <v>1.994</v>
+        <v>1.929</v>
       </c>
       <c r="G94" t="n">
-        <v>68833.33333333333</v>
+        <v>145.532800567573</v>
       </c>
       <c r="H94" t="n">
-        <v>69485</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3886,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>69550</v>
+        <v>70300</v>
       </c>
       <c r="C95" t="n">
-        <v>69550</v>
+        <v>70300</v>
       </c>
       <c r="D95" t="n">
-        <v>69550</v>
+        <v>70300</v>
       </c>
       <c r="E95" t="n">
-        <v>69550</v>
+        <v>70300</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001</v>
+        <v>1.9852</v>
       </c>
       <c r="G95" t="n">
-        <v>68876.66666666667</v>
+        <v>143.547600567573</v>
       </c>
       <c r="H95" t="n">
-        <v>69480.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3925,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>70100</v>
+        <v>70150</v>
       </c>
       <c r="C96" t="n">
-        <v>70100</v>
+        <v>70150</v>
       </c>
       <c r="D96" t="n">
-        <v>70100</v>
+        <v>70150</v>
       </c>
       <c r="E96" t="n">
-        <v>70100</v>
+        <v>70150</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1414</v>
+        <v>3.6374</v>
       </c>
       <c r="G96" t="n">
-        <v>68973.33333333333</v>
+        <v>139.910200567573</v>
       </c>
       <c r="H96" t="n">
-        <v>69500.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3964,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>69050</v>
+        <v>69950</v>
       </c>
       <c r="C97" t="n">
-        <v>69050</v>
+        <v>69600</v>
       </c>
       <c r="D97" t="n">
-        <v>69050</v>
+        <v>69950</v>
       </c>
       <c r="E97" t="n">
-        <v>69050</v>
+        <v>69600</v>
       </c>
       <c r="F97" t="n">
-        <v>2.5737</v>
+        <v>0.7138</v>
       </c>
       <c r="G97" t="n">
-        <v>69023.33333333333</v>
+        <v>139.196400567573</v>
       </c>
       <c r="H97" t="n">
-        <v>69495</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4003,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>68900</v>
+        <v>69850</v>
       </c>
       <c r="C98" t="n">
-        <v>69150</v>
+        <v>69600</v>
       </c>
       <c r="D98" t="n">
-        <v>69150</v>
+        <v>69850</v>
       </c>
       <c r="E98" t="n">
-        <v>68900</v>
+        <v>69600</v>
       </c>
       <c r="F98" t="n">
-        <v>2.8737</v>
+        <v>1.1402</v>
       </c>
       <c r="G98" t="n">
-        <v>69086.66666666667</v>
+        <v>139.196400567573</v>
       </c>
       <c r="H98" t="n">
-        <v>69505.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4042,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>69250</v>
+        <v>69600</v>
       </c>
       <c r="C99" t="n">
-        <v>69250</v>
+        <v>69600</v>
       </c>
       <c r="D99" t="n">
-        <v>69250</v>
+        <v>69600</v>
       </c>
       <c r="E99" t="n">
-        <v>69250</v>
+        <v>69600</v>
       </c>
       <c r="F99" t="n">
-        <v>1.287</v>
+        <v>1.06</v>
       </c>
       <c r="G99" t="n">
-        <v>69200</v>
+        <v>139.196400567573</v>
       </c>
       <c r="H99" t="n">
-        <v>69520.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4081,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68950</v>
+        <v>69450</v>
       </c>
       <c r="C100" t="n">
-        <v>68650</v>
+        <v>69450</v>
       </c>
       <c r="D100" t="n">
-        <v>68950</v>
+        <v>69450</v>
       </c>
       <c r="E100" t="n">
-        <v>68650</v>
+        <v>69450</v>
       </c>
       <c r="F100" t="n">
-        <v>4.5279</v>
+        <v>2.807</v>
       </c>
       <c r="G100" t="n">
-        <v>69183.33333333333</v>
+        <v>136.389400567573</v>
       </c>
       <c r="H100" t="n">
-        <v>69525</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4120,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>68750</v>
+        <v>69400</v>
       </c>
       <c r="C101" t="n">
-        <v>69000</v>
+        <v>69400</v>
       </c>
       <c r="D101" t="n">
-        <v>69000</v>
+        <v>69400</v>
       </c>
       <c r="E101" t="n">
-        <v>68700</v>
+        <v>69400</v>
       </c>
       <c r="F101" t="n">
-        <v>31.013753623188</v>
+        <v>4.846</v>
       </c>
       <c r="G101" t="n">
-        <v>69173.33333333333</v>
+        <v>131.543400567573</v>
       </c>
       <c r="H101" t="n">
-        <v>69538.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4159,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68650</v>
+        <v>69500</v>
       </c>
       <c r="C102" t="n">
-        <v>68600</v>
+        <v>69300</v>
       </c>
       <c r="D102" t="n">
-        <v>68650</v>
+        <v>69500</v>
       </c>
       <c r="E102" t="n">
-        <v>68600</v>
+        <v>69300</v>
       </c>
       <c r="F102" t="n">
-        <v>1.4298</v>
+        <v>4.1635</v>
       </c>
       <c r="G102" t="n">
-        <v>69193.33333333333</v>
+        <v>127.379900567573</v>
       </c>
       <c r="H102" t="n">
-        <v>69535.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4198,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68200</v>
+        <v>69250</v>
       </c>
       <c r="C103" t="n">
-        <v>68000</v>
+        <v>69250</v>
       </c>
       <c r="D103" t="n">
-        <v>68200</v>
+        <v>69250</v>
       </c>
       <c r="E103" t="n">
-        <v>68000</v>
+        <v>69250</v>
       </c>
       <c r="F103" t="n">
-        <v>2.59</v>
+        <v>1.66</v>
       </c>
       <c r="G103" t="n">
-        <v>69146.66666666667</v>
+        <v>125.719900567573</v>
       </c>
       <c r="H103" t="n">
-        <v>69520</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4237,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68550</v>
+        <v>69050</v>
       </c>
       <c r="C104" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="D104" t="n">
-        <v>68550</v>
+        <v>69050</v>
       </c>
       <c r="E104" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="F104" t="n">
-        <v>2.266</v>
+        <v>2.144</v>
       </c>
       <c r="G104" t="n">
-        <v>69146.66666666667</v>
+        <v>123.575900567573</v>
       </c>
       <c r="H104" t="n">
-        <v>69512.5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4276,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="C105" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="D105" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="E105" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="F105" t="n">
-        <v>2.4009</v>
+        <v>0.961</v>
       </c>
       <c r="G105" t="n">
-        <v>69113.33333333333</v>
+        <v>123.575900567573</v>
       </c>
       <c r="H105" t="n">
-        <v>69498.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4315,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="C106" t="n">
-        <v>68500</v>
+        <v>69000</v>
       </c>
       <c r="D106" t="n">
-        <v>68550</v>
+        <v>69000</v>
       </c>
       <c r="E106" t="n">
-        <v>68250</v>
+        <v>69000</v>
       </c>
       <c r="F106" t="n">
-        <v>17.6083</v>
+        <v>4.3877</v>
       </c>
       <c r="G106" t="n">
-        <v>69046.66666666667</v>
+        <v>123.575900567573</v>
       </c>
       <c r="H106" t="n">
-        <v>69483.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4354,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="C107" t="n">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="D107" t="n">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="E107" t="n">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="F107" t="n">
-        <v>3.439</v>
+        <v>11.4</v>
       </c>
       <c r="G107" t="n">
-        <v>68986.66666666667</v>
+        <v>134.975900567573</v>
       </c>
       <c r="H107" t="n">
-        <v>69471.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4393,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="C108" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="D108" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="E108" t="n">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="F108" t="n">
-        <v>0.296995645863</v>
+        <v>2.07</v>
       </c>
       <c r="G108" t="n">
-        <v>68940</v>
+        <v>132.905900567573</v>
       </c>
       <c r="H108" t="n">
-        <v>69462.5</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,33 +4435,34 @@
         <v>68900</v>
       </c>
       <c r="C109" t="n">
-        <v>69150</v>
+        <v>68900</v>
       </c>
       <c r="D109" t="n">
-        <v>69150</v>
+        <v>68900</v>
       </c>
       <c r="E109" t="n">
         <v>68900</v>
       </c>
       <c r="F109" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="G109" t="n">
-        <v>68913.33333333333</v>
+        <v>132.555900567573</v>
       </c>
       <c r="H109" t="n">
-        <v>69448.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4471,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68750</v>
+        <v>68550</v>
       </c>
       <c r="C110" t="n">
-        <v>69250</v>
+        <v>68650</v>
       </c>
       <c r="D110" t="n">
-        <v>69250</v>
+        <v>68650</v>
       </c>
       <c r="E110" t="n">
-        <v>68700</v>
+        <v>68550</v>
       </c>
       <c r="F110" t="n">
-        <v>14.1975</v>
+        <v>2.49</v>
       </c>
       <c r="G110" t="n">
-        <v>68893.33333333333</v>
+        <v>130.065900567573</v>
       </c>
       <c r="H110" t="n">
-        <v>69435.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4510,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="C111" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="D111" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="E111" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2963</v>
+        <v>5.1336</v>
       </c>
       <c r="G111" t="n">
-        <v>68790</v>
+        <v>124.932300567573</v>
       </c>
       <c r="H111" t="n">
-        <v>69410</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4549,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="C112" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="D112" t="n">
-        <v>69050</v>
+        <v>68350</v>
       </c>
       <c r="E112" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="F112" t="n">
-        <v>5.7929</v>
+        <v>3.358</v>
       </c>
       <c r="G112" t="n">
-        <v>68790</v>
+        <v>121.574300567573</v>
       </c>
       <c r="H112" t="n">
-        <v>69389.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4588,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68250</v>
+        <v>68150</v>
       </c>
       <c r="C113" t="n">
-        <v>68200</v>
+        <v>67550</v>
       </c>
       <c r="D113" t="n">
-        <v>68250</v>
+        <v>68150</v>
       </c>
       <c r="E113" t="n">
-        <v>68200</v>
+        <v>67550</v>
       </c>
       <c r="F113" t="n">
-        <v>3.606</v>
+        <v>4.2827</v>
       </c>
       <c r="G113" t="n">
-        <v>68726.66666666667</v>
+        <v>117.291600567573</v>
       </c>
       <c r="H113" t="n">
-        <v>69354.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4627,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="C114" t="n">
-        <v>68200</v>
+        <v>68900</v>
       </c>
       <c r="D114" t="n">
-        <v>68200</v>
+        <v>68900</v>
       </c>
       <c r="E114" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>6.3283</v>
       </c>
       <c r="G114" t="n">
-        <v>68656.66666666667</v>
+        <v>123.619900567573</v>
       </c>
       <c r="H114" t="n">
-        <v>69319.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4666,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68450</v>
+        <v>69150</v>
       </c>
       <c r="C115" t="n">
-        <v>68450</v>
+        <v>69150</v>
       </c>
       <c r="D115" t="n">
-        <v>68450</v>
+        <v>69150</v>
       </c>
       <c r="E115" t="n">
-        <v>68450</v>
+        <v>69150</v>
       </c>
       <c r="F115" t="n">
-        <v>1.5758</v>
+        <v>2.7861</v>
       </c>
       <c r="G115" t="n">
-        <v>68643.33333333333</v>
+        <v>126.406000567573</v>
       </c>
       <c r="H115" t="n">
-        <v>69288.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4705,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="C116" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="D116" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="E116" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9407</v>
+        <v>1.271</v>
       </c>
       <c r="G116" t="n">
-        <v>68613.33333333333</v>
+        <v>125.135000567573</v>
       </c>
       <c r="H116" t="n">
-        <v>69250.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4744,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="C117" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="D117" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="E117" t="n">
-        <v>68550</v>
+        <v>68700</v>
       </c>
       <c r="F117" t="n">
-        <v>0.15</v>
+        <v>1.343493449781</v>
       </c>
       <c r="G117" t="n">
-        <v>68610</v>
+        <v>126.478494017354</v>
       </c>
       <c r="H117" t="n">
-        <v>69210.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4783,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68200</v>
+        <v>68550</v>
       </c>
       <c r="C118" t="n">
-        <v>68150</v>
+        <v>68550</v>
       </c>
       <c r="D118" t="n">
-        <v>68200</v>
+        <v>68550</v>
       </c>
       <c r="E118" t="n">
-        <v>68150</v>
+        <v>68550</v>
       </c>
       <c r="F118" t="n">
-        <v>5.7784</v>
+        <v>0.3062</v>
       </c>
       <c r="G118" t="n">
-        <v>68620</v>
+        <v>126.172294017354</v>
       </c>
       <c r="H118" t="n">
-        <v>69164.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4822,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="C119" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="D119" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="E119" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5195</v>
+        <v>2.7136</v>
       </c>
       <c r="G119" t="n">
-        <v>68613.33333333333</v>
+        <v>128.885894017354</v>
       </c>
       <c r="H119" t="n">
-        <v>69121.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4861,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68450</v>
+        <v>69500</v>
       </c>
       <c r="C120" t="n">
-        <v>68500</v>
+        <v>69500</v>
       </c>
       <c r="D120" t="n">
-        <v>68500</v>
+        <v>69500</v>
       </c>
       <c r="E120" t="n">
-        <v>68450</v>
+        <v>69500</v>
       </c>
       <c r="F120" t="n">
-        <v>5.6297</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>68610</v>
+        <v>129.885894017354</v>
       </c>
       <c r="H120" t="n">
-        <v>69088.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4900,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="C121" t="n">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="D121" t="n">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="E121" t="n">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="F121" t="n">
-        <v>2.3262</v>
+        <v>0.324</v>
       </c>
       <c r="G121" t="n">
-        <v>68610</v>
+        <v>130.209894017354</v>
       </c>
       <c r="H121" t="n">
-        <v>69058.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4939,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67750</v>
+        <v>69600</v>
       </c>
       <c r="C122" t="n">
-        <v>67900</v>
+        <v>69600</v>
       </c>
       <c r="D122" t="n">
-        <v>67900</v>
+        <v>69600</v>
       </c>
       <c r="E122" t="n">
-        <v>67750</v>
+        <v>69600</v>
       </c>
       <c r="F122" t="n">
-        <v>4.11</v>
+        <v>0.3944</v>
       </c>
       <c r="G122" t="n">
-        <v>68556.66666666667</v>
+        <v>130.209894017354</v>
       </c>
       <c r="H122" t="n">
-        <v>69009.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4978,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67800</v>
+        <v>69550</v>
       </c>
       <c r="C123" t="n">
-        <v>67800</v>
+        <v>69550</v>
       </c>
       <c r="D123" t="n">
-        <v>67800</v>
+        <v>69550</v>
       </c>
       <c r="E123" t="n">
-        <v>67800</v>
+        <v>69550</v>
       </c>
       <c r="F123" t="n">
-        <v>2.7173</v>
+        <v>1.994</v>
       </c>
       <c r="G123" t="n">
-        <v>68483.33333333333</v>
+        <v>128.215894017354</v>
       </c>
       <c r="H123" t="n">
-        <v>68958.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +5017,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67650</v>
+        <v>69550</v>
       </c>
       <c r="C124" t="n">
-        <v>67500</v>
+        <v>69550</v>
       </c>
       <c r="D124" t="n">
-        <v>67650</v>
+        <v>69550</v>
       </c>
       <c r="E124" t="n">
-        <v>67500</v>
+        <v>69550</v>
       </c>
       <c r="F124" t="n">
-        <v>7.0913</v>
+        <v>0.001</v>
       </c>
       <c r="G124" t="n">
-        <v>68373.33333333333</v>
+        <v>128.215894017354</v>
       </c>
       <c r="H124" t="n">
-        <v>68902.5</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +5056,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67350</v>
+        <v>70100</v>
       </c>
       <c r="C125" t="n">
-        <v>67350</v>
+        <v>70100</v>
       </c>
       <c r="D125" t="n">
-        <v>67350</v>
+        <v>70100</v>
       </c>
       <c r="E125" t="n">
-        <v>67350</v>
+        <v>70100</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2</v>
+        <v>0.1414</v>
       </c>
       <c r="G125" t="n">
-        <v>68246.66666666667</v>
+        <v>128.357294017354</v>
       </c>
       <c r="H125" t="n">
-        <v>68850</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +5095,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67000</v>
+        <v>69050</v>
       </c>
       <c r="C126" t="n">
-        <v>66850</v>
+        <v>69050</v>
       </c>
       <c r="D126" t="n">
-        <v>67000</v>
+        <v>69050</v>
       </c>
       <c r="E126" t="n">
-        <v>66800</v>
+        <v>69050</v>
       </c>
       <c r="F126" t="n">
-        <v>13.7392</v>
+        <v>2.5737</v>
       </c>
       <c r="G126" t="n">
-        <v>68133.33333333333</v>
+        <v>125.783594017354</v>
       </c>
       <c r="H126" t="n">
-        <v>68792.5</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +5134,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67300</v>
+        <v>68900</v>
       </c>
       <c r="C127" t="n">
-        <v>67300</v>
+        <v>69150</v>
       </c>
       <c r="D127" t="n">
-        <v>67300</v>
+        <v>69150</v>
       </c>
       <c r="E127" t="n">
-        <v>67300</v>
+        <v>68900</v>
       </c>
       <c r="F127" t="n">
-        <v>12.4</v>
+        <v>2.8737</v>
       </c>
       <c r="G127" t="n">
-        <v>68016.66666666667</v>
+        <v>128.657294017354</v>
       </c>
       <c r="H127" t="n">
-        <v>68745</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +5173,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67000</v>
+        <v>69250</v>
       </c>
       <c r="C128" t="n">
-        <v>67000</v>
+        <v>69250</v>
       </c>
       <c r="D128" t="n">
-        <v>67000</v>
+        <v>69250</v>
       </c>
       <c r="E128" t="n">
-        <v>67000</v>
+        <v>69250</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4654</v>
+        <v>1.287</v>
       </c>
       <c r="G128" t="n">
-        <v>67936.66666666667</v>
+        <v>129.944294017354</v>
       </c>
       <c r="H128" t="n">
-        <v>68701.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +5212,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67450</v>
+        <v>68950</v>
       </c>
       <c r="C129" t="n">
-        <v>67450</v>
+        <v>68650</v>
       </c>
       <c r="D129" t="n">
-        <v>67450</v>
+        <v>68950</v>
       </c>
       <c r="E129" t="n">
-        <v>67450</v>
+        <v>68650</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1991</v>
+        <v>4.5279</v>
       </c>
       <c r="G129" t="n">
-        <v>67886.66666666667</v>
+        <v>125.416394017354</v>
       </c>
       <c r="H129" t="n">
-        <v>68665.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +5251,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>67150</v>
+        <v>68750</v>
       </c>
       <c r="C130" t="n">
-        <v>67150</v>
+        <v>69000</v>
       </c>
       <c r="D130" t="n">
-        <v>67150</v>
+        <v>69000</v>
       </c>
       <c r="E130" t="n">
-        <v>67150</v>
+        <v>68700</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6596</v>
+        <v>31.013753623188</v>
       </c>
       <c r="G130" t="n">
-        <v>67800</v>
+        <v>156.430147640542</v>
       </c>
       <c r="H130" t="n">
-        <v>68625</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +5290,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>67300</v>
+        <v>68650</v>
       </c>
       <c r="C131" t="n">
-        <v>67300</v>
+        <v>68600</v>
       </c>
       <c r="D131" t="n">
-        <v>67300</v>
+        <v>68650</v>
       </c>
       <c r="E131" t="n">
-        <v>67300</v>
+        <v>68600</v>
       </c>
       <c r="F131" t="n">
-        <v>5.8399</v>
+        <v>1.4298</v>
       </c>
       <c r="G131" t="n">
-        <v>67716.66666666667</v>
+        <v>155.000347640542</v>
       </c>
       <c r="H131" t="n">
-        <v>68589.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,40 +5329,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67300</v>
+        <v>68200</v>
       </c>
       <c r="C132" t="n">
-        <v>67300</v>
+        <v>68000</v>
       </c>
       <c r="D132" t="n">
-        <v>67300</v>
+        <v>68200</v>
       </c>
       <c r="E132" t="n">
-        <v>67300</v>
+        <v>68000</v>
       </c>
       <c r="F132" t="n">
-        <v>4.309</v>
+        <v>2.59</v>
       </c>
       <c r="G132" t="n">
-        <v>67633.33333333333</v>
+        <v>152.410347640542</v>
       </c>
       <c r="H132" t="n">
-        <v>68554.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L132" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,42 +5368,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>66850</v>
+        <v>68550</v>
       </c>
       <c r="C133" t="n">
-        <v>66850</v>
+        <v>68550</v>
       </c>
       <c r="D133" t="n">
-        <v>66850</v>
+        <v>68550</v>
       </c>
       <c r="E133" t="n">
-        <v>66850</v>
+        <v>68550</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2</v>
+        <v>2.266</v>
       </c>
       <c r="G133" t="n">
-        <v>67546.66666666667</v>
+        <v>154.676347640542</v>
       </c>
       <c r="H133" t="n">
-        <v>68513.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,44 +5407,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>67100</v>
+        <v>68550</v>
       </c>
       <c r="C134" t="n">
-        <v>67000</v>
+        <v>68550</v>
       </c>
       <c r="D134" t="n">
-        <v>67100</v>
+        <v>68550</v>
       </c>
       <c r="E134" t="n">
-        <v>67000</v>
+        <v>68550</v>
       </c>
       <c r="F134" t="n">
-        <v>6.724</v>
+        <v>2.4009</v>
       </c>
       <c r="G134" t="n">
-        <v>67450</v>
+        <v>154.676347640542</v>
       </c>
       <c r="H134" t="n">
-        <v>68475.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>66850</v>
-      </c>
-      <c r="L134" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,44 +5446,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66950</v>
+        <v>68550</v>
       </c>
       <c r="C135" t="n">
-        <v>66950</v>
+        <v>68500</v>
       </c>
       <c r="D135" t="n">
-        <v>66950</v>
+        <v>68550</v>
       </c>
       <c r="E135" t="n">
-        <v>66950</v>
+        <v>68250</v>
       </c>
       <c r="F135" t="n">
-        <v>2.826</v>
+        <v>17.6083</v>
       </c>
       <c r="G135" t="n">
-        <v>67346.66666666667</v>
+        <v>137.068047640542</v>
       </c>
       <c r="H135" t="n">
-        <v>68441.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L135" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5556,44 +5485,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>66800</v>
+        <v>68700</v>
       </c>
       <c r="C136" t="n">
-        <v>66650</v>
+        <v>68700</v>
       </c>
       <c r="D136" t="n">
-        <v>66800</v>
+        <v>68700</v>
       </c>
       <c r="E136" t="n">
-        <v>66400</v>
+        <v>68700</v>
       </c>
       <c r="F136" t="n">
-        <v>5.2892</v>
+        <v>3.439</v>
       </c>
       <c r="G136" t="n">
-        <v>67223.33333333333</v>
+        <v>140.507047640542</v>
       </c>
       <c r="H136" t="n">
-        <v>68402.5</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>66950</v>
-      </c>
-      <c r="L136" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,44 +5524,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>67450</v>
+        <v>68900</v>
       </c>
       <c r="C137" t="n">
-        <v>67750</v>
+        <v>68900</v>
       </c>
       <c r="D137" t="n">
-        <v>67750</v>
+        <v>68900</v>
       </c>
       <c r="E137" t="n">
-        <v>67450</v>
+        <v>68900</v>
       </c>
       <c r="F137" t="n">
-        <v>8.745200000000001</v>
+        <v>0.296995645863</v>
       </c>
       <c r="G137" t="n">
-        <v>67213.33333333333</v>
+        <v>140.804043286405</v>
       </c>
       <c r="H137" t="n">
-        <v>68381.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>66650</v>
-      </c>
-      <c r="L137" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,44 +5563,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>67450</v>
+        <v>68900</v>
       </c>
       <c r="C138" t="n">
-        <v>67450</v>
+        <v>69150</v>
       </c>
       <c r="D138" t="n">
-        <v>67450</v>
+        <v>69150</v>
       </c>
       <c r="E138" t="n">
-        <v>67450</v>
+        <v>68900</v>
       </c>
       <c r="F138" t="n">
-        <v>1.8254</v>
+        <v>0.15</v>
       </c>
       <c r="G138" t="n">
-        <v>67190</v>
+        <v>140.954043286405</v>
       </c>
       <c r="H138" t="n">
-        <v>68352.5</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>67750</v>
-      </c>
-      <c r="L138" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,44 +5602,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>67400</v>
+        <v>68750</v>
       </c>
       <c r="C139" t="n">
-        <v>67400</v>
+        <v>69250</v>
       </c>
       <c r="D139" t="n">
-        <v>67400</v>
+        <v>69250</v>
       </c>
       <c r="E139" t="n">
-        <v>67400</v>
+        <v>68700</v>
       </c>
       <c r="F139" t="n">
-        <v>2.6838</v>
+        <v>14.1975</v>
       </c>
       <c r="G139" t="n">
-        <v>67183.33333333333</v>
+        <v>155.151543286405</v>
       </c>
       <c r="H139" t="n">
-        <v>68325.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>67450</v>
-      </c>
-      <c r="L139" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,44 +5641,1168 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C140" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D140" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E140" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.2963</v>
+      </c>
+      <c r="G140" t="n">
+        <v>154.855243286405</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C141" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D141" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E141" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5.7929</v>
+      </c>
+      <c r="G141" t="n">
+        <v>160.648143286405</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C142" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D142" t="n">
+        <v>68250</v>
+      </c>
+      <c r="E142" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.606</v>
+      </c>
+      <c r="G142" t="n">
+        <v>157.042143286405</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C143" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D143" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>157.042143286405</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C144" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D144" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E144" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.5758</v>
+      </c>
+      <c r="G144" t="n">
+        <v>158.617943286405</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C145" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D145" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E145" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9407</v>
+      </c>
+      <c r="G145" t="n">
+        <v>159.558643286405</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C146" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D146" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E146" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G146" t="n">
+        <v>159.558643286405</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C147" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D147" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E147" t="n">
+        <v>68150</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5.7784</v>
+      </c>
+      <c r="G147" t="n">
+        <v>153.780243286405</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C148" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D148" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E148" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.5195</v>
+      </c>
+      <c r="G148" t="n">
+        <v>155.299743286405</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C149" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D149" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E149" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.6297</v>
+      </c>
+      <c r="G149" t="n">
+        <v>160.929443286405</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C150" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D150" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E150" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.3262</v>
+      </c>
+      <c r="G150" t="n">
+        <v>160.929443286405</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G151" t="n">
+        <v>156.819443286405</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67800</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.7173</v>
+      </c>
+      <c r="G152" t="n">
+        <v>154.102143286405</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C153" t="n">
         <v>67500</v>
       </c>
-      <c r="C140" t="n">
+      <c r="D153" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E153" t="n">
         <v>67500</v>
       </c>
-      <c r="D140" t="n">
+      <c r="F153" t="n">
+        <v>7.0913</v>
+      </c>
+      <c r="G153" t="n">
+        <v>147.010843286405</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>146.810843286405</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>66850</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13.7392</v>
+      </c>
+      <c r="G155" t="n">
+        <v>133.071643286405</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C156" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E156" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>145.471643286405</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C157" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.4654</v>
+      </c>
+      <c r="G157" t="n">
+        <v>145.006243286405</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C158" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D158" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E158" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="G158" t="n">
+        <v>145.205343286405</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D159" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E159" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.6596</v>
+      </c>
+      <c r="G159" t="n">
+        <v>144.545743286405</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C160" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D160" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E160" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5.8399</v>
+      </c>
+      <c r="G160" t="n">
+        <v>150.385643286405</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C161" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D161" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E161" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="G161" t="n">
+        <v>150.385643286405</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>66850</v>
+      </c>
+      <c r="C162" t="n">
+        <v>66850</v>
+      </c>
+      <c r="D162" t="n">
+        <v>66850</v>
+      </c>
+      <c r="E162" t="n">
+        <v>66850</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>150.185643286405</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>67100</v>
+      </c>
+      <c r="C163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="G163" t="n">
+        <v>156.909643286405</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="G164" t="n">
+        <v>154.083643286405</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C165" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D165" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E165" t="n">
+        <v>66400</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5.2892</v>
+      </c>
+      <c r="G165" t="n">
+        <v>148.794443286405</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C166" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D166" t="n">
+        <v>67750</v>
+      </c>
+      <c r="E166" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8.745200000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>157.539643286405</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C167" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D167" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E167" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.8254</v>
+      </c>
+      <c r="G167" t="n">
+        <v>155.714243286405</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C168" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D168" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E168" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.6838</v>
+      </c>
+      <c r="G168" t="n">
+        <v>153.030443286405</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>67500</v>
       </c>
-      <c r="E140" t="n">
+      <c r="C169" t="n">
         <v>67500</v>
       </c>
-      <c r="F140" t="n">
+      <c r="D169" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E169" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F169" t="n">
         <v>4.06</v>
       </c>
-      <c r="G140" t="n">
-        <v>67193.33333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>68302.5</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>67400</v>
-      </c>
-      <c r="L140" t="n">
-        <v>67300</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="G169" t="n">
+        <v>157.090443286405</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72900</v>
+        <v>69100</v>
       </c>
       <c r="C2" t="n">
-        <v>72900</v>
+        <v>69100</v>
       </c>
       <c r="D2" t="n">
-        <v>72900</v>
+        <v>69100</v>
       </c>
       <c r="E2" t="n">
-        <v>72900</v>
+        <v>69100</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>6.2548</v>
       </c>
       <c r="G2" t="n">
-        <v>72980</v>
+        <v>-36.14223538120001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>72700</v>
+        <v>68500</v>
       </c>
       <c r="C3" t="n">
-        <v>72700</v>
+        <v>68500</v>
       </c>
       <c r="D3" t="n">
-        <v>72700</v>
+        <v>68500</v>
       </c>
       <c r="E3" t="n">
-        <v>72700</v>
+        <v>68500</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1.1192</v>
       </c>
       <c r="G3" t="n">
-        <v>72900</v>
+        <v>-37.26143538120001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>72250</v>
+        <v>68450</v>
       </c>
       <c r="C4" t="n">
-        <v>72200</v>
+        <v>68400</v>
       </c>
       <c r="D4" t="n">
-        <v>72800</v>
+        <v>68450</v>
       </c>
       <c r="E4" t="n">
-        <v>72200</v>
+        <v>68400</v>
       </c>
       <c r="F4" t="n">
-        <v>5.705021978021</v>
+        <v>20.9965</v>
       </c>
       <c r="G4" t="n">
-        <v>72720</v>
+        <v>-58.25793538120001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,31 +546,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72000</v>
+        <v>68450</v>
       </c>
       <c r="C5" t="n">
-        <v>72000</v>
+        <v>68450</v>
       </c>
       <c r="D5" t="n">
-        <v>72000</v>
+        <v>68450</v>
       </c>
       <c r="E5" t="n">
-        <v>72000</v>
+        <v>68450</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3.1172</v>
       </c>
       <c r="G5" t="n">
-        <v>72540</v>
+        <v>-55.14073538120002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>68400</v>
+      </c>
+      <c r="K5" t="n">
+        <v>68400</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -582,32 +586,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="C6" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="D6" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="E6" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2539</v>
+        <v>8.707800000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>72300</v>
+        <v>-46.43293538120002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>68450</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68400</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +630,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="C7" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="D7" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="E7" t="n">
-        <v>71700</v>
+        <v>69000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0461</v>
+        <v>1.2922</v>
       </c>
       <c r="G7" t="n">
-        <v>72060</v>
+        <v>-46.43293538120002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>69000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68400</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,31 +674,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70950</v>
+        <v>68150</v>
       </c>
       <c r="C8" t="n">
-        <v>69450</v>
+        <v>68150</v>
       </c>
       <c r="D8" t="n">
-        <v>70950</v>
+        <v>68150</v>
       </c>
       <c r="E8" t="n">
-        <v>69450</v>
+        <v>68150</v>
       </c>
       <c r="F8" t="n">
-        <v>7.6275</v>
+        <v>17.89</v>
       </c>
       <c r="G8" t="n">
-        <v>71410</v>
+        <v>-64.32293538120001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>69000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69000</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -690,32 +714,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69900</v>
+        <v>68500</v>
       </c>
       <c r="C9" t="n">
-        <v>68800</v>
+        <v>68550</v>
       </c>
       <c r="D9" t="n">
-        <v>69900</v>
+        <v>68550</v>
       </c>
       <c r="E9" t="n">
-        <v>68800</v>
+        <v>68500</v>
       </c>
       <c r="F9" t="n">
-        <v>141</v>
+        <v>58.363158278628</v>
       </c>
       <c r="G9" t="n">
-        <v>70730</v>
+        <v>-5.959777102572012</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>68150</v>
+      </c>
+      <c r="K9" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +758,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>70950</v>
+        <v>68750</v>
       </c>
       <c r="C10" t="n">
-        <v>71050</v>
+        <v>68750</v>
       </c>
       <c r="D10" t="n">
-        <v>71050</v>
+        <v>68750</v>
       </c>
       <c r="E10" t="n">
-        <v>70950</v>
+        <v>68750</v>
       </c>
       <c r="F10" t="n">
-        <v>72.983601337086</v>
+        <v>0.8774</v>
       </c>
       <c r="G10" t="n">
-        <v>70540</v>
+        <v>-5.082377102572012</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>68550</v>
+      </c>
+      <c r="K10" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +802,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70900</v>
+        <v>68050</v>
       </c>
       <c r="C11" t="n">
-        <v>70900</v>
+        <v>68050</v>
       </c>
       <c r="D11" t="n">
-        <v>70900</v>
+        <v>68050</v>
       </c>
       <c r="E11" t="n">
-        <v>70900</v>
+        <v>68050</v>
       </c>
       <c r="F11" t="n">
-        <v>5.5856</v>
+        <v>0.015</v>
       </c>
       <c r="G11" t="n">
-        <v>70380</v>
+        <v>-5.097377102572012</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>68750</v>
+      </c>
+      <c r="K11" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +846,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>70700</v>
+        <v>68100</v>
       </c>
       <c r="C12" t="n">
-        <v>70700</v>
+        <v>68100</v>
       </c>
       <c r="D12" t="n">
-        <v>70700</v>
+        <v>68100</v>
       </c>
       <c r="E12" t="n">
-        <v>70700</v>
+        <v>68100</v>
       </c>
       <c r="F12" t="n">
-        <v>0.68</v>
+        <v>19.5564</v>
       </c>
       <c r="G12" t="n">
-        <v>70180</v>
+        <v>14.45902289742799</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +870,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +888,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70500</v>
+        <v>68100</v>
       </c>
       <c r="C13" t="n">
-        <v>70500</v>
+        <v>68100</v>
       </c>
       <c r="D13" t="n">
-        <v>70500</v>
+        <v>68100</v>
       </c>
       <c r="E13" t="n">
-        <v>70500</v>
+        <v>68100</v>
       </c>
       <c r="F13" t="n">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G13" t="n">
-        <v>70390</v>
+        <v>14.45902289742799</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +912,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70100</v>
+        <v>68100</v>
       </c>
       <c r="C14" t="n">
-        <v>70100</v>
+        <v>68100</v>
       </c>
       <c r="D14" t="n">
-        <v>70100</v>
+        <v>68100</v>
       </c>
       <c r="E14" t="n">
-        <v>70100</v>
+        <v>68100</v>
       </c>
       <c r="F14" t="n">
-        <v>1.06</v>
+        <v>0.2807</v>
       </c>
       <c r="G14" t="n">
-        <v>70650</v>
+        <v>14.45902289742799</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +954,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>70050</v>
+        <v>69100</v>
       </c>
       <c r="C15" t="n">
-        <v>70050</v>
+        <v>69200</v>
       </c>
       <c r="D15" t="n">
-        <v>70050</v>
+        <v>69200</v>
       </c>
       <c r="E15" t="n">
-        <v>70050</v>
+        <v>69100</v>
       </c>
       <c r="F15" t="n">
-        <v>5.4353</v>
+        <v>0.68</v>
       </c>
       <c r="G15" t="n">
-        <v>70450</v>
+        <v>15.13902289742799</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +996,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1014,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>70000</v>
+        <v>69200</v>
       </c>
       <c r="C16" t="n">
-        <v>70000</v>
+        <v>69450</v>
       </c>
       <c r="D16" t="n">
-        <v>70000</v>
+        <v>69450</v>
       </c>
       <c r="E16" t="n">
-        <v>70000</v>
+        <v>69200</v>
       </c>
       <c r="F16" t="n">
-        <v>13.3665</v>
+        <v>1.958</v>
       </c>
       <c r="G16" t="n">
-        <v>70270</v>
+        <v>17.09702289742799</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1038,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1056,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>70300</v>
+        <v>69500</v>
       </c>
       <c r="C17" t="n">
-        <v>69700</v>
+        <v>69750</v>
       </c>
       <c r="D17" t="n">
-        <v>70300</v>
+        <v>69750</v>
       </c>
       <c r="E17" t="n">
-        <v>69700</v>
+        <v>69500</v>
       </c>
       <c r="F17" t="n">
-        <v>8.1456</v>
+        <v>0.971</v>
       </c>
       <c r="G17" t="n">
-        <v>70070</v>
+        <v>18.06802289742799</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1098,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69650</v>
+        <v>69800</v>
       </c>
       <c r="C18" t="n">
-        <v>68750</v>
+        <v>69900</v>
       </c>
       <c r="D18" t="n">
-        <v>69650</v>
+        <v>69900</v>
       </c>
       <c r="E18" t="n">
-        <v>68750</v>
+        <v>69800</v>
       </c>
       <c r="F18" t="n">
-        <v>2.408</v>
+        <v>1.267</v>
       </c>
       <c r="G18" t="n">
-        <v>69720</v>
+        <v>19.33502289742799</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1122,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1140,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C19" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F19" t="n">
+        <v>48.6819</v>
+      </c>
+      <c r="G19" t="n">
+        <v>68.01692289742799</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
         <v>69000</v>
       </c>
-      <c r="C19" t="n">
-        <v>69000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>69000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>69000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>72.80119999999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>69500</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1182,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69600</v>
+        <v>69250</v>
       </c>
       <c r="C20" t="n">
-        <v>69550</v>
+        <v>69250</v>
       </c>
       <c r="D20" t="n">
-        <v>69600</v>
+        <v>69250</v>
       </c>
       <c r="E20" t="n">
-        <v>69550</v>
+        <v>69250</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.5972</v>
       </c>
       <c r="G20" t="n">
-        <v>69400</v>
+        <v>65.41972289742799</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1206,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1224,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69550</v>
+        <v>69250</v>
       </c>
       <c r="C21" t="n">
-        <v>69550</v>
+        <v>70100</v>
       </c>
       <c r="D21" t="n">
-        <v>69550</v>
+        <v>70100</v>
       </c>
       <c r="E21" t="n">
-        <v>69550</v>
+        <v>69250</v>
       </c>
       <c r="F21" t="n">
-        <v>5.7749</v>
+        <v>6.3271</v>
       </c>
       <c r="G21" t="n">
-        <v>69310</v>
+        <v>71.74682289742799</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1248,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1266,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69800</v>
+        <v>70100</v>
       </c>
       <c r="C22" t="n">
-        <v>69800</v>
+        <v>70450</v>
       </c>
       <c r="D22" t="n">
-        <v>69800</v>
+        <v>70450</v>
       </c>
       <c r="E22" t="n">
-        <v>69800</v>
+        <v>70100</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>4.1964</v>
       </c>
       <c r="G22" t="n">
-        <v>69330</v>
+        <v>75.94322289742799</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1290,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1308,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>68900</v>
+        <v>70450</v>
       </c>
       <c r="C23" t="n">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="D23" t="n">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="E23" t="n">
-        <v>68900</v>
+        <v>70450</v>
       </c>
       <c r="F23" t="n">
-        <v>0.866</v>
+        <v>30.5094</v>
       </c>
       <c r="G23" t="n">
-        <v>69360</v>
+        <v>106.452622897428</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1332,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,34 +1350,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69400</v>
+        <v>71400</v>
       </c>
       <c r="C24" t="n">
-        <v>69400</v>
+        <v>70950</v>
       </c>
       <c r="D24" t="n">
-        <v>69400</v>
+        <v>72400</v>
       </c>
       <c r="E24" t="n">
-        <v>69400</v>
+        <v>70950</v>
       </c>
       <c r="F24" t="n">
-        <v>1.66</v>
+        <v>37.0564</v>
       </c>
       <c r="G24" t="n">
-        <v>69440</v>
+        <v>69.39622289742799</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>69000</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>1.023260869565217</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1266,28 +1392,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>69100</v>
+        <v>70950</v>
       </c>
       <c r="C25" t="n">
-        <v>68500</v>
+        <v>70950</v>
       </c>
       <c r="D25" t="n">
-        <v>69100</v>
+        <v>70950</v>
       </c>
       <c r="E25" t="n">
-        <v>68500</v>
+        <v>70950</v>
       </c>
       <c r="F25" t="n">
-        <v>10.305890014471</v>
+        <v>2.6688</v>
       </c>
       <c r="G25" t="n">
-        <v>69230</v>
+        <v>69.39622289742799</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1428,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68350</v>
+        <v>69900</v>
       </c>
       <c r="C26" t="n">
-        <v>68350</v>
+        <v>70650</v>
       </c>
       <c r="D26" t="n">
-        <v>68350</v>
+        <v>70650</v>
       </c>
       <c r="E26" t="n">
-        <v>68350</v>
+        <v>69800</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>59.4184</v>
       </c>
       <c r="G26" t="n">
-        <v>68990</v>
+        <v>9.977822897427991</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1464,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68400</v>
+        <v>70650</v>
       </c>
       <c r="C27" t="n">
-        <v>68400</v>
+        <v>70650</v>
       </c>
       <c r="D27" t="n">
-        <v>68400</v>
+        <v>70650</v>
       </c>
       <c r="E27" t="n">
-        <v>68400</v>
+        <v>70650</v>
       </c>
       <c r="F27" t="n">
-        <v>2.827</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>68710</v>
+        <v>9.977822897427991</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1500,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68850</v>
+        <v>70000</v>
       </c>
       <c r="C28" t="n">
-        <v>68200</v>
+        <v>70000</v>
       </c>
       <c r="D28" t="n">
-        <v>68850</v>
+        <v>70000</v>
       </c>
       <c r="E28" t="n">
-        <v>68200</v>
+        <v>70000</v>
       </c>
       <c r="F28" t="n">
-        <v>2.5657</v>
+        <v>2.8196</v>
       </c>
       <c r="G28" t="n">
-        <v>68570</v>
+        <v>7.158222897427992</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1536,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68750</v>
+        <v>70350</v>
       </c>
       <c r="C29" t="n">
-        <v>68750</v>
+        <v>70400</v>
       </c>
       <c r="D29" t="n">
-        <v>68750</v>
+        <v>70400</v>
       </c>
       <c r="E29" t="n">
-        <v>68750</v>
+        <v>70350</v>
       </c>
       <c r="F29" t="n">
-        <v>3.507</v>
+        <v>11.7236</v>
       </c>
       <c r="G29" t="n">
-        <v>68440</v>
+        <v>18.88182289742799</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,35 +1572,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68950</v>
+        <v>70500</v>
       </c>
       <c r="C30" t="n">
-        <v>68950</v>
+        <v>70500</v>
       </c>
       <c r="D30" t="n">
-        <v>68950</v>
+        <v>70500</v>
       </c>
       <c r="E30" t="n">
-        <v>68950</v>
+        <v>70500</v>
       </c>
       <c r="F30" t="n">
-        <v>2.2466</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>68530</v>
+        <v>18.98182289742799</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>68750</v>
-      </c>
-      <c r="K30" t="n">
-        <v>68750</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1486,22 +1608,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69000</v>
+        <v>70400</v>
       </c>
       <c r="C31" t="n">
-        <v>69000</v>
+        <v>70400</v>
       </c>
       <c r="D31" t="n">
-        <v>69000</v>
+        <v>70400</v>
       </c>
       <c r="E31" t="n">
-        <v>69000</v>
+        <v>70400</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0219</v>
+        <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>68660</v>
+        <v>18.88182289742799</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1510,14 +1632,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1528,22 +1644,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69400</v>
+        <v>70900</v>
       </c>
       <c r="C32" t="n">
-        <v>69400</v>
+        <v>70900</v>
       </c>
       <c r="D32" t="n">
-        <v>69400</v>
+        <v>70900</v>
       </c>
       <c r="E32" t="n">
-        <v>69350</v>
+        <v>70900</v>
       </c>
       <c r="F32" t="n">
-        <v>33.3322</v>
+        <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>68860</v>
+        <v>18.98182289742799</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1552,14 +1668,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1570,40 +1680,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69350</v>
+        <v>70900</v>
       </c>
       <c r="C33" t="n">
-        <v>69400</v>
+        <v>70900</v>
       </c>
       <c r="D33" t="n">
-        <v>69400</v>
+        <v>70900</v>
       </c>
       <c r="E33" t="n">
-        <v>69350</v>
+        <v>70900</v>
       </c>
       <c r="F33" t="n">
-        <v>48.3437</v>
+        <v>0.1265</v>
       </c>
       <c r="G33" t="n">
-        <v>69100</v>
+        <v>18.98182289742799</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>69400</v>
-      </c>
-      <c r="K33" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1614,38 +1716,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69500</v>
+        <v>70450</v>
       </c>
       <c r="C34" t="n">
-        <v>69400</v>
+        <v>70450</v>
       </c>
       <c r="D34" t="n">
-        <v>69500</v>
+        <v>70450</v>
       </c>
       <c r="E34" t="n">
-        <v>69400</v>
+        <v>70450</v>
       </c>
       <c r="F34" t="n">
-        <v>0.63</v>
+        <v>0.2497</v>
       </c>
       <c r="G34" t="n">
-        <v>69230</v>
+        <v>18.73212289742799</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1656,40 +1752,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69450</v>
+        <v>70650</v>
       </c>
       <c r="C35" t="n">
-        <v>69450</v>
+        <v>70650</v>
       </c>
       <c r="D35" t="n">
-        <v>69500</v>
+        <v>70650</v>
       </c>
       <c r="E35" t="n">
-        <v>69450</v>
+        <v>70650</v>
       </c>
       <c r="F35" t="n">
-        <v>1.3169</v>
+        <v>3.069</v>
       </c>
       <c r="G35" t="n">
-        <v>69330</v>
+        <v>21.80112289742799</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>69400</v>
-      </c>
-      <c r="K35" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1700,22 +1788,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69600</v>
+        <v>70650</v>
       </c>
       <c r="C36" t="n">
-        <v>70000</v>
+        <v>70950</v>
       </c>
       <c r="D36" t="n">
-        <v>70000</v>
+        <v>70950</v>
       </c>
       <c r="E36" t="n">
-        <v>69600</v>
+        <v>70600</v>
       </c>
       <c r="F36" t="n">
-        <v>0.45</v>
+        <v>9.073600000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>69530</v>
+        <v>30.87472289742799</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1724,14 +1812,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1742,40 +1824,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>70000</v>
+        <v>71000</v>
       </c>
       <c r="C37" t="n">
-        <v>70000</v>
+        <v>71600</v>
       </c>
       <c r="D37" t="n">
-        <v>70000</v>
+        <v>71600</v>
       </c>
       <c r="E37" t="n">
-        <v>70000</v>
+        <v>71000</v>
       </c>
       <c r="F37" t="n">
-        <v>3.0837</v>
+        <v>0.4949</v>
       </c>
       <c r="G37" t="n">
-        <v>69650</v>
+        <v>31.36962289742799</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>70000</v>
-      </c>
-      <c r="K37" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1786,38 +1860,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>70100</v>
+        <v>71700</v>
       </c>
       <c r="C38" t="n">
-        <v>70100</v>
+        <v>71650</v>
       </c>
       <c r="D38" t="n">
-        <v>70100</v>
+        <v>71700</v>
       </c>
       <c r="E38" t="n">
-        <v>70100</v>
+        <v>71650</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8514</v>
+        <v>2.6973</v>
       </c>
       <c r="G38" t="n">
-        <v>69790</v>
+        <v>34.06692289742799</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1828,38 +1896,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>70300</v>
+        <v>71650</v>
       </c>
       <c r="C39" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="D39" t="n">
-        <v>70300</v>
+        <v>71650</v>
       </c>
       <c r="E39" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0468</v>
+        <v>11.6233</v>
       </c>
       <c r="G39" t="n">
-        <v>69970</v>
+        <v>22.44362289742799</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1870,38 +1932,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="C40" t="n">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="D40" t="n">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="E40" t="n">
-        <v>70300</v>
+        <v>70900</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4372</v>
+        <v>5.7901</v>
       </c>
       <c r="G40" t="n">
-        <v>70140</v>
+        <v>28.23372289742799</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1912,38 +1968,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="C41" t="n">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="D41" t="n">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="E41" t="n">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="F41" t="n">
-        <v>16.8926</v>
+        <v>0.8</v>
       </c>
       <c r="G41" t="n">
-        <v>70200</v>
+        <v>28.23372289742799</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1954,38 +2004,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>70300</v>
+        <v>71700</v>
       </c>
       <c r="C42" t="n">
-        <v>70300</v>
+        <v>71700</v>
       </c>
       <c r="D42" t="n">
-        <v>70300</v>
+        <v>71700</v>
       </c>
       <c r="E42" t="n">
-        <v>70300</v>
+        <v>71700</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>70260</v>
+        <v>28.32022289742799</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1996,38 +2040,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>70750</v>
+        <v>71700</v>
       </c>
       <c r="C43" t="n">
-        <v>70800</v>
+        <v>72200</v>
       </c>
       <c r="D43" t="n">
-        <v>70800</v>
+        <v>72200</v>
       </c>
       <c r="E43" t="n">
-        <v>70750</v>
+        <v>71700</v>
       </c>
       <c r="F43" t="n">
-        <v>152.2271</v>
+        <v>0.615312465373</v>
       </c>
       <c r="G43" t="n">
-        <v>70400</v>
+        <v>28.93553536280099</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2038,38 +2076,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>70950</v>
+        <v>72200</v>
       </c>
       <c r="C44" t="n">
-        <v>70950</v>
+        <v>72400</v>
       </c>
       <c r="D44" t="n">
-        <v>70950</v>
+        <v>72400</v>
       </c>
       <c r="E44" t="n">
-        <v>70950</v>
+        <v>72200</v>
       </c>
       <c r="F44" t="n">
-        <v>7.327</v>
+        <v>1.0223</v>
       </c>
       <c r="G44" t="n">
-        <v>70530</v>
+        <v>29.95783536280099</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2080,38 +2112,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>70950</v>
+        <v>72400</v>
       </c>
       <c r="C45" t="n">
-        <v>70950</v>
+        <v>72950</v>
       </c>
       <c r="D45" t="n">
-        <v>70950</v>
+        <v>72950</v>
       </c>
       <c r="E45" t="n">
-        <v>70950</v>
+        <v>72400</v>
       </c>
       <c r="F45" t="n">
-        <v>4.4394</v>
+        <v>0.3736</v>
       </c>
       <c r="G45" t="n">
-        <v>70660</v>
+        <v>30.33143536280099</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2122,38 +2148,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>71000</v>
+        <v>71550</v>
       </c>
       <c r="C46" t="n">
-        <v>71000</v>
+        <v>71250</v>
       </c>
       <c r="D46" t="n">
-        <v>71000</v>
+        <v>71550</v>
       </c>
       <c r="E46" t="n">
-        <v>71000</v>
+        <v>71250</v>
       </c>
       <c r="F46" t="n">
-        <v>2.1127</v>
+        <v>164.4333</v>
       </c>
       <c r="G46" t="n">
-        <v>70800</v>
+        <v>-134.101864637199</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2164,22 +2184,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>70550</v>
+        <v>72850</v>
       </c>
       <c r="C47" t="n">
-        <v>70500</v>
+        <v>73100</v>
       </c>
       <c r="D47" t="n">
-        <v>70550</v>
+        <v>73100</v>
       </c>
       <c r="E47" t="n">
-        <v>70500</v>
+        <v>72850</v>
       </c>
       <c r="F47" t="n">
-        <v>5.6458</v>
+        <v>0.4077</v>
       </c>
       <c r="G47" t="n">
-        <v>70840</v>
+        <v>-133.694164637199</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2188,16 +2208,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1.020454545454546</v>
+        <v>1</v>
       </c>
       <c r="N47" t="inlineStr"/>
     </row>
@@ -2206,22 +2220,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>70300</v>
+        <v>73100</v>
       </c>
       <c r="C48" t="n">
-        <v>70300</v>
+        <v>73450</v>
       </c>
       <c r="D48" t="n">
-        <v>70300</v>
+        <v>73450</v>
       </c>
       <c r="E48" t="n">
-        <v>70300</v>
+        <v>73100</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1</v>
+        <v>3.347887534627</v>
       </c>
       <c r="G48" t="n">
-        <v>70740</v>
+        <v>-130.346277102572</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2242,22 +2256,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>70450</v>
+        <v>73650</v>
       </c>
       <c r="C49" t="n">
-        <v>70850</v>
+        <v>75250</v>
       </c>
       <c r="D49" t="n">
-        <v>70850</v>
+        <v>75250</v>
       </c>
       <c r="E49" t="n">
-        <v>70450</v>
+        <v>73650</v>
       </c>
       <c r="F49" t="n">
-        <v>5.312</v>
+        <v>169.0345</v>
       </c>
       <c r="G49" t="n">
-        <v>70720</v>
+        <v>38.68822289742801</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2278,22 +2292,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>70850</v>
+        <v>75250</v>
       </c>
       <c r="C50" t="n">
-        <v>70850</v>
+        <v>75250</v>
       </c>
       <c r="D50" t="n">
-        <v>70850</v>
+        <v>75250</v>
       </c>
       <c r="E50" t="n">
-        <v>70850</v>
+        <v>75250</v>
       </c>
       <c r="F50" t="n">
-        <v>1.4814</v>
+        <v>0.2</v>
       </c>
       <c r="G50" t="n">
-        <v>70700</v>
+        <v>38.68822289742801</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2314,22 +2328,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>70850</v>
+        <v>74950</v>
       </c>
       <c r="C51" t="n">
-        <v>70850</v>
+        <v>74100</v>
       </c>
       <c r="D51" t="n">
-        <v>70850</v>
+        <v>75000</v>
       </c>
       <c r="E51" t="n">
-        <v>70850</v>
+        <v>74000</v>
       </c>
       <c r="F51" t="n">
-        <v>1.9647</v>
+        <v>14.0037</v>
       </c>
       <c r="G51" t="n">
-        <v>70670</v>
+        <v>24.684522897428</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2350,22 +2364,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>70500</v>
+        <v>74100</v>
       </c>
       <c r="C52" t="n">
-        <v>70500</v>
+        <v>73900</v>
       </c>
       <c r="D52" t="n">
-        <v>70500</v>
+        <v>74100</v>
       </c>
       <c r="E52" t="n">
-        <v>70500</v>
+        <v>73850</v>
       </c>
       <c r="F52" t="n">
-        <v>1.929</v>
+        <v>7.6317</v>
       </c>
       <c r="G52" t="n">
-        <v>70670</v>
+        <v>17.052822897428</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2386,28 +2400,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>70300</v>
+        <v>73500</v>
       </c>
       <c r="C53" t="n">
-        <v>70300</v>
+        <v>73000</v>
       </c>
       <c r="D53" t="n">
-        <v>70300</v>
+        <v>73500</v>
       </c>
       <c r="E53" t="n">
-        <v>70300</v>
+        <v>73000</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9852</v>
+        <v>13.5414</v>
       </c>
       <c r="G53" t="n">
-        <v>70670</v>
+        <v>3.511422897428002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2422,28 +2436,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>70150</v>
+        <v>73700</v>
       </c>
       <c r="C54" t="n">
-        <v>70150</v>
+        <v>73750</v>
       </c>
       <c r="D54" t="n">
-        <v>70150</v>
+        <v>73750</v>
       </c>
       <c r="E54" t="n">
-        <v>70150</v>
+        <v>73700</v>
       </c>
       <c r="F54" t="n">
-        <v>3.6374</v>
+        <v>8.536099999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>70530</v>
+        <v>12.047522897428</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2458,22 +2472,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69950</v>
+        <v>73750</v>
       </c>
       <c r="C55" t="n">
-        <v>69600</v>
+        <v>75000</v>
       </c>
       <c r="D55" t="n">
-        <v>69950</v>
+        <v>75000</v>
       </c>
       <c r="E55" t="n">
-        <v>69600</v>
+        <v>73750</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7138</v>
+        <v>6.2467</v>
       </c>
       <c r="G55" t="n">
-        <v>70280</v>
+        <v>18.294222897428</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2494,22 +2508,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69850</v>
+        <v>73500</v>
       </c>
       <c r="C56" t="n">
-        <v>69600</v>
+        <v>73450</v>
       </c>
       <c r="D56" t="n">
-        <v>69850</v>
+        <v>74950</v>
       </c>
       <c r="E56" t="n">
-        <v>69600</v>
+        <v>73450</v>
       </c>
       <c r="F56" t="n">
-        <v>1.1402</v>
+        <v>11.690211674449</v>
       </c>
       <c r="G56" t="n">
-        <v>70030</v>
+        <v>6.604011222979</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2530,28 +2544,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69600</v>
+        <v>73450</v>
       </c>
       <c r="C57" t="n">
-        <v>69600</v>
+        <v>72800</v>
       </c>
       <c r="D57" t="n">
-        <v>69600</v>
+        <v>73450</v>
       </c>
       <c r="E57" t="n">
-        <v>69600</v>
+        <v>72800</v>
       </c>
       <c r="F57" t="n">
-        <v>1.06</v>
+        <v>2.5396</v>
       </c>
       <c r="G57" t="n">
-        <v>69850</v>
+        <v>4.064411222979</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2566,22 +2580,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>69450</v>
+        <v>73800</v>
       </c>
       <c r="C58" t="n">
-        <v>69450</v>
+        <v>73700</v>
       </c>
       <c r="D58" t="n">
-        <v>69450</v>
+        <v>73800</v>
       </c>
       <c r="E58" t="n">
-        <v>69450</v>
+        <v>73700</v>
       </c>
       <c r="F58" t="n">
-        <v>2.807</v>
+        <v>6.704</v>
       </c>
       <c r="G58" t="n">
-        <v>69680</v>
+        <v>10.768411222979</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2602,22 +2616,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>69400</v>
+        <v>73750</v>
       </c>
       <c r="C59" t="n">
-        <v>69400</v>
+        <v>73750</v>
       </c>
       <c r="D59" t="n">
-        <v>69400</v>
+        <v>73750</v>
       </c>
       <c r="E59" t="n">
-        <v>69400</v>
+        <v>73750</v>
       </c>
       <c r="F59" t="n">
-        <v>4.846</v>
+        <v>2.5396</v>
       </c>
       <c r="G59" t="n">
-        <v>69530</v>
+        <v>13.308011222979</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2638,22 +2652,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>69500</v>
+        <v>73900</v>
       </c>
       <c r="C60" t="n">
-        <v>69300</v>
+        <v>74050</v>
       </c>
       <c r="D60" t="n">
-        <v>69500</v>
+        <v>74050</v>
       </c>
       <c r="E60" t="n">
-        <v>69300</v>
+        <v>73900</v>
       </c>
       <c r="F60" t="n">
-        <v>4.1635</v>
+        <v>6.5942</v>
       </c>
       <c r="G60" t="n">
-        <v>69470</v>
+        <v>19.902211222979</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2674,28 +2688,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>69250</v>
+        <v>74050</v>
       </c>
       <c r="C61" t="n">
-        <v>69250</v>
+        <v>74100</v>
       </c>
       <c r="D61" t="n">
-        <v>69250</v>
+        <v>74100</v>
       </c>
       <c r="E61" t="n">
-        <v>69250</v>
+        <v>74050</v>
       </c>
       <c r="F61" t="n">
-        <v>1.66</v>
+        <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>69400</v>
+        <v>20.102211222979</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2710,22 +2724,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>69050</v>
+        <v>74100</v>
       </c>
       <c r="C62" t="n">
-        <v>69000</v>
+        <v>74100</v>
       </c>
       <c r="D62" t="n">
-        <v>69050</v>
+        <v>74100</v>
       </c>
       <c r="E62" t="n">
-        <v>69000</v>
+        <v>74100</v>
       </c>
       <c r="F62" t="n">
-        <v>2.144</v>
+        <v>0.2</v>
       </c>
       <c r="G62" t="n">
-        <v>69280</v>
+        <v>20.102211222979</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2746,22 +2760,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69000</v>
+        <v>73700</v>
       </c>
       <c r="C63" t="n">
-        <v>69000</v>
+        <v>73700</v>
       </c>
       <c r="D63" t="n">
-        <v>69000</v>
+        <v>73700</v>
       </c>
       <c r="E63" t="n">
-        <v>69000</v>
+        <v>73700</v>
       </c>
       <c r="F63" t="n">
-        <v>0.961</v>
+        <v>0.2467</v>
       </c>
       <c r="G63" t="n">
-        <v>69190</v>
+        <v>19.855511222979</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2782,22 +2796,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>69000</v>
+        <v>72950</v>
       </c>
       <c r="C64" t="n">
-        <v>69000</v>
+        <v>72400</v>
       </c>
       <c r="D64" t="n">
-        <v>69000</v>
+        <v>72950</v>
       </c>
       <c r="E64" t="n">
-        <v>69000</v>
+        <v>72200</v>
       </c>
       <c r="F64" t="n">
-        <v>4.3877</v>
+        <v>31.0645</v>
       </c>
       <c r="G64" t="n">
-        <v>69110</v>
+        <v>-11.208988777021</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2818,22 +2832,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>69200</v>
+        <v>72200</v>
       </c>
       <c r="C65" t="n">
-        <v>69200</v>
+        <v>72200</v>
       </c>
       <c r="D65" t="n">
-        <v>69200</v>
+        <v>72200</v>
       </c>
       <c r="E65" t="n">
-        <v>69200</v>
+        <v>72200</v>
       </c>
       <c r="F65" t="n">
-        <v>11.4</v>
+        <v>0.8</v>
       </c>
       <c r="G65" t="n">
-        <v>69090</v>
+        <v>-12.008988777021</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2854,22 +2868,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>69000</v>
+        <v>72300</v>
       </c>
       <c r="C66" t="n">
-        <v>69000</v>
+        <v>72300</v>
       </c>
       <c r="D66" t="n">
-        <v>69000</v>
+        <v>72300</v>
       </c>
       <c r="E66" t="n">
-        <v>69000</v>
+        <v>72300</v>
       </c>
       <c r="F66" t="n">
-        <v>2.07</v>
+        <v>6.785</v>
       </c>
       <c r="G66" t="n">
-        <v>69040</v>
+        <v>-5.223988777020999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2890,22 +2904,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68900</v>
+        <v>72350</v>
       </c>
       <c r="C67" t="n">
-        <v>68900</v>
+        <v>72350</v>
       </c>
       <c r="D67" t="n">
-        <v>68900</v>
+        <v>72350</v>
       </c>
       <c r="E67" t="n">
-        <v>68900</v>
+        <v>72350</v>
       </c>
       <c r="F67" t="n">
-        <v>0.35</v>
+        <v>1.1178</v>
       </c>
       <c r="G67" t="n">
-        <v>69020</v>
+        <v>-4.106188777020999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2926,22 +2940,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68550</v>
+        <v>72450</v>
       </c>
       <c r="C68" t="n">
-        <v>68650</v>
+        <v>72950</v>
       </c>
       <c r="D68" t="n">
-        <v>68650</v>
+        <v>72950</v>
       </c>
       <c r="E68" t="n">
-        <v>68550</v>
+        <v>72450</v>
       </c>
       <c r="F68" t="n">
-        <v>2.49</v>
+        <v>6.1758</v>
       </c>
       <c r="G68" t="n">
-        <v>68950</v>
+        <v>2.069611222979001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2962,22 +2976,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68300</v>
+        <v>72950</v>
       </c>
       <c r="C69" t="n">
-        <v>68300</v>
+        <v>73100</v>
       </c>
       <c r="D69" t="n">
-        <v>68300</v>
+        <v>73100</v>
       </c>
       <c r="E69" t="n">
-        <v>68300</v>
+        <v>72950</v>
       </c>
       <c r="F69" t="n">
-        <v>5.1336</v>
+        <v>0.1836</v>
       </c>
       <c r="G69" t="n">
-        <v>68810</v>
+        <v>2.253211222979001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2998,22 +3012,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68200</v>
+        <v>73100</v>
       </c>
       <c r="C70" t="n">
-        <v>68200</v>
+        <v>73100</v>
       </c>
       <c r="D70" t="n">
-        <v>68350</v>
+        <v>73100</v>
       </c>
       <c r="E70" t="n">
-        <v>68200</v>
+        <v>73100</v>
       </c>
       <c r="F70" t="n">
-        <v>3.358</v>
+        <v>0.0563</v>
       </c>
       <c r="G70" t="n">
-        <v>68610</v>
+        <v>2.253211222979001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3034,22 +3048,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68150</v>
+        <v>72900</v>
       </c>
       <c r="C71" t="n">
-        <v>67550</v>
+        <v>72900</v>
       </c>
       <c r="D71" t="n">
-        <v>68150</v>
+        <v>72900</v>
       </c>
       <c r="E71" t="n">
-        <v>67550</v>
+        <v>72900</v>
       </c>
       <c r="F71" t="n">
-        <v>4.2827</v>
+        <v>1.264</v>
       </c>
       <c r="G71" t="n">
-        <v>68320</v>
+        <v>0.9892112229790009</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3070,22 +3084,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68050</v>
+        <v>72900</v>
       </c>
       <c r="C72" t="n">
-        <v>68900</v>
+        <v>72900</v>
       </c>
       <c r="D72" t="n">
-        <v>68900</v>
+        <v>72900</v>
       </c>
       <c r="E72" t="n">
-        <v>68050</v>
+        <v>72900</v>
       </c>
       <c r="F72" t="n">
-        <v>6.3283</v>
+        <v>4.0979</v>
       </c>
       <c r="G72" t="n">
-        <v>68320</v>
+        <v>0.9892112229790009</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3106,22 +3120,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>69150</v>
+        <v>72900</v>
       </c>
       <c r="C73" t="n">
-        <v>69150</v>
+        <v>72900</v>
       </c>
       <c r="D73" t="n">
-        <v>69150</v>
+        <v>72900</v>
       </c>
       <c r="E73" t="n">
-        <v>69150</v>
+        <v>72900</v>
       </c>
       <c r="F73" t="n">
-        <v>2.7861</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>68420</v>
+        <v>0.9892112229790009</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3142,22 +3156,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68300</v>
+        <v>72700</v>
       </c>
       <c r="C74" t="n">
-        <v>68300</v>
+        <v>72700</v>
       </c>
       <c r="D74" t="n">
-        <v>68300</v>
+        <v>72700</v>
       </c>
       <c r="E74" t="n">
-        <v>68300</v>
+        <v>72700</v>
       </c>
       <c r="F74" t="n">
-        <v>1.271</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>68420</v>
+        <v>-0.01078877702099912</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3178,22 +3192,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68700</v>
+        <v>72250</v>
       </c>
       <c r="C75" t="n">
-        <v>68700</v>
+        <v>72200</v>
       </c>
       <c r="D75" t="n">
-        <v>68700</v>
+        <v>72800</v>
       </c>
       <c r="E75" t="n">
-        <v>68700</v>
+        <v>72200</v>
       </c>
       <c r="F75" t="n">
-        <v>1.343493449781</v>
+        <v>5.705021978021</v>
       </c>
       <c r="G75" t="n">
-        <v>68520</v>
+        <v>-5.715810755041999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3214,22 +3228,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>68550</v>
+        <v>72000</v>
       </c>
       <c r="C76" t="n">
-        <v>68550</v>
+        <v>72000</v>
       </c>
       <c r="D76" t="n">
-        <v>68550</v>
+        <v>72000</v>
       </c>
       <c r="E76" t="n">
-        <v>68550</v>
+        <v>72000</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3062</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>68720</v>
+        <v>-6.715810755041999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3250,22 +3264,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>69050</v>
+        <v>71700</v>
       </c>
       <c r="C77" t="n">
-        <v>69050</v>
+        <v>71700</v>
       </c>
       <c r="D77" t="n">
-        <v>69050</v>
+        <v>71700</v>
       </c>
       <c r="E77" t="n">
-        <v>69050</v>
+        <v>71700</v>
       </c>
       <c r="F77" t="n">
-        <v>2.7136</v>
+        <v>0.2539</v>
       </c>
       <c r="G77" t="n">
-        <v>68750</v>
+        <v>-6.969710755041999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3286,22 +3300,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>69500</v>
+        <v>71700</v>
       </c>
       <c r="C78" t="n">
-        <v>69500</v>
+        <v>71700</v>
       </c>
       <c r="D78" t="n">
-        <v>69500</v>
+        <v>71700</v>
       </c>
       <c r="E78" t="n">
-        <v>69500</v>
+        <v>71700</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0.0461</v>
       </c>
       <c r="G78" t="n">
-        <v>68820</v>
+        <v>-6.969710755041999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3322,28 +3336,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69600</v>
+        <v>70950</v>
       </c>
       <c r="C79" t="n">
-        <v>69600</v>
+        <v>69450</v>
       </c>
       <c r="D79" t="n">
-        <v>69600</v>
+        <v>70950</v>
       </c>
       <c r="E79" t="n">
-        <v>69600</v>
+        <v>69450</v>
       </c>
       <c r="F79" t="n">
-        <v>0.324</v>
+        <v>7.6275</v>
       </c>
       <c r="G79" t="n">
-        <v>69080</v>
+        <v>-14.597210755042</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3358,28 +3372,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="C80" t="n">
-        <v>69600</v>
+        <v>68800</v>
       </c>
       <c r="D80" t="n">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="E80" t="n">
-        <v>69600</v>
+        <v>68800</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3944</v>
+        <v>141</v>
       </c>
       <c r="G80" t="n">
-        <v>69260</v>
+        <v>-155.597210755042</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3394,28 +3408,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>69550</v>
+        <v>70950</v>
       </c>
       <c r="C81" t="n">
-        <v>69550</v>
+        <v>71050</v>
       </c>
       <c r="D81" t="n">
-        <v>69550</v>
+        <v>71050</v>
       </c>
       <c r="E81" t="n">
-        <v>69550</v>
+        <v>70950</v>
       </c>
       <c r="F81" t="n">
-        <v>1.994</v>
+        <v>72.983601337086</v>
       </c>
       <c r="G81" t="n">
-        <v>69460</v>
+        <v>-82.613609417956</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3430,28 +3444,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>69550</v>
+        <v>70900</v>
       </c>
       <c r="C82" t="n">
-        <v>69550</v>
+        <v>70900</v>
       </c>
       <c r="D82" t="n">
-        <v>69550</v>
+        <v>70900</v>
       </c>
       <c r="E82" t="n">
-        <v>69550</v>
+        <v>70900</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001</v>
+        <v>5.5856</v>
       </c>
       <c r="G82" t="n">
-        <v>69560</v>
+        <v>-88.199209417956</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3466,28 +3480,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>70100</v>
+        <v>70700</v>
       </c>
       <c r="C83" t="n">
-        <v>70100</v>
+        <v>70700</v>
       </c>
       <c r="D83" t="n">
-        <v>70100</v>
+        <v>70700</v>
       </c>
       <c r="E83" t="n">
-        <v>70100</v>
+        <v>70700</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1414</v>
+        <v>0.68</v>
       </c>
       <c r="G83" t="n">
-        <v>69680</v>
+        <v>-88.87920941795601</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3502,28 +3516,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>69050</v>
+        <v>70500</v>
       </c>
       <c r="C84" t="n">
-        <v>69050</v>
+        <v>70500</v>
       </c>
       <c r="D84" t="n">
-        <v>69050</v>
+        <v>70500</v>
       </c>
       <c r="E84" t="n">
-        <v>69050</v>
+        <v>70500</v>
       </c>
       <c r="F84" t="n">
-        <v>2.5737</v>
+        <v>0.85</v>
       </c>
       <c r="G84" t="n">
-        <v>69570</v>
+        <v>-89.729209417956</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3538,28 +3552,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="C85" t="n">
-        <v>69150</v>
+        <v>70100</v>
       </c>
       <c r="D85" t="n">
-        <v>69150</v>
+        <v>70100</v>
       </c>
       <c r="E85" t="n">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="F85" t="n">
-        <v>2.8737</v>
+        <v>1.06</v>
       </c>
       <c r="G85" t="n">
-        <v>69480</v>
+        <v>-90.789209417956</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3574,28 +3588,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>69250</v>
+        <v>70050</v>
       </c>
       <c r="C86" t="n">
-        <v>69250</v>
+        <v>70050</v>
       </c>
       <c r="D86" t="n">
-        <v>69250</v>
+        <v>70050</v>
       </c>
       <c r="E86" t="n">
-        <v>69250</v>
+        <v>70050</v>
       </c>
       <c r="F86" t="n">
-        <v>1.287</v>
+        <v>5.4353</v>
       </c>
       <c r="G86" t="n">
-        <v>69420</v>
+        <v>-96.224509417956</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3610,28 +3624,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68950</v>
+        <v>70000</v>
       </c>
       <c r="C87" t="n">
-        <v>68650</v>
+        <v>70000</v>
       </c>
       <c r="D87" t="n">
-        <v>68950</v>
+        <v>70000</v>
       </c>
       <c r="E87" t="n">
-        <v>68650</v>
+        <v>70000</v>
       </c>
       <c r="F87" t="n">
-        <v>4.5279</v>
+        <v>13.3665</v>
       </c>
       <c r="G87" t="n">
-        <v>69240</v>
+        <v>-109.591009417956</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3646,28 +3660,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68750</v>
+        <v>70300</v>
       </c>
       <c r="C88" t="n">
-        <v>69000</v>
+        <v>69700</v>
       </c>
       <c r="D88" t="n">
-        <v>69000</v>
+        <v>70300</v>
       </c>
       <c r="E88" t="n">
-        <v>68700</v>
+        <v>69700</v>
       </c>
       <c r="F88" t="n">
-        <v>31.013753623188</v>
+        <v>8.1456</v>
       </c>
       <c r="G88" t="n">
-        <v>69020</v>
+        <v>-117.736609417956</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3682,22 +3696,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>68650</v>
+        <v>69650</v>
       </c>
       <c r="C89" t="n">
-        <v>68600</v>
+        <v>68750</v>
       </c>
       <c r="D89" t="n">
-        <v>68650</v>
+        <v>69650</v>
       </c>
       <c r="E89" t="n">
-        <v>68600</v>
+        <v>68750</v>
       </c>
       <c r="F89" t="n">
-        <v>1.4298</v>
+        <v>2.408</v>
       </c>
       <c r="G89" t="n">
-        <v>68930</v>
+        <v>-120.144609417956</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3718,22 +3732,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>68200</v>
+        <v>69000</v>
       </c>
       <c r="C90" t="n">
-        <v>68000</v>
+        <v>69000</v>
       </c>
       <c r="D90" t="n">
-        <v>68200</v>
+        <v>69000</v>
       </c>
       <c r="E90" t="n">
-        <v>68000</v>
+        <v>69000</v>
       </c>
       <c r="F90" t="n">
-        <v>2.59</v>
+        <v>72.80119999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>68700</v>
+        <v>-47.34340941795601</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3754,22 +3768,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>68550</v>
+        <v>69600</v>
       </c>
       <c r="C91" t="n">
-        <v>68550</v>
+        <v>69550</v>
       </c>
       <c r="D91" t="n">
-        <v>68550</v>
+        <v>69600</v>
       </c>
       <c r="E91" t="n">
-        <v>68550</v>
+        <v>69550</v>
       </c>
       <c r="F91" t="n">
-        <v>2.266</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>68560</v>
+        <v>-45.34340941795601</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3790,22 +3804,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>68550</v>
+        <v>69550</v>
       </c>
       <c r="C92" t="n">
-        <v>68550</v>
+        <v>69550</v>
       </c>
       <c r="D92" t="n">
-        <v>68550</v>
+        <v>69550</v>
       </c>
       <c r="E92" t="n">
-        <v>68550</v>
+        <v>69550</v>
       </c>
       <c r="F92" t="n">
-        <v>2.4009</v>
+        <v>5.7749</v>
       </c>
       <c r="G92" t="n">
-        <v>68540</v>
+        <v>-45.34340941795601</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3826,22 +3840,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>68550</v>
+        <v>69800</v>
       </c>
       <c r="C93" t="n">
-        <v>68500</v>
+        <v>69800</v>
       </c>
       <c r="D93" t="n">
-        <v>68550</v>
+        <v>69800</v>
       </c>
       <c r="E93" t="n">
-        <v>68250</v>
+        <v>69800</v>
       </c>
       <c r="F93" t="n">
-        <v>17.6083</v>
+        <v>0.05</v>
       </c>
       <c r="G93" t="n">
-        <v>68440</v>
+        <v>-45.29340941795601</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3862,22 +3876,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="C94" t="n">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="D94" t="n">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="E94" t="n">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="F94" t="n">
-        <v>3.439</v>
+        <v>0.866</v>
       </c>
       <c r="G94" t="n">
-        <v>68460</v>
+        <v>-46.15940941795601</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3898,22 +3912,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="C95" t="n">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="D95" t="n">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="E95" t="n">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="F95" t="n">
-        <v>0.296995645863</v>
+        <v>1.66</v>
       </c>
       <c r="G95" t="n">
-        <v>68640</v>
+        <v>-44.49940941795602</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3934,22 +3948,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>68900</v>
+        <v>69100</v>
       </c>
       <c r="C96" t="n">
-        <v>69150</v>
+        <v>68500</v>
       </c>
       <c r="D96" t="n">
-        <v>69150</v>
+        <v>69100</v>
       </c>
       <c r="E96" t="n">
-        <v>68900</v>
+        <v>68500</v>
       </c>
       <c r="F96" t="n">
-        <v>0.15</v>
+        <v>10.305890014471</v>
       </c>
       <c r="G96" t="n">
-        <v>68760</v>
+        <v>-54.80529943242702</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3970,22 +3984,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>68750</v>
+        <v>68350</v>
       </c>
       <c r="C97" t="n">
-        <v>69250</v>
+        <v>68350</v>
       </c>
       <c r="D97" t="n">
-        <v>69250</v>
+        <v>68350</v>
       </c>
       <c r="E97" t="n">
-        <v>68700</v>
+        <v>68350</v>
       </c>
       <c r="F97" t="n">
-        <v>14.1975</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>68900</v>
+        <v>-55.80529943242702</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4006,22 +4020,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="C98" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="D98" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="E98" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2963</v>
+        <v>2.827</v>
       </c>
       <c r="G98" t="n">
-        <v>68910</v>
+        <v>-52.97829943242702</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4042,22 +4056,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>69050</v>
+        <v>68850</v>
       </c>
       <c r="C99" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="D99" t="n">
-        <v>69050</v>
+        <v>68850</v>
       </c>
       <c r="E99" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="F99" t="n">
-        <v>5.7929</v>
+        <v>2.5657</v>
       </c>
       <c r="G99" t="n">
-        <v>68980</v>
+        <v>-55.54399943242702</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4078,22 +4092,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68250</v>
+        <v>68750</v>
       </c>
       <c r="C100" t="n">
-        <v>68200</v>
+        <v>68750</v>
       </c>
       <c r="D100" t="n">
-        <v>68250</v>
+        <v>68750</v>
       </c>
       <c r="E100" t="n">
-        <v>68200</v>
+        <v>68750</v>
       </c>
       <c r="F100" t="n">
-        <v>3.606</v>
+        <v>3.507</v>
       </c>
       <c r="G100" t="n">
-        <v>68840</v>
+        <v>-52.03699943242702</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4114,22 +4128,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>68200</v>
+        <v>68950</v>
       </c>
       <c r="C101" t="n">
-        <v>68200</v>
+        <v>68950</v>
       </c>
       <c r="D101" t="n">
-        <v>68200</v>
+        <v>68950</v>
       </c>
       <c r="E101" t="n">
-        <v>68200</v>
+        <v>68950</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1</v>
+        <v>2.2466</v>
       </c>
       <c r="G101" t="n">
-        <v>68650</v>
+        <v>-49.79039943242702</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4150,22 +4164,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68450</v>
+        <v>69000</v>
       </c>
       <c r="C102" t="n">
-        <v>68450</v>
+        <v>69000</v>
       </c>
       <c r="D102" t="n">
-        <v>68450</v>
+        <v>69000</v>
       </c>
       <c r="E102" t="n">
-        <v>68450</v>
+        <v>69000</v>
       </c>
       <c r="F102" t="n">
-        <v>1.5758</v>
+        <v>0.0219</v>
       </c>
       <c r="G102" t="n">
-        <v>68490</v>
+        <v>-49.76849943242702</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4186,22 +4200,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68550</v>
+        <v>69400</v>
       </c>
       <c r="C103" t="n">
-        <v>68550</v>
+        <v>69400</v>
       </c>
       <c r="D103" t="n">
-        <v>68550</v>
+        <v>69400</v>
       </c>
       <c r="E103" t="n">
-        <v>68550</v>
+        <v>69350</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9407</v>
+        <v>33.3322</v>
       </c>
       <c r="G103" t="n">
-        <v>68490</v>
+        <v>-16.43629943242702</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4222,22 +4236,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68550</v>
+        <v>69350</v>
       </c>
       <c r="C104" t="n">
-        <v>68550</v>
+        <v>69400</v>
       </c>
       <c r="D104" t="n">
-        <v>68550</v>
+        <v>69400</v>
       </c>
       <c r="E104" t="n">
-        <v>68550</v>
+        <v>69350</v>
       </c>
       <c r="F104" t="n">
-        <v>0.15</v>
+        <v>48.3437</v>
       </c>
       <c r="G104" t="n">
-        <v>68390</v>
+        <v>-16.43629943242702</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4258,22 +4272,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>68200</v>
+        <v>69500</v>
       </c>
       <c r="C105" t="n">
-        <v>68150</v>
+        <v>69400</v>
       </c>
       <c r="D105" t="n">
-        <v>68200</v>
+        <v>69500</v>
       </c>
       <c r="E105" t="n">
-        <v>68150</v>
+        <v>69400</v>
       </c>
       <c r="F105" t="n">
-        <v>5.7784</v>
+        <v>0.63</v>
       </c>
       <c r="G105" t="n">
-        <v>68380</v>
+        <v>-16.43629943242702</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4294,22 +4308,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68450</v>
+        <v>69450</v>
       </c>
       <c r="C106" t="n">
-        <v>68450</v>
+        <v>69450</v>
       </c>
       <c r="D106" t="n">
-        <v>68450</v>
+        <v>69500</v>
       </c>
       <c r="E106" t="n">
-        <v>68450</v>
+        <v>69450</v>
       </c>
       <c r="F106" t="n">
-        <v>1.5195</v>
+        <v>1.3169</v>
       </c>
       <c r="G106" t="n">
-        <v>68430</v>
+        <v>-15.11939943242702</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4330,22 +4344,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>68450</v>
+        <v>69600</v>
       </c>
       <c r="C107" t="n">
-        <v>68500</v>
+        <v>70000</v>
       </c>
       <c r="D107" t="n">
-        <v>68500</v>
+        <v>70000</v>
       </c>
       <c r="E107" t="n">
-        <v>68450</v>
+        <v>69600</v>
       </c>
       <c r="F107" t="n">
-        <v>5.6297</v>
+        <v>0.45</v>
       </c>
       <c r="G107" t="n">
-        <v>68440</v>
+        <v>-14.66939943242702</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4366,22 +4380,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>68500</v>
+        <v>70000</v>
       </c>
       <c r="C108" t="n">
-        <v>68500</v>
+        <v>70000</v>
       </c>
       <c r="D108" t="n">
-        <v>68500</v>
+        <v>70000</v>
       </c>
       <c r="E108" t="n">
-        <v>68500</v>
+        <v>70000</v>
       </c>
       <c r="F108" t="n">
-        <v>2.3262</v>
+        <v>3.0837</v>
       </c>
       <c r="G108" t="n">
-        <v>68430</v>
+        <v>-14.66939943242702</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4402,22 +4416,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67750</v>
+        <v>70100</v>
       </c>
       <c r="C109" t="n">
-        <v>67900</v>
+        <v>70100</v>
       </c>
       <c r="D109" t="n">
-        <v>67900</v>
+        <v>70100</v>
       </c>
       <c r="E109" t="n">
-        <v>67750</v>
+        <v>70100</v>
       </c>
       <c r="F109" t="n">
-        <v>4.11</v>
+        <v>0.8514</v>
       </c>
       <c r="G109" t="n">
-        <v>68300</v>
+        <v>-13.81799943242702</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4438,22 +4452,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67800</v>
+        <v>70300</v>
       </c>
       <c r="C110" t="n">
-        <v>67800</v>
+        <v>70300</v>
       </c>
       <c r="D110" t="n">
-        <v>67800</v>
+        <v>70300</v>
       </c>
       <c r="E110" t="n">
-        <v>67800</v>
+        <v>70300</v>
       </c>
       <c r="F110" t="n">
-        <v>2.7173</v>
+        <v>0.0468</v>
       </c>
       <c r="G110" t="n">
-        <v>68230</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4474,28 +4488,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67650</v>
+        <v>70300</v>
       </c>
       <c r="C111" t="n">
-        <v>67500</v>
+        <v>70300</v>
       </c>
       <c r="D111" t="n">
-        <v>67650</v>
+        <v>70300</v>
       </c>
       <c r="E111" t="n">
-        <v>67500</v>
+        <v>70300</v>
       </c>
       <c r="F111" t="n">
-        <v>7.0913</v>
+        <v>0.4372</v>
       </c>
       <c r="G111" t="n">
-        <v>68040</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4510,22 +4524,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>67350</v>
+        <v>70300</v>
       </c>
       <c r="C112" t="n">
-        <v>67350</v>
+        <v>70300</v>
       </c>
       <c r="D112" t="n">
-        <v>67350</v>
+        <v>70300</v>
       </c>
       <c r="E112" t="n">
-        <v>67350</v>
+        <v>70300</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2</v>
+        <v>16.8926</v>
       </c>
       <c r="G112" t="n">
-        <v>67810</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4546,22 +4560,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>67000</v>
+        <v>70300</v>
       </c>
       <c r="C113" t="n">
-        <v>66850</v>
+        <v>70300</v>
       </c>
       <c r="D113" t="n">
-        <v>67000</v>
+        <v>70300</v>
       </c>
       <c r="E113" t="n">
-        <v>66800</v>
+        <v>70300</v>
       </c>
       <c r="F113" t="n">
-        <v>13.7392</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>67480</v>
+        <v>-13.77119943242702</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4582,22 +4596,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>67300</v>
+        <v>70750</v>
       </c>
       <c r="C114" t="n">
-        <v>67300</v>
+        <v>70800</v>
       </c>
       <c r="D114" t="n">
-        <v>67300</v>
+        <v>70800</v>
       </c>
       <c r="E114" t="n">
-        <v>67300</v>
+        <v>70750</v>
       </c>
       <c r="F114" t="n">
-        <v>12.4</v>
+        <v>152.2271</v>
       </c>
       <c r="G114" t="n">
-        <v>67360</v>
+        <v>138.455900567573</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4618,22 +4632,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>67000</v>
+        <v>70950</v>
       </c>
       <c r="C115" t="n">
-        <v>67000</v>
+        <v>70950</v>
       </c>
       <c r="D115" t="n">
-        <v>67000</v>
+        <v>70950</v>
       </c>
       <c r="E115" t="n">
-        <v>67000</v>
+        <v>70950</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4654</v>
+        <v>7.327</v>
       </c>
       <c r="G115" t="n">
-        <v>67200</v>
+        <v>145.782900567573</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4654,22 +4668,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67450</v>
+        <v>70950</v>
       </c>
       <c r="C116" t="n">
-        <v>67450</v>
+        <v>70950</v>
       </c>
       <c r="D116" t="n">
-        <v>67450</v>
+        <v>70950</v>
       </c>
       <c r="E116" t="n">
-        <v>67450</v>
+        <v>70950</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1991</v>
+        <v>4.4394</v>
       </c>
       <c r="G116" t="n">
-        <v>67190</v>
+        <v>145.782900567573</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4690,22 +4704,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67150</v>
+        <v>71000</v>
       </c>
       <c r="C117" t="n">
-        <v>67150</v>
+        <v>71000</v>
       </c>
       <c r="D117" t="n">
-        <v>67150</v>
+        <v>71000</v>
       </c>
       <c r="E117" t="n">
-        <v>67150</v>
+        <v>71000</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6596</v>
+        <v>2.1127</v>
       </c>
       <c r="G117" t="n">
-        <v>67150</v>
+        <v>147.895600567573</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4726,22 +4740,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67300</v>
+        <v>70550</v>
       </c>
       <c r="C118" t="n">
-        <v>67300</v>
+        <v>70500</v>
       </c>
       <c r="D118" t="n">
-        <v>67300</v>
+        <v>70550</v>
       </c>
       <c r="E118" t="n">
-        <v>67300</v>
+        <v>70500</v>
       </c>
       <c r="F118" t="n">
-        <v>5.8399</v>
+        <v>5.6458</v>
       </c>
       <c r="G118" t="n">
-        <v>67240</v>
+        <v>142.249800567573</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4762,22 +4776,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67300</v>
+        <v>70300</v>
       </c>
       <c r="C119" t="n">
-        <v>67300</v>
+        <v>70300</v>
       </c>
       <c r="D119" t="n">
-        <v>67300</v>
+        <v>70300</v>
       </c>
       <c r="E119" t="n">
-        <v>67300</v>
+        <v>70300</v>
       </c>
       <c r="F119" t="n">
-        <v>4.309</v>
+        <v>0.1</v>
       </c>
       <c r="G119" t="n">
-        <v>67240</v>
+        <v>142.149800567573</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4798,35 +4812,31 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>66850</v>
+        <v>70450</v>
       </c>
       <c r="C120" t="n">
-        <v>66850</v>
+        <v>70850</v>
       </c>
       <c r="D120" t="n">
-        <v>66850</v>
+        <v>70850</v>
       </c>
       <c r="E120" t="n">
-        <v>66850</v>
+        <v>70450</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2</v>
+        <v>5.312</v>
       </c>
       <c r="G120" t="n">
-        <v>67210</v>
+        <v>147.461800567573</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K120" t="n">
-        <v>67300</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4838,40 +4848,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67100</v>
+        <v>70850</v>
       </c>
       <c r="C121" t="n">
-        <v>67000</v>
+        <v>70850</v>
       </c>
       <c r="D121" t="n">
-        <v>67100</v>
+        <v>70850</v>
       </c>
       <c r="E121" t="n">
-        <v>67000</v>
+        <v>70850</v>
       </c>
       <c r="F121" t="n">
-        <v>6.724</v>
+        <v>1.4814</v>
       </c>
       <c r="G121" t="n">
-        <v>67120</v>
+        <v>147.461800567573</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>66850</v>
-      </c>
-      <c r="K121" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4882,40 +4884,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>66950</v>
+        <v>70850</v>
       </c>
       <c r="C122" t="n">
-        <v>66950</v>
+        <v>70850</v>
       </c>
       <c r="D122" t="n">
-        <v>66950</v>
+        <v>70850</v>
       </c>
       <c r="E122" t="n">
-        <v>66950</v>
+        <v>70850</v>
       </c>
       <c r="F122" t="n">
-        <v>2.826</v>
+        <v>1.9647</v>
       </c>
       <c r="G122" t="n">
-        <v>67080</v>
+        <v>147.461800567573</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K122" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4926,40 +4920,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66800</v>
+        <v>70500</v>
       </c>
       <c r="C123" t="n">
-        <v>66650</v>
+        <v>70500</v>
       </c>
       <c r="D123" t="n">
-        <v>66800</v>
+        <v>70500</v>
       </c>
       <c r="E123" t="n">
-        <v>66400</v>
+        <v>70500</v>
       </c>
       <c r="F123" t="n">
-        <v>5.2892</v>
+        <v>1.929</v>
       </c>
       <c r="G123" t="n">
-        <v>66950</v>
+        <v>145.532800567573</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>66950</v>
-      </c>
-      <c r="K123" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4970,40 +4956,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67450</v>
+        <v>70300</v>
       </c>
       <c r="C124" t="n">
-        <v>67750</v>
+        <v>70300</v>
       </c>
       <c r="D124" t="n">
-        <v>67750</v>
+        <v>70300</v>
       </c>
       <c r="E124" t="n">
-        <v>67450</v>
+        <v>70300</v>
       </c>
       <c r="F124" t="n">
-        <v>8.745200000000001</v>
+        <v>1.9852</v>
       </c>
       <c r="G124" t="n">
-        <v>67040</v>
+        <v>143.547600567573</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>66650</v>
-      </c>
-      <c r="K124" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5014,40 +4992,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67450</v>
+        <v>70150</v>
       </c>
       <c r="C125" t="n">
-        <v>67450</v>
+        <v>70150</v>
       </c>
       <c r="D125" t="n">
-        <v>67450</v>
+        <v>70150</v>
       </c>
       <c r="E125" t="n">
-        <v>67450</v>
+        <v>70150</v>
       </c>
       <c r="F125" t="n">
-        <v>1.8254</v>
+        <v>3.6374</v>
       </c>
       <c r="G125" t="n">
-        <v>67160</v>
+        <v>139.910200567573</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>67750</v>
-      </c>
-      <c r="K125" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5058,40 +5028,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67400</v>
+        <v>69950</v>
       </c>
       <c r="C126" t="n">
-        <v>67400</v>
+        <v>69600</v>
       </c>
       <c r="D126" t="n">
-        <v>67400</v>
+        <v>69950</v>
       </c>
       <c r="E126" t="n">
-        <v>67400</v>
+        <v>69600</v>
       </c>
       <c r="F126" t="n">
-        <v>2.6838</v>
+        <v>0.7138</v>
       </c>
       <c r="G126" t="n">
-        <v>67240</v>
+        <v>139.196400567573</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K126" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5102,44 +5064,2592 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>69850</v>
+      </c>
+      <c r="C127" t="n">
+        <v>69600</v>
+      </c>
+      <c r="D127" t="n">
+        <v>69850</v>
+      </c>
+      <c r="E127" t="n">
+        <v>69600</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.1402</v>
+      </c>
+      <c r="G127" t="n">
+        <v>139.196400567573</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>69600</v>
+      </c>
+      <c r="C128" t="n">
+        <v>69600</v>
+      </c>
+      <c r="D128" t="n">
+        <v>69600</v>
+      </c>
+      <c r="E128" t="n">
+        <v>69600</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G128" t="n">
+        <v>139.196400567573</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>69450</v>
+      </c>
+      <c r="C129" t="n">
+        <v>69450</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69450</v>
+      </c>
+      <c r="E129" t="n">
+        <v>69450</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="G129" t="n">
+        <v>136.389400567573</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>69400</v>
+      </c>
+      <c r="C130" t="n">
+        <v>69400</v>
+      </c>
+      <c r="D130" t="n">
+        <v>69400</v>
+      </c>
+      <c r="E130" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4.846</v>
+      </c>
+      <c r="G130" t="n">
+        <v>131.543400567573</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C131" t="n">
+        <v>69300</v>
+      </c>
+      <c r="D131" t="n">
+        <v>69500</v>
+      </c>
+      <c r="E131" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.1635</v>
+      </c>
+      <c r="G131" t="n">
+        <v>127.379900567573</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>69250</v>
+      </c>
+      <c r="C132" t="n">
+        <v>69250</v>
+      </c>
+      <c r="D132" t="n">
+        <v>69250</v>
+      </c>
+      <c r="E132" t="n">
+        <v>69250</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G132" t="n">
+        <v>125.719900567573</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C133" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E133" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="G133" t="n">
+        <v>123.575900567573</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>69000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="G134" t="n">
+        <v>123.575900567573</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>69000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E135" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.3877</v>
+      </c>
+      <c r="G135" t="n">
+        <v>123.575900567573</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>69200</v>
+      </c>
+      <c r="C136" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D136" t="n">
+        <v>69200</v>
+      </c>
+      <c r="E136" t="n">
+        <v>69200</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G136" t="n">
+        <v>134.975900567573</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>69000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G137" t="n">
+        <v>132.905900567573</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C138" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D138" t="n">
+        <v>68900</v>
+      </c>
+      <c r="E138" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G138" t="n">
+        <v>132.555900567573</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C139" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D139" t="n">
+        <v>68650</v>
+      </c>
+      <c r="E139" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G139" t="n">
+        <v>130.065900567573</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C140" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D140" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E140" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.1336</v>
+      </c>
+      <c r="G140" t="n">
+        <v>124.932300567573</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C141" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D141" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E141" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.358</v>
+      </c>
+      <c r="G141" t="n">
+        <v>121.574300567573</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>68150</v>
+      </c>
+      <c r="C142" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D142" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E142" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4.2827</v>
+      </c>
+      <c r="G142" t="n">
+        <v>117.291600567573</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C143" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D143" t="n">
+        <v>68900</v>
+      </c>
+      <c r="E143" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6.3283</v>
+      </c>
+      <c r="G143" t="n">
+        <v>123.619900567573</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>69150</v>
+      </c>
+      <c r="C144" t="n">
+        <v>69150</v>
+      </c>
+      <c r="D144" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E144" t="n">
+        <v>69150</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.7861</v>
+      </c>
+      <c r="G144" t="n">
+        <v>126.406000567573</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C145" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E145" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="G145" t="n">
+        <v>125.135000567573</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C146" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D146" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E146" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.343493449781</v>
+      </c>
+      <c r="G146" t="n">
+        <v>126.478494017354</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C147" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D147" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E147" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.3062</v>
+      </c>
+      <c r="G147" t="n">
+        <v>126.172294017354</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C148" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D148" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E148" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.7136</v>
+      </c>
+      <c r="G148" t="n">
+        <v>128.885894017354</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C149" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D149" t="n">
+        <v>69500</v>
+      </c>
+      <c r="E149" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>129.885894017354</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>69600</v>
+      </c>
+      <c r="C150" t="n">
+        <v>69600</v>
+      </c>
+      <c r="D150" t="n">
+        <v>69600</v>
+      </c>
+      <c r="E150" t="n">
+        <v>69600</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="G150" t="n">
+        <v>130.209894017354</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>69600</v>
+      </c>
+      <c r="C151" t="n">
+        <v>69600</v>
+      </c>
+      <c r="D151" t="n">
+        <v>69600</v>
+      </c>
+      <c r="E151" t="n">
+        <v>69600</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.3944</v>
+      </c>
+      <c r="G151" t="n">
+        <v>130.209894017354</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C152" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D152" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E152" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="G152" t="n">
+        <v>128.215894017354</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C153" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D153" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E153" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>128.215894017354</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C154" t="n">
+        <v>70100</v>
+      </c>
+      <c r="D154" t="n">
+        <v>70100</v>
+      </c>
+      <c r="E154" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="G154" t="n">
+        <v>128.357294017354</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C155" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D155" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E155" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.5737</v>
+      </c>
+      <c r="G155" t="n">
+        <v>125.783594017354</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C156" t="n">
+        <v>69150</v>
+      </c>
+      <c r="D156" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E156" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.8737</v>
+      </c>
+      <c r="G156" t="n">
+        <v>128.657294017354</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>69250</v>
+      </c>
+      <c r="C157" t="n">
+        <v>69250</v>
+      </c>
+      <c r="D157" t="n">
+        <v>69250</v>
+      </c>
+      <c r="E157" t="n">
+        <v>69250</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.287</v>
+      </c>
+      <c r="G157" t="n">
+        <v>129.944294017354</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>68950</v>
+      </c>
+      <c r="C158" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D158" t="n">
+        <v>68950</v>
+      </c>
+      <c r="E158" t="n">
+        <v>68650</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4.5279</v>
+      </c>
+      <c r="G158" t="n">
+        <v>125.416394017354</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>68750</v>
+      </c>
+      <c r="C159" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E159" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F159" t="n">
+        <v>31.013753623188</v>
+      </c>
+      <c r="G159" t="n">
+        <v>156.430147640542</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>68650</v>
+      </c>
+      <c r="C160" t="n">
+        <v>68600</v>
+      </c>
+      <c r="D160" t="n">
+        <v>68650</v>
+      </c>
+      <c r="E160" t="n">
+        <v>68600</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.4298</v>
+      </c>
+      <c r="G160" t="n">
+        <v>155.000347640542</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C161" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E161" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G161" t="n">
+        <v>152.410347640542</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C162" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D162" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E162" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="G162" t="n">
+        <v>154.676347640542</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C163" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D163" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E163" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.4009</v>
+      </c>
+      <c r="G163" t="n">
+        <v>154.676347640542</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C164" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D164" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E164" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17.6083</v>
+      </c>
+      <c r="G164" t="n">
+        <v>137.068047640542</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C165" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D165" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E165" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="G165" t="n">
+        <v>140.507047640542</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C166" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D166" t="n">
+        <v>68900</v>
+      </c>
+      <c r="E166" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.296995645863</v>
+      </c>
+      <c r="G166" t="n">
+        <v>140.804043286405</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C167" t="n">
+        <v>69150</v>
+      </c>
+      <c r="D167" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E167" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G167" t="n">
+        <v>140.954043286405</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>68750</v>
+      </c>
+      <c r="C168" t="n">
+        <v>69250</v>
+      </c>
+      <c r="D168" t="n">
+        <v>69250</v>
+      </c>
+      <c r="E168" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14.1975</v>
+      </c>
+      <c r="G168" t="n">
+        <v>155.151543286405</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C169" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D169" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E169" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2963</v>
+      </c>
+      <c r="G169" t="n">
+        <v>154.855243286405</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C170" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D170" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E170" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.7929</v>
+      </c>
+      <c r="G170" t="n">
+        <v>160.648143286405</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C171" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D171" t="n">
+        <v>68250</v>
+      </c>
+      <c r="E171" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.606</v>
+      </c>
+      <c r="G171" t="n">
+        <v>157.042143286405</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C172" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D172" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E172" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>157.042143286405</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C173" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D173" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E173" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.5758</v>
+      </c>
+      <c r="G173" t="n">
+        <v>158.617943286405</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C174" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D174" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E174" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.9407</v>
+      </c>
+      <c r="G174" t="n">
+        <v>159.558643286405</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>68550</v>
+      </c>
+      <c r="C175" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D175" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E175" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G175" t="n">
+        <v>159.558643286405</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C176" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D176" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E176" t="n">
+        <v>68150</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5.7784</v>
+      </c>
+      <c r="G176" t="n">
+        <v>153.780243286405</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C177" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D177" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E177" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.5195</v>
+      </c>
+      <c r="G177" t="n">
+        <v>155.299743286405</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C178" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D178" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E178" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5.6297</v>
+      </c>
+      <c r="G178" t="n">
+        <v>160.929443286405</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C179" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D179" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E179" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.3262</v>
+      </c>
+      <c r="G179" t="n">
+        <v>160.929443286405</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C180" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D180" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E180" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G180" t="n">
+        <v>156.819443286405</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D181" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E181" t="n">
+        <v>67800</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.7173</v>
+      </c>
+      <c r="G181" t="n">
+        <v>154.102143286405</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C182" t="n">
         <v>67500</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D182" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E182" t="n">
         <v>67500</v>
       </c>
-      <c r="D127" t="n">
+      <c r="F182" t="n">
+        <v>7.0913</v>
+      </c>
+      <c r="G182" t="n">
+        <v>147.010843286405</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C183" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D183" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E183" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G183" t="n">
+        <v>146.810843286405</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>66850</v>
+      </c>
+      <c r="D184" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.7392</v>
+      </c>
+      <c r="G184" t="n">
+        <v>133.071643286405</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C185" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D185" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E185" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F185" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G185" t="n">
+        <v>145.471643286405</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C186" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.4654</v>
+      </c>
+      <c r="G186" t="n">
+        <v>145.006243286405</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C187" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D187" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E187" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="G187" t="n">
+        <v>145.205343286405</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C188" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D188" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E188" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.6596</v>
+      </c>
+      <c r="G188" t="n">
+        <v>144.545743286405</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C189" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D189" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E189" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5.8399</v>
+      </c>
+      <c r="G189" t="n">
+        <v>150.385643286405</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C190" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D190" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E190" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="G190" t="n">
+        <v>150.385643286405</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>66850</v>
+      </c>
+      <c r="C191" t="n">
+        <v>66850</v>
+      </c>
+      <c r="D191" t="n">
+        <v>66850</v>
+      </c>
+      <c r="E191" t="n">
+        <v>66850</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G191" t="n">
+        <v>150.185643286405</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>67100</v>
+      </c>
+      <c r="C192" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E192" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="G192" t="n">
+        <v>156.909643286405</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C193" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D193" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E193" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="G193" t="n">
+        <v>154.083643286405</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C194" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D194" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E194" t="n">
+        <v>66400</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5.2892</v>
+      </c>
+      <c r="G194" t="n">
+        <v>148.794443286405</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C195" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D195" t="n">
+        <v>67750</v>
+      </c>
+      <c r="E195" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8.745200000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>157.539643286405</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C196" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D196" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E196" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.8254</v>
+      </c>
+      <c r="G196" t="n">
+        <v>155.714243286405</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C197" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D197" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E197" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.6838</v>
+      </c>
+      <c r="G197" t="n">
+        <v>153.030443286405</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>67500</v>
       </c>
-      <c r="E127" t="n">
+      <c r="C198" t="n">
         <v>67500</v>
       </c>
-      <c r="F127" t="n">
+      <c r="D198" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E198" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F198" t="n">
         <v>4.06</v>
       </c>
-      <c r="G127" t="n">
-        <v>67350</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K127" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>157.090443286405</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-36.14223538120001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +550,15 @@
         <v>-55.14073538120002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>68400</v>
-      </c>
-      <c r="K5" t="n">
-        <v>68400</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,110 +583,101 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>68450</v>
       </c>
       <c r="J6" t="n">
         <v>68450</v>
       </c>
-      <c r="K6" t="n">
-        <v>68400</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>69000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.2922</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-46.43293538120002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>69000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>68450</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68150</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D8" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E8" t="n">
+        <v>68150</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-64.32293538120001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
         <v>69000</v>
       </c>
-      <c r="C7" t="n">
-        <v>69000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>69000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>69000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.2922</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-46.43293538120002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>69000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>68400</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J8" t="n">
+        <v>68450</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>68150</v>
-      </c>
-      <c r="C8" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D8" t="n">
-        <v>68150</v>
-      </c>
-      <c r="E8" t="n">
-        <v>68150</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-64.32293538120001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>69000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -732,26 +702,15 @@
         <v>-5.959777102572012</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>68150</v>
-      </c>
-      <c r="K9" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,26 +735,19 @@
         <v>-5.082377102572012</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>68550</v>
       </c>
       <c r="J10" t="n">
         <v>68550</v>
       </c>
-      <c r="K10" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,26 +772,21 @@
         <v>-5.097377102572012</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>68750</v>
-      </c>
-      <c r="K11" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>68550</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -866,22 +813,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>68550</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -908,22 +852,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,24 +883,19 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>68100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>68100</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,24 +920,23 @@
         <v>15.13902289742799</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>68100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>68100</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1034,22 +963,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>68100</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1076,22 +1002,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,22 +1035,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,22 +1068,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1202,22 +1101,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1244,22 +1134,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,22 +1167,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1328,22 +1200,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,22 +1233,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>69000</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1.023260869565217</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1410,18 +1264,15 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1446,18 +1297,15 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1482,18 +1330,15 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1518,18 +1363,15 @@
         <v>7.158222897427992</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,18 +1396,15 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1590,18 +1429,15 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1628,16 +1464,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,16 +1497,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1700,16 +1530,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1736,16 +1563,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1772,16 +1596,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1806,18 +1627,15 @@
         <v>30.87472289742799</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1842,18 +1660,15 @@
         <v>31.36962289742799</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1878,18 +1693,15 @@
         <v>34.06692289742799</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1914,18 +1726,15 @@
         <v>22.44362289742799</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1950,18 +1759,15 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1986,18 +1792,15 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2022,18 +1825,15 @@
         <v>28.32022289742799</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2058,18 +1858,15 @@
         <v>28.93553536280099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,18 +1891,15 @@
         <v>29.95783536280099</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2130,18 +1924,15 @@
         <v>30.33143536280099</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,18 +1957,15 @@
         <v>-134.101864637199</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2202,18 +1990,15 @@
         <v>-133.694164637199</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2238,18 +2023,15 @@
         <v>-130.346277102572</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2274,18 +2056,15 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2310,18 +2089,15 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2346,18 +2122,15 @@
         <v>24.684522897428</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2382,18 +2155,15 @@
         <v>17.052822897428</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2418,18 +2188,15 @@
         <v>3.511422897428002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2454,18 +2221,15 @@
         <v>12.047522897428</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2492,16 +2256,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2526,18 +2287,15 @@
         <v>6.604011222979</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2564,16 +2322,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2600,16 +2355,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2636,16 +2388,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2672,16 +2421,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2708,16 +2454,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,16 +2487,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2780,16 +2520,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2816,16 +2553,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2852,16 +2586,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2888,16 +2619,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2924,16 +2652,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2960,16 +2685,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2996,16 +2718,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3032,16 +2751,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3068,16 +2784,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3104,16 +2817,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3140,16 +2850,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3176,16 +2883,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3212,16 +2916,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3248,16 +2949,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3284,16 +2982,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3320,16 +3015,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3356,16 +3048,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3392,16 +3081,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3428,16 +3114,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3464,16 +3147,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3500,16 +3180,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,16 +3213,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3572,16 +3246,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3608,16 +3279,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3644,16 +3312,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3680,16 +3345,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3716,16 +3378,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3752,16 +3411,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3788,16 +3444,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3824,16 +3477,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3860,16 +3510,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3896,16 +3543,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3932,16 +3576,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3968,16 +3609,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4004,16 +3642,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,16 +3675,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4074,18 +3706,15 @@
         <v>-55.54399943242702</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4110,18 +3739,15 @@
         <v>-52.03699943242702</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4146,18 +3772,15 @@
         <v>-49.79039943242702</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4182,18 +3805,15 @@
         <v>-49.76849943242702</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4218,18 +3838,15 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4254,18 +3871,15 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4290,18 +3904,15 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4326,18 +3937,15 @@
         <v>-15.11939943242702</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4362,18 +3970,15 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4398,18 +4003,15 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4434,18 +4036,15 @@
         <v>-13.81799943242702</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4470,18 +4069,15 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4506,18 +4102,15 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4542,18 +4135,15 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4578,18 +4168,15 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4614,18 +4201,15 @@
         <v>138.455900567573</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4652,16 +4236,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4688,16 +4269,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4724,16 +4302,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4760,16 +4335,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4796,16 +4368,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4832,16 +4401,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4868,16 +4434,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4904,16 +4467,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4940,16 +4500,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4976,16 +4533,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5012,16 +4566,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5048,16 +4599,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5084,16 +4632,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5120,16 +4665,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5156,16 +4698,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5192,16 +4731,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5228,16 +4764,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5264,16 +4797,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5300,16 +4830,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5336,16 +4863,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5372,16 +4896,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5408,16 +4929,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5444,16 +4962,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5480,16 +4995,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5516,16 +5028,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5552,16 +5061,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5588,16 +5094,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5624,16 +5127,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5660,16 +5160,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5696,16 +5193,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5732,16 +5226,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5768,16 +5259,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5804,16 +5292,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5840,16 +5325,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5876,16 +5358,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5912,16 +5391,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5948,16 +5424,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5984,16 +5457,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6020,16 +5490,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6056,16 +5523,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6090,18 +5554,15 @@
         <v>125.783594017354</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6126,18 +5587,15 @@
         <v>128.657294017354</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6162,18 +5620,15 @@
         <v>129.944294017354</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6198,18 +5653,15 @@
         <v>125.416394017354</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6234,18 +5686,15 @@
         <v>156.430147640542</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6270,18 +5719,15 @@
         <v>155.000347640542</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6308,16 +5754,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6344,16 +5787,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6380,16 +5820,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6416,16 +5853,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6452,16 +5886,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6488,16 +5919,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6524,16 +5952,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6558,18 +5983,15 @@
         <v>155.151543286405</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6594,18 +6016,15 @@
         <v>154.855243286405</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6630,18 +6049,15 @@
         <v>160.648143286405</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6666,18 +6082,15 @@
         <v>157.042143286405</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6702,18 +6115,15 @@
         <v>157.042143286405</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6738,18 +6148,15 @@
         <v>158.617943286405</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6776,16 +6183,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6812,16 +6216,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6848,16 +6249,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6884,16 +6282,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6920,16 +6315,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6956,16 +6348,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6992,16 +6381,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7028,16 +6414,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7064,16 +6447,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7100,16 +6480,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7136,16 +6513,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7172,16 +6546,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7208,16 +6579,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7244,16 +6612,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7280,16 +6645,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7316,16 +6678,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7352,16 +6711,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7388,16 +6744,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7424,16 +6777,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7460,16 +6810,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7496,16 +6843,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7532,16 +6876,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7568,16 +6909,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7604,16 +6942,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7640,18 +6975,15 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-36.14223538120001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-37.26143538120001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>69100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>69100</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +599,19 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>68450</v>
       </c>
       <c r="J6" t="n">
-        <v>68450</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>69100</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +640,17 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>69000</v>
       </c>
       <c r="J7" t="n">
-        <v>68450</v>
+        <v>69100</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -661,17 +681,17 @@
         <v>-64.32293538120001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>69000</v>
       </c>
       <c r="J8" t="n">
-        <v>68450</v>
+        <v>69100</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -702,11 +722,19 @@
         <v>-5.959777102572012</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>68150</v>
+      </c>
+      <c r="J9" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,15 +763,19 @@
         <v>-5.082377102572012</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>68550</v>
       </c>
       <c r="J10" t="n">
-        <v>68550</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>69100</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -776,11 +808,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>68550</v>
+        <v>69100</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -815,11 +847,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>68550</v>
+        <v>69100</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -853,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,15 +921,17 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>68100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>68100</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>69100</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,17 +960,15 @@
         <v>15.13902289742799</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>68100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>68100</v>
+        <v>69100</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -965,11 +1003,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>68100</v>
+        <v>69100</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1003,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1036,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1069,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1102,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1135,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1168,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1201,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1234,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1264,11 +1350,17 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1297,11 +1389,17 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1330,11 +1428,17 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1363,11 +1467,17 @@
         <v>7.158222897427992</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1506,17 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1429,11 +1545,17 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1465,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1498,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1531,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1564,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1597,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1627,11 +1779,17 @@
         <v>30.87472289742799</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1818,17 @@
         <v>31.36962289742799</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1693,11 +1857,17 @@
         <v>34.06692289742799</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1726,11 +1896,17 @@
         <v>22.44362289742799</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1759,11 +1935,17 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1792,11 +1974,17 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +2013,17 @@
         <v>28.32022289742799</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1858,11 +2052,17 @@
         <v>28.93553536280099</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1891,11 +2091,17 @@
         <v>29.95783536280099</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +2130,17 @@
         <v>30.33143536280099</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1957,11 +2169,17 @@
         <v>-134.101864637199</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +2208,17 @@
         <v>-133.694164637199</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2023,11 +2247,17 @@
         <v>-130.346277102572</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2056,11 +2286,17 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +2325,17 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +2364,17 @@
         <v>24.684522897428</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2403,17 @@
         <v>17.052822897428</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2442,17 @@
         <v>3.511422897428002</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2481,17 @@
         <v>12.047522897428</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2254,15 +2520,23 @@
         <v>18.294222897428</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>69100</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>1.080383502170767</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.008759124087591</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2287,7 +2561,7 @@
         <v>6.604011222979</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2320,7 +2594,7 @@
         <v>4.064411222979</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2353,7 +2627,7 @@
         <v>10.768411222979</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2386,7 +2660,7 @@
         <v>13.308011222979</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2419,7 +2693,7 @@
         <v>19.902211222979</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2452,7 +2726,7 @@
         <v>20.102211222979</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2485,7 +2759,7 @@
         <v>20.102211222979</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2518,7 +2792,7 @@
         <v>19.855511222979</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2551,7 +2825,7 @@
         <v>-11.208988777021</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2584,7 +2858,7 @@
         <v>-12.008988777021</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2617,7 +2891,7 @@
         <v>-5.223988777020999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2650,7 +2924,7 @@
         <v>-4.106188777020999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2683,7 +2957,7 @@
         <v>2.069611222979001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2716,7 +2990,7 @@
         <v>2.253211222979001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2749,7 +3023,7 @@
         <v>2.253211222979001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2782,7 +3056,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2815,7 +3089,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2848,7 +3122,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2881,7 +3155,7 @@
         <v>-0.01078877702099912</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2914,7 +3188,7 @@
         <v>-5.715810755041999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2947,7 +3221,7 @@
         <v>-6.715810755041999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2980,7 +3254,7 @@
         <v>-6.969710755041999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3013,7 +3287,7 @@
         <v>-6.969710755041999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3046,7 +3320,7 @@
         <v>-14.597210755042</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3178,7 +3452,7 @@
         <v>-88.87920941795601</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3343,7 +3617,7 @@
         <v>-117.736609417956</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3706,7 +3980,7 @@
         <v>-55.54399943242702</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3739,7 +4013,7 @@
         <v>-52.03699943242702</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3772,7 +4046,7 @@
         <v>-49.79039943242702</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3805,7 +4079,7 @@
         <v>-49.76849943242702</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3838,7 +4112,7 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3871,7 +4145,7 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3904,7 +4178,7 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3937,7 +4211,7 @@
         <v>-15.11939943242702</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3970,7 +4244,7 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4003,7 +4277,7 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4036,7 +4310,7 @@
         <v>-13.81799943242702</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4069,7 +4343,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4102,7 +4376,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4135,7 +4409,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4168,7 +4442,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4201,7 +4475,7 @@
         <v>138.455900567573</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5554,7 +5828,7 @@
         <v>125.783594017354</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5587,7 +5861,7 @@
         <v>128.657294017354</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5620,7 +5894,7 @@
         <v>129.944294017354</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5653,7 +5927,7 @@
         <v>125.416394017354</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5686,7 +5960,7 @@
         <v>156.430147640542</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5719,7 +5993,7 @@
         <v>155.000347640542</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5752,7 +6026,7 @@
         <v>152.410347640542</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5785,7 +6059,7 @@
         <v>154.676347640542</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5818,7 +6092,7 @@
         <v>154.676347640542</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5851,7 +6125,7 @@
         <v>137.068047640542</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5884,7 +6158,7 @@
         <v>140.507047640542</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5917,7 +6191,7 @@
         <v>140.804043286405</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5983,7 +6257,7 @@
         <v>155.151543286405</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6016,7 +6290,7 @@
         <v>154.855243286405</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6049,7 +6323,7 @@
         <v>160.648143286405</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6082,7 +6356,7 @@
         <v>157.042143286405</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6115,7 +6389,7 @@
         <v>157.042143286405</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6148,7 +6422,7 @@
         <v>158.617943286405</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6984,6 +7258,6 @@
       <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-36.14223538120001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-37.26143538120001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>69100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>69100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,17 +517,11 @@
         <v>-58.25793538120001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,17 +550,11 @@
         <v>-55.14073538120002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,19 +583,11 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68450</v>
-      </c>
-      <c r="J6" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,19 +616,11 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>69000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-64.32293538120001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-5.959777102572012</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>68150</v>
-      </c>
-      <c r="J9" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>-5.082377102572012</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>68550</v>
-      </c>
-      <c r="J10" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,17 +748,11 @@
         <v>-5.097377102572012</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,17 +781,11 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,17 +946,11 @@
         <v>18.06802289742799</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1077,17 +979,11 @@
         <v>19.33502289742799</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1116,17 +1012,11 @@
         <v>68.01692289742799</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1155,17 +1045,11 @@
         <v>65.41972289742799</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1194,17 +1078,11 @@
         <v>71.74682289742799</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1233,17 +1111,11 @@
         <v>75.94322289742799</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1272,17 +1144,11 @@
         <v>106.452622897428</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1311,17 +1177,11 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1350,17 +1210,11 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1389,17 +1243,11 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1428,17 +1276,11 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1467,17 +1309,11 @@
         <v>7.158222897427992</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1506,17 +1342,11 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1545,17 +1375,11 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1584,17 +1408,11 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1623,17 +1441,11 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1662,17 +1474,11 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1701,17 +1507,11 @@
         <v>18.73212289742799</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1740,17 +1540,11 @@
         <v>21.80112289742799</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1779,17 +1573,11 @@
         <v>30.87472289742799</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1818,17 +1606,11 @@
         <v>31.36962289742799</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1857,17 +1639,11 @@
         <v>34.06692289742799</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1896,17 +1672,11 @@
         <v>22.44362289742799</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1935,17 +1705,11 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1974,17 +1738,11 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2013,17 +1771,11 @@
         <v>28.32022289742799</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2052,17 +1804,11 @@
         <v>28.93553536280099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2091,17 +1837,11 @@
         <v>29.95783536280099</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2130,17 +1870,11 @@
         <v>30.33143536280099</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2520,23 +2200,15 @@
         <v>18.294222897428</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>69100</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>1.080383502170767</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.008759124087591</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2561,7 +2233,7 @@
         <v>6.604011222979</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2594,7 +2266,7 @@
         <v>4.064411222979</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2627,7 +2299,7 @@
         <v>10.768411222979</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2660,7 +2332,7 @@
         <v>13.308011222979</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2693,7 +2365,7 @@
         <v>19.902211222979</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2726,7 +2398,7 @@
         <v>20.102211222979</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2759,7 +2431,7 @@
         <v>20.102211222979</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2792,7 +2464,7 @@
         <v>19.855511222979</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2825,7 +2497,7 @@
         <v>-11.208988777021</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2858,7 +2530,7 @@
         <v>-12.008988777021</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2891,7 +2563,7 @@
         <v>-5.223988777020999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2924,7 +2596,7 @@
         <v>-4.106188777020999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2957,7 +2629,7 @@
         <v>2.069611222979001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2990,7 +2662,7 @@
         <v>2.253211222979001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3023,7 +2695,7 @@
         <v>2.253211222979001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3056,7 +2728,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3089,7 +2761,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3122,7 +2794,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3155,7 +2827,7 @@
         <v>-0.01078877702099912</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3188,7 +2860,7 @@
         <v>-5.715810755041999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3221,7 +2893,7 @@
         <v>-6.715810755041999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3254,7 +2926,7 @@
         <v>-6.969710755041999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3287,7 +2959,7 @@
         <v>-6.969710755041999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3320,7 +2992,7 @@
         <v>-14.597210755042</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3452,7 +3124,7 @@
         <v>-88.87920941795601</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3617,7 +3289,7 @@
         <v>-117.736609417956</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4145,11 +3817,17 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>69400</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4178,11 +3856,17 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>69400</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +3895,17 @@
         <v>-15.11939943242702</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>69400</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +3934,17 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>69450</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +3973,17 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>70000</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4310,11 +4012,17 @@
         <v>-13.81799943242702</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>70000</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4347,7 +4055,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4380,7 +4092,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4129,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4446,7 +4166,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4479,7 +4203,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4512,7 +4240,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4545,7 +4277,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4578,7 +4314,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4611,7 +4351,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4644,7 +4388,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4677,7 +4425,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4710,7 +4462,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4743,7 +4499,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4776,7 +4536,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4809,7 +4573,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4842,7 +4610,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4875,7 +4647,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4908,7 +4684,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4941,7 +4721,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4974,7 +4758,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5007,7 +4795,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +4832,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5073,7 +4869,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5106,7 +4906,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +4943,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5172,7 +4980,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5205,7 +5017,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5238,7 +5054,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +5087,16 @@
         <v>132.555900567573</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5300,7 +5122,7 @@
         <v>130.065900567573</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5333,7 +5155,7 @@
         <v>124.932300567573</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5366,7 +5188,7 @@
         <v>121.574300567573</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5399,7 +5221,7 @@
         <v>117.291600567573</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5432,7 +5254,7 @@
         <v>123.619900567573</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5498,7 +5320,7 @@
         <v>125.135000567573</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5531,7 +5353,7 @@
         <v>126.478494017354</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5795,7 +5617,7 @@
         <v>128.357294017354</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5828,7 +5650,7 @@
         <v>125.783594017354</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5894,7 +5716,7 @@
         <v>129.944294017354</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5927,7 +5749,7 @@
         <v>125.416394017354</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5960,7 +5782,7 @@
         <v>156.430147640542</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6026,7 +5848,7 @@
         <v>152.410347640542</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6059,7 +5881,7 @@
         <v>154.676347640542</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6092,7 +5914,7 @@
         <v>154.676347640542</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6125,7 +5947,7 @@
         <v>137.068047640542</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6158,7 +5980,7 @@
         <v>140.507047640542</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6191,7 +6013,7 @@
         <v>140.804043286405</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6257,7 +6079,7 @@
         <v>155.151543286405</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7258,6 +7080,6 @@
       <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -451,7 +451,7 @@
         <v>-36.14223538120001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-37.26143538120001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,11 +517,17 @@
         <v>-58.25793538120001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68500</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +556,15 @@
         <v>-55.14073538120002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +593,17 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>68450</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +632,17 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>69000</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +671,17 @@
         <v>-64.32293538120001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>69000</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,17 @@
         <v>-5.959777102572012</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>68150</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,17 @@
         <v>-5.082377102572012</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>68550</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,17 @@
         <v>-5.097377102572012</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>68750</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +827,17 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>68050</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,17 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>68100</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +905,17 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>68100</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +944,17 @@
         <v>15.13902289742799</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>68100</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +987,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1020,15 @@
         <v>18.06802289742799</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1057,15 @@
         <v>19.33502289742799</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1094,17 @@
         <v>68.01692289742799</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>69900</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1133,17 @@
         <v>65.41972289742799</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>70000</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1172,17 @@
         <v>71.74682289742799</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>69250</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1211,17 @@
         <v>75.94322289742799</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70100</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1250,17 @@
         <v>106.452622897428</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>70450</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1289,15 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1326,15 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1363,15 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1400,15 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1437,15 @@
         <v>7.158222897427992</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1474,15 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1511,17 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>70400</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1550,15 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1587,15 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1624,15 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1661,15 @@
         <v>18.73212289742799</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1698,15 @@
         <v>21.80112289742799</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1735,17 @@
         <v>30.87472289742799</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>70650</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1774,15 @@
         <v>31.36962289742799</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1811,17 @@
         <v>34.06692289742799</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>71600</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,10 +1854,12 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1705,11 +1885,19 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>70900</v>
+      </c>
+      <c r="J40" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1926,19 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>71600</v>
+      </c>
+      <c r="J41" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1967,19 @@
         <v>28.32022289742799</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>71600</v>
+      </c>
+      <c r="J42" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2008,17 @@
         <v>28.93553536280099</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2050,14 @@
         <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2089,14 @@
         <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2125,17 @@
         <v>-134.101864637199</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2164,17 @@
         <v>-133.694164637199</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2203,17 @@
         <v>-130.346277102572</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2242,17 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2281,17 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,13 +2320,19 @@
         <v>24.684522897428</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>71600</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>1.029916201117319</v>
       </c>
       <c r="M51" t="inlineStr"/>
     </row>
@@ -2101,7 +2359,7 @@
         <v>17.052822897428</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2392,7 @@
         <v>3.511422897428002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2425,7 @@
         <v>12.047522897428</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2491,7 @@
         <v>6.604011222979</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2623,7 @@
         <v>19.902211222979</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2728,7 +2986,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3019,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3052,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3085,7 @@
         <v>-0.01078877702099912</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3289,11 +3547,17 @@
         <v>-117.736609417956</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>70000</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3586,17 @@
         <v>-120.144609417956</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>69700</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3625,17 @@
         <v>-47.34340941795601</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>68750</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3664,17 @@
         <v>-45.34340941795601</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>69000</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3703,17 @@
         <v>-45.34340941795601</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>69550</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3742,17 @@
         <v>-45.29340941795601</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>69550</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3781,17 @@
         <v>-46.15940941795601</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>69800</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3820,17 @@
         <v>-44.49940941795602</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>68900</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3859,17 @@
         <v>-54.80529943242702</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>69400</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3902,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3939,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3972,17 @@
         <v>-55.54399943242702</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>68400</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4011,17 @@
         <v>-52.03699943242702</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>68200</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4050,17 @@
         <v>-49.79039943242702</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>68750</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4089,17 @@
         <v>-49.76849943242702</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>68950</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4128,17 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>69000</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3825,7 +4175,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -4051,9 +4401,11 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>70100</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4088,9 +4440,11 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>70300</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4125,9 +4479,11 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>70300</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4162,9 +4518,11 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>70300</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4199,9 +4557,11 @@
         <v>138.455900567573</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>70300</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4236,9 +4596,11 @@
         <v>145.782900567573</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>70800</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4310,9 +4672,11 @@
         <v>147.895600567573</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>70950</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4902,9 +5266,11 @@
         <v>123.575900567573</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>69250</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -4939,9 +5305,11 @@
         <v>123.575900567573</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>69000</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -4976,9 +5344,11 @@
         <v>123.575900567573</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>69000</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5013,9 +5383,11 @@
         <v>134.975900567573</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>69000</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5050,9 +5422,11 @@
         <v>132.905900567573</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>69200</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5087,16 +5461,20 @@
         <v>132.555900567573</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>69000</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5122,11 +5500,17 @@
         <v>130.065900567573</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>68900</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5539,17 @@
         <v>124.932300567573</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>68650</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5188,11 +5578,17 @@
         <v>121.574300567573</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>68300</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +5617,17 @@
         <v>117.291600567573</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>68200</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +5656,17 @@
         <v>123.619900567573</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>67550</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5695,17 @@
         <v>126.406000567573</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>68900</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +5734,17 @@
         <v>125.135000567573</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>69150</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5353,11 +5773,15 @@
         <v>126.478494017354</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5390,7 +5814,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5423,7 +5851,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5884,17 @@
         <v>129.885894017354</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>69050</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5489,7 +5927,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5522,7 +5964,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5555,7 +6001,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5588,7 +6038,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +6071,15 @@
         <v>128.357294017354</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5654,7 +6112,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5687,7 +6149,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5720,7 +6186,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5753,7 +6223,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5786,7 +6260,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5819,7 +6297,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5852,7 +6334,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5885,7 +6371,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6408,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5951,7 +6445,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5984,7 +6482,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6017,7 +6519,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6050,7 +6556,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6083,7 +6593,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6116,7 +6630,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6149,7 +6667,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6182,7 +6704,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6215,7 +6741,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6248,7 +6778,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6281,7 +6815,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6314,7 +6852,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6347,7 +6889,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6380,7 +6926,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6413,7 +6963,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6446,7 +7000,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6479,7 +7037,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6512,7 +7074,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6545,7 +7111,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6578,7 +7148,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6611,7 +7185,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6644,7 +7222,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6677,7 +7259,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6710,7 +7296,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6743,7 +7333,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6776,7 +7370,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6809,7 +7407,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6842,7 +7444,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6875,7 +7481,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6908,7 +7518,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6941,7 +7555,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6974,7 +7592,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7007,7 +7629,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7040,7 +7666,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7703,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest XMR.xlsx
+++ b/BackTest/2019-10-26 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6.2548</v>
       </c>
       <c r="G2" t="n">
-        <v>-36.14223538120001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.1192</v>
       </c>
       <c r="G3" t="n">
-        <v>-37.26143538120001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,24 +503,15 @@
         <v>20.9965</v>
       </c>
       <c r="G4" t="n">
-        <v>-58.25793538120001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,22 +533,15 @@
         <v>3.1172</v>
       </c>
       <c r="G5" t="n">
-        <v>-55.14073538120002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,24 +563,15 @@
         <v>8.707800000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-46.43293538120002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,24 +593,15 @@
         <v>1.2922</v>
       </c>
       <c r="G7" t="n">
-        <v>-46.43293538120002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -668,24 +623,15 @@
         <v>17.89</v>
       </c>
       <c r="G8" t="n">
-        <v>-64.32293538120001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,24 +653,15 @@
         <v>58.363158278628</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.959777102572012</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>68150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,24 +683,15 @@
         <v>0.8774</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.082377102572012</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>68550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,24 +713,15 @@
         <v>0.015</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.097377102572012</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>68750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -824,24 +743,15 @@
         <v>19.5564</v>
       </c>
       <c r="G12" t="n">
-        <v>14.45902289742799</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>68050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,24 +773,15 @@
         <v>0.3</v>
       </c>
       <c r="G13" t="n">
-        <v>14.45902289742799</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>68100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,24 +803,15 @@
         <v>0.2807</v>
       </c>
       <c r="G14" t="n">
-        <v>14.45902289742799</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>68100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -941,24 +833,15 @@
         <v>0.68</v>
       </c>
       <c r="G15" t="n">
-        <v>15.13902289742799</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>68100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,22 +863,15 @@
         <v>1.958</v>
       </c>
       <c r="G16" t="n">
-        <v>17.09702289742799</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1017,22 +893,15 @@
         <v>0.971</v>
       </c>
       <c r="G17" t="n">
-        <v>18.06802289742799</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,22 +923,15 @@
         <v>1.267</v>
       </c>
       <c r="G18" t="n">
-        <v>19.33502289742799</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,24 +953,15 @@
         <v>48.6819</v>
       </c>
       <c r="G19" t="n">
-        <v>68.01692289742799</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>69900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1130,24 +983,15 @@
         <v>2.5972</v>
       </c>
       <c r="G20" t="n">
-        <v>65.41972289742799</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>70000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1169,24 +1013,15 @@
         <v>6.3271</v>
       </c>
       <c r="G21" t="n">
-        <v>71.74682289742799</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>69250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1208,24 +1043,15 @@
         <v>4.1964</v>
       </c>
       <c r="G22" t="n">
-        <v>75.94322289742799</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>70100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1247,24 +1073,15 @@
         <v>30.5094</v>
       </c>
       <c r="G23" t="n">
-        <v>106.452622897428</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>70450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,22 +1103,15 @@
         <v>37.0564</v>
       </c>
       <c r="G24" t="n">
-        <v>69.39622289742799</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1323,22 +1133,15 @@
         <v>2.6688</v>
       </c>
       <c r="G25" t="n">
-        <v>69.39622289742799</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,22 +1163,15 @@
         <v>59.4184</v>
       </c>
       <c r="G26" t="n">
-        <v>9.977822897427991</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1397,22 +1193,15 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>9.977822897427991</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,22 +1223,15 @@
         <v>2.8196</v>
       </c>
       <c r="G28" t="n">
-        <v>7.158222897427992</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1471,22 +1253,15 @@
         <v>11.7236</v>
       </c>
       <c r="G29" t="n">
-        <v>18.88182289742799</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1508,24 +1283,15 @@
         <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>18.98182289742799</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>70400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1547,22 +1313,15 @@
         <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>18.88182289742799</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1584,22 +1343,15 @@
         <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>18.98182289742799</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1621,22 +1373,15 @@
         <v>0.1265</v>
       </c>
       <c r="G33" t="n">
-        <v>18.98182289742799</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1658,22 +1403,15 @@
         <v>0.2497</v>
       </c>
       <c r="G34" t="n">
-        <v>18.73212289742799</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1695,22 +1433,15 @@
         <v>3.069</v>
       </c>
       <c r="G35" t="n">
-        <v>21.80112289742799</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1732,24 +1463,15 @@
         <v>9.073600000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>30.87472289742799</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1771,22 +1493,15 @@
         <v>0.4949</v>
       </c>
       <c r="G37" t="n">
-        <v>31.36962289742799</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1808,24 +1523,15 @@
         <v>2.6973</v>
       </c>
       <c r="G38" t="n">
-        <v>34.06692289742799</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>71600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1847,20 +1553,15 @@
         <v>11.6233</v>
       </c>
       <c r="G39" t="n">
-        <v>22.44362289742799</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K39" t="n">
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,26 +1583,15 @@
         <v>5.7901</v>
       </c>
       <c r="G40" t="n">
-        <v>28.23372289742799</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>70900</v>
-      </c>
-      <c r="J40" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1923,26 +1613,15 @@
         <v>0.8</v>
       </c>
       <c r="G41" t="n">
-        <v>28.23372289742799</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>71600</v>
-      </c>
-      <c r="J41" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1964,26 +1643,15 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>28.32022289742799</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>71600</v>
-      </c>
-      <c r="J42" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2005,24 +1673,15 @@
         <v>0.615312465373</v>
       </c>
       <c r="G43" t="n">
-        <v>28.93553536280099</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,24 +1703,15 @@
         <v>1.0223</v>
       </c>
       <c r="G44" t="n">
-        <v>29.95783536280099</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2083,24 +1733,15 @@
         <v>0.3736</v>
       </c>
       <c r="G45" t="n">
-        <v>30.33143536280099</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2122,24 +1763,15 @@
         <v>164.4333</v>
       </c>
       <c r="G46" t="n">
-        <v>-134.101864637199</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2161,24 +1793,15 @@
         <v>0.4077</v>
       </c>
       <c r="G47" t="n">
-        <v>-133.694164637199</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2200,24 +1823,15 @@
         <v>3.347887534627</v>
       </c>
       <c r="G48" t="n">
-        <v>-130.346277102572</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2239,24 +1853,15 @@
         <v>169.0345</v>
       </c>
       <c r="G49" t="n">
-        <v>38.68822289742801</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2278,24 +1883,15 @@
         <v>0.2</v>
       </c>
       <c r="G50" t="n">
-        <v>38.68822289742801</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2317,24 +1913,15 @@
         <v>14.0037</v>
       </c>
       <c r="G51" t="n">
-        <v>24.684522897428</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>71600</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1.029916201117319</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2356,18 +1943,15 @@
         <v>7.6317</v>
       </c>
       <c r="G52" t="n">
-        <v>17.052822897428</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2389,18 +1973,15 @@
         <v>13.5414</v>
       </c>
       <c r="G53" t="n">
-        <v>3.511422897428002</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2422,18 +2003,15 @@
         <v>8.536099999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>12.047522897428</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2455,18 +2033,15 @@
         <v>6.2467</v>
       </c>
       <c r="G55" t="n">
-        <v>18.294222897428</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2488,18 +2063,15 @@
         <v>11.690211674449</v>
       </c>
       <c r="G56" t="n">
-        <v>6.604011222979</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2521,18 +2093,15 @@
         <v>2.5396</v>
       </c>
       <c r="G57" t="n">
-        <v>4.064411222979</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2554,18 +2123,15 @@
         <v>6.704</v>
       </c>
       <c r="G58" t="n">
-        <v>10.768411222979</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2587,18 +2153,15 @@
         <v>2.5396</v>
       </c>
       <c r="G59" t="n">
-        <v>13.308011222979</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2620,18 +2183,15 @@
         <v>6.5942</v>
       </c>
       <c r="G60" t="n">
-        <v>19.902211222979</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2653,18 +2213,15 @@
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>20.102211222979</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2686,18 +2243,15 @@
         <v>0.2</v>
       </c>
       <c r="G62" t="n">
-        <v>20.102211222979</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2719,18 +2273,15 @@
         <v>0.2467</v>
       </c>
       <c r="G63" t="n">
-        <v>19.855511222979</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2752,18 +2303,15 @@
         <v>31.0645</v>
       </c>
       <c r="G64" t="n">
-        <v>-11.208988777021</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2785,18 +2333,15 @@
         <v>0.8</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.008988777021</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2818,18 +2363,15 @@
         <v>6.785</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.223988777020999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2851,18 +2393,15 @@
         <v>1.1178</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.106188777020999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2884,18 +2423,15 @@
         <v>6.1758</v>
       </c>
       <c r="G68" t="n">
-        <v>2.069611222979001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2917,18 +2453,15 @@
         <v>0.1836</v>
       </c>
       <c r="G69" t="n">
-        <v>2.253211222979001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2950,18 +2483,15 @@
         <v>0.0563</v>
       </c>
       <c r="G70" t="n">
-        <v>2.253211222979001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2983,18 +2513,15 @@
         <v>1.264</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9892112229790009</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3016,18 +2543,15 @@
         <v>4.0979</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9892112229790009</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3049,18 +2573,15 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9892112229790009</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3082,18 +2603,15 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01078877702099912</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3115,18 +2633,15 @@
         <v>5.705021978021</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.715810755041999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3148,18 +2663,15 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.715810755041999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3181,18 +2693,15 @@
         <v>0.2539</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.969710755041999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,18 +2723,15 @@
         <v>0.0461</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.969710755041999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3247,18 +2753,15 @@
         <v>7.6275</v>
       </c>
       <c r="G79" t="n">
-        <v>-14.597210755042</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3280,18 +2783,15 @@
         <v>141</v>
       </c>
       <c r="G80" t="n">
-        <v>-155.597210755042</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3313,18 +2813,15 @@
         <v>72.983601337086</v>
       </c>
       <c r="G81" t="n">
-        <v>-82.613609417956</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3346,18 +2843,15 @@
         <v>5.5856</v>
       </c>
       <c r="G82" t="n">
-        <v>-88.199209417956</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3379,18 +2873,15 @@
         <v>0.68</v>
       </c>
       <c r="G83" t="n">
-        <v>-88.87920941795601</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3412,18 +2903,15 @@
         <v>0.85</v>
       </c>
       <c r="G84" t="n">
-        <v>-89.729209417956</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3445,18 +2933,15 @@
         <v>1.06</v>
       </c>
       <c r="G85" t="n">
-        <v>-90.789209417956</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3478,18 +2963,15 @@
         <v>5.4353</v>
       </c>
       <c r="G86" t="n">
-        <v>-96.224509417956</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3511,18 +2993,15 @@
         <v>13.3665</v>
       </c>
       <c r="G87" t="n">
-        <v>-109.591009417956</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3544,24 +3023,15 @@
         <v>8.1456</v>
       </c>
       <c r="G88" t="n">
-        <v>-117.736609417956</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>70000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3583,24 +3053,15 @@
         <v>2.408</v>
       </c>
       <c r="G89" t="n">
-        <v>-120.144609417956</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3622,24 +3083,15 @@
         <v>72.80119999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-47.34340941795601</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>68750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3661,24 +3113,15 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>-45.34340941795601</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,24 +3143,15 @@
         <v>5.7749</v>
       </c>
       <c r="G92" t="n">
-        <v>-45.34340941795601</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>69550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3739,24 +3173,15 @@
         <v>0.05</v>
       </c>
       <c r="G93" t="n">
-        <v>-45.29340941795601</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>69550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3778,24 +3203,15 @@
         <v>0.866</v>
       </c>
       <c r="G94" t="n">
-        <v>-46.15940941795601</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>69800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3817,24 +3233,15 @@
         <v>1.66</v>
       </c>
       <c r="G95" t="n">
-        <v>-44.49940941795602</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>68900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3856,24 +3263,15 @@
         <v>10.305890014471</v>
       </c>
       <c r="G96" t="n">
-        <v>-54.80529943242702</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>69400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3895,22 +3293,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-55.80529943242702</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,22 +3323,15 @@
         <v>2.827</v>
       </c>
       <c r="G98" t="n">
-        <v>-52.97829943242702</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3969,24 +3353,15 @@
         <v>2.5657</v>
       </c>
       <c r="G99" t="n">
-        <v>-55.54399943242702</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4008,24 +3383,15 @@
         <v>3.507</v>
       </c>
       <c r="G100" t="n">
-        <v>-52.03699943242702</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>68200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4047,24 +3413,15 @@
         <v>2.2466</v>
       </c>
       <c r="G101" t="n">
-        <v>-49.79039943242702</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>68750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4086,24 +3443,15 @@
         <v>0.0219</v>
       </c>
       <c r="G102" t="n">
-        <v>-49.76849943242702</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>68950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4125,24 +3473,15 @@
         <v>33.3322</v>
       </c>
       <c r="G103" t="n">
-        <v>-16.43629943242702</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4164,24 +3503,15 @@
         <v>48.3437</v>
       </c>
       <c r="G104" t="n">
-        <v>-16.43629943242702</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>69400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4203,24 +3533,15 @@
         <v>0.63</v>
       </c>
       <c r="G105" t="n">
-        <v>-16.43629943242702</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>69400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4242,24 +3563,15 @@
         <v>1.3169</v>
       </c>
       <c r="G106" t="n">
-        <v>-15.11939943242702</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>69400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4281,24 +3593,15 @@
         <v>0.45</v>
       </c>
       <c r="G107" t="n">
-        <v>-14.66939943242702</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>69450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4320,24 +3623,15 @@
         <v>3.0837</v>
       </c>
       <c r="G108" t="n">
-        <v>-14.66939943242702</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>70000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4359,24 +3653,15 @@
         <v>0.8514</v>
       </c>
       <c r="G109" t="n">
-        <v>-13.81799943242702</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>70000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4398,24 +3683,15 @@
         <v>0.0468</v>
       </c>
       <c r="G110" t="n">
-        <v>-13.77119943242702</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>70100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4437,24 +3713,15 @@
         <v>0.4372</v>
       </c>
       <c r="G111" t="n">
-        <v>-13.77119943242702</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4476,24 +3743,15 @@
         <v>16.8926</v>
       </c>
       <c r="G112" t="n">
-        <v>-13.77119943242702</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4515,24 +3773,15 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>-13.77119943242702</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4554,24 +3803,15 @@
         <v>152.2271</v>
       </c>
       <c r="G114" t="n">
-        <v>138.455900567573</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4593,24 +3833,15 @@
         <v>7.327</v>
       </c>
       <c r="G115" t="n">
-        <v>145.782900567573</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>70800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4632,22 +3863,15 @@
         <v>4.4394</v>
       </c>
       <c r="G116" t="n">
-        <v>145.782900567573</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4669,24 +3893,15 @@
         <v>2.1127</v>
       </c>
       <c r="G117" t="n">
-        <v>147.895600567573</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>70950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4708,22 +3923,15 @@
         <v>5.6458</v>
       </c>
       <c r="G118" t="n">
-        <v>142.249800567573</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4745,22 +3953,15 @@
         <v>0.1</v>
       </c>
       <c r="G119" t="n">
-        <v>142.149800567573</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4782,22 +3983,15 @@
         <v>5.312</v>
       </c>
       <c r="G120" t="n">
-        <v>147.461800567573</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4819,22 +4013,15 @@
         <v>1.4814</v>
       </c>
       <c r="G121" t="n">
-        <v>147.461800567573</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4856,22 +4043,15 @@
         <v>1.9647</v>
       </c>
       <c r="G122" t="n">
-        <v>147.461800567573</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4893,22 +4073,15 @@
         <v>1.929</v>
       </c>
       <c r="G123" t="n">
-        <v>145.532800567573</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4930,22 +4103,15 @@
         <v>1.9852</v>
       </c>
       <c r="G124" t="n">
-        <v>143.547600567573</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4967,22 +4133,15 @@
         <v>3.6374</v>
       </c>
       <c r="G125" t="n">
-        <v>139.910200567573</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5004,22 +4163,15 @@
         <v>0.7138</v>
       </c>
       <c r="G126" t="n">
-        <v>139.196400567573</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5041,22 +4193,15 @@
         <v>1.1402</v>
       </c>
       <c r="G127" t="n">
-        <v>139.196400567573</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5078,22 +4223,15 @@
         <v>1.06</v>
       </c>
       <c r="G128" t="n">
-        <v>139.196400567573</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5115,22 +4253,15 @@
         <v>2.807</v>
       </c>
       <c r="G129" t="n">
-        <v>136.389400567573</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5152,22 +4283,15 @@
         <v>4.846</v>
       </c>
       <c r="G130" t="n">
-        <v>131.543400567573</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5189,22 +4313,15 @@
         <v>4.1635</v>
       </c>
       <c r="G131" t="n">
-        <v>127.379900567573</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5226,22 +4343,15 @@
         <v>1.66</v>
       </c>
       <c r="G132" t="n">
-        <v>125.719900567573</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5263,24 +4373,15 @@
         <v>2.144</v>
       </c>
       <c r="G133" t="n">
-        <v>123.575900567573</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>69250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5302,24 +4403,15 @@
         <v>0.961</v>
       </c>
       <c r="G134" t="n">
-        <v>123.575900567573</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5341,24 +4433,15 @@
         <v>4.3877</v>
       </c>
       <c r="G135" t="n">
-        <v>123.575900567573</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5380,24 +4463,15 @@
         <v>11.4</v>
       </c>
       <c r="G136" t="n">
-        <v>134.975900567573</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5419,24 +4493,15 @@
         <v>2.07</v>
       </c>
       <c r="G137" t="n">
-        <v>132.905900567573</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>69200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5458,24 +4523,15 @@
         <v>0.35</v>
       </c>
       <c r="G138" t="n">
-        <v>132.555900567573</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>69000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5497,24 +4553,21 @@
         <v>2.49</v>
       </c>
       <c r="G139" t="n">
-        <v>130.065900567573</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
         <v>68900</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5536,24 +4589,21 @@
         <v>5.1336</v>
       </c>
       <c r="G140" t="n">
-        <v>124.932300567573</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
         <v>68650</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5575,24 +4625,21 @@
         <v>3.358</v>
       </c>
       <c r="G141" t="n">
-        <v>121.574300567573</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
         <v>68300</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5614,24 +4661,21 @@
         <v>4.2827</v>
       </c>
       <c r="G142" t="n">
-        <v>117.291600567573</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
         <v>68200</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5653,24 +4697,21 @@
         <v>6.3283</v>
       </c>
       <c r="G143" t="n">
-        <v>123.619900567573</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
         <v>67550</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5692,24 +4733,21 @@
         <v>2.7861</v>
       </c>
       <c r="G144" t="n">
-        <v>126.406000567573</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
         <v>68900</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5731,24 +4769,21 @@
         <v>1.271</v>
       </c>
       <c r="G145" t="n">
-        <v>125.135000567573</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
         <v>69150</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5770,22 +4805,21 @@
         <v>1.343493449781</v>
       </c>
       <c r="G146" t="n">
-        <v>126.478494017354</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>68300</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5807,22 +4841,21 @@
         <v>0.3062</v>
       </c>
       <c r="G147" t="n">
-        <v>126.172294017354</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5844,22 +4877,21 @@
         <v>2.7136</v>
       </c>
       <c r="G148" t="n">
-        <v>128.885894017354</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>68550</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5881,24 +4913,21 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>129.885894017354</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
         <v>69050</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5920,22 +4949,21 @@
         <v>0.324</v>
       </c>
       <c r="G150" t="n">
-        <v>130.209894017354</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>69500</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5957,22 +4985,21 @@
         <v>0.3944</v>
       </c>
       <c r="G151" t="n">
-        <v>130.209894017354</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5994,22 +5021,21 @@
         <v>1.994</v>
       </c>
       <c r="G152" t="n">
-        <v>128.215894017354</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6031,22 +5057,21 @@
         <v>0.001</v>
       </c>
       <c r="G153" t="n">
-        <v>128.215894017354</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>69550</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6068,22 +5093,21 @@
         <v>0.1414</v>
       </c>
       <c r="G154" t="n">
-        <v>128.357294017354</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>69550</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6105,22 +5129,19 @@
         <v>2.5737</v>
       </c>
       <c r="G155" t="n">
-        <v>125.783594017354</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6142,22 +5163,21 @@
         <v>2.8737</v>
       </c>
       <c r="G156" t="n">
-        <v>128.657294017354</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>69050</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6179,22 +5199,21 @@
         <v>1.287</v>
       </c>
       <c r="G157" t="n">
-        <v>129.944294017354</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>69150</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6216,22 +5235,19 @@
         <v>4.5279</v>
       </c>
       <c r="G158" t="n">
-        <v>125.416394017354</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6253,22 +5269,21 @@
         <v>31.013753623188</v>
       </c>
       <c r="G159" t="n">
-        <v>156.430147640542</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>68650</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6290,22 +5305,19 @@
         <v>1.4298</v>
       </c>
       <c r="G160" t="n">
-        <v>155.000347640542</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6327,22 +5339,19 @@
         <v>2.59</v>
       </c>
       <c r="G161" t="n">
-        <v>152.410347640542</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6364,22 +5373,19 @@
         <v>2.266</v>
       </c>
       <c r="G162" t="n">
-        <v>154.676347640542</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6401,22 +5407,19 @@
         <v>2.4009</v>
       </c>
       <c r="G163" t="n">
-        <v>154.676347640542</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6438,22 +5441,19 @@
         <v>17.6083</v>
       </c>
       <c r="G164" t="n">
-        <v>137.068047640542</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6475,22 +5475,19 @@
         <v>3.439</v>
       </c>
       <c r="G165" t="n">
-        <v>140.507047640542</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6512,22 +5509,19 @@
         <v>0.296995645863</v>
       </c>
       <c r="G166" t="n">
-        <v>140.804043286405</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6549,22 +5543,19 @@
         <v>0.15</v>
       </c>
       <c r="G167" t="n">
-        <v>140.954043286405</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6586,22 +5577,19 @@
         <v>14.1975</v>
       </c>
       <c r="G168" t="n">
-        <v>155.151543286405</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6623,22 +5611,19 @@
         <v>0.2963</v>
       </c>
       <c r="G169" t="n">
-        <v>154.855243286405</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6660,22 +5645,19 @@
         <v>5.7929</v>
       </c>
       <c r="G170" t="n">
-        <v>160.648143286405</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6697,22 +5679,19 @@
         <v>3.606</v>
       </c>
       <c r="G171" t="n">
-        <v>157.042143286405</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6734,22 +5713,21 @@
         <v>0.1</v>
       </c>
       <c r="G172" t="n">
-        <v>157.042143286405</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6771,22 +5749,21 @@
         <v>1.5758</v>
       </c>
       <c r="G173" t="n">
-        <v>158.617943286405</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6808,22 +5785,21 @@
         <v>0.9407</v>
       </c>
       <c r="G174" t="n">
-        <v>159.558643286405</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>68450</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6845,22 +5821,21 @@
         <v>0.15</v>
       </c>
       <c r="G175" t="n">
-        <v>159.558643286405</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>68550</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6882,22 +5857,21 @@
         <v>5.7784</v>
       </c>
       <c r="G176" t="n">
-        <v>153.780243286405</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>68550</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6919,22 +5893,19 @@
         <v>1.5195</v>
       </c>
       <c r="G177" t="n">
-        <v>155.299743286405</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6956,22 +5927,19 @@
         <v>5.6297</v>
       </c>
       <c r="G178" t="n">
-        <v>160.929443286405</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6993,22 +5961,19 @@
         <v>2.3262</v>
       </c>
       <c r="G179" t="n">
-        <v>160.929443286405</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7030,22 +5995,19 @@
         <v>4.11</v>
       </c>
       <c r="G180" t="n">
-        <v>156.819443286405</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7067,22 +6029,21 @@
         <v>2.7173</v>
       </c>
       <c r="G181" t="n">
-        <v>154.102143286405</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>67900</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7104,22 +6065,21 @@
         <v>7.0913</v>
       </c>
       <c r="G182" t="n">
-        <v>147.010843286405</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>67800</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7141,22 +6101,21 @@
         <v>0.2</v>
       </c>
       <c r="G183" t="n">
-        <v>146.810843286405</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>67500</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7178,22 +6137,21 @@
         <v>13.7392</v>
       </c>
       <c r="G184" t="n">
-        <v>133.071643286405</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>67350</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7215,22 +6173,21 @@
         <v>12.4</v>
       </c>
       <c r="G185" t="n">
-        <v>145.471643286405</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>66850</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7252,22 +6209,21 @@
         <v>0.4654</v>
       </c>
       <c r="G186" t="n">
-        <v>145.006243286405</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7289,22 +6245,21 @@
         <v>0.1991</v>
       </c>
       <c r="G187" t="n">
-        <v>145.205343286405</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>67000</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7326,22 +6281,19 @@
         <v>0.6596</v>
       </c>
       <c r="G188" t="n">
-        <v>144.545743286405</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7363,22 +6315,21 @@
         <v>5.8399</v>
       </c>
       <c r="G189" t="n">
-        <v>150.385643286405</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>67150</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7400,22 +6351,21 @@
         <v>4.309</v>
       </c>
       <c r="G190" t="n">
-        <v>150.385643286405</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7437,22 +6387,21 @@
         <v>0.2</v>
       </c>
       <c r="G191" t="n">
-        <v>150.185643286405</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7474,22 +6423,21 @@
         <v>6.724</v>
       </c>
       <c r="G192" t="n">
-        <v>156.909643286405</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>66850</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7511,22 +6459,21 @@
         <v>2.826</v>
       </c>
       <c r="G193" t="n">
-        <v>154.083643286405</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>67000</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7548,22 +6495,19 @@
         <v>5.2892</v>
       </c>
       <c r="G194" t="n">
-        <v>148.794443286405</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7585,22 +6529,21 @@
         <v>8.745200000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>157.539643286405</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>66650</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7622,22 +6565,21 @@
         <v>1.8254</v>
       </c>
       <c r="G196" t="n">
-        <v>155.714243286405</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>67750</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7659,22 +6601,19 @@
         <v>2.6838</v>
       </c>
       <c r="G197" t="n">
-        <v>153.030443286405</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7696,22 +6635,21 @@
         <v>4.06</v>
       </c>
       <c r="G198" t="n">
-        <v>157.090443286405</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>67400</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
